--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317EDD9E-5A11-4942-975C-58498E46EDAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22381A33-B4BA-4651-B3AF-1389D509592E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26340" yWindow="3390" windowWidth="22245" windowHeight="16755" firstSheet="2" activeTab="10" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
+    <workbookView xWindow="-26340" yWindow="3390" windowWidth="22245" windowHeight="16755" activeTab="15" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,11 @@
     <sheet name="one_sin" sheetId="9" r:id="rId9"/>
     <sheet name="plasma" sheetId="10" r:id="rId10"/>
     <sheet name="rainbow_march" sheetId="11" r:id="rId11"/>
+    <sheet name="ripple" sheetId="12" r:id="rId12"/>
+    <sheet name="serendipitous" sheetId="13" r:id="rId13"/>
+    <sheet name="spiral" sheetId="14" r:id="rId14"/>
+    <sheet name="three_sin" sheetId="15" r:id="rId15"/>
+    <sheet name="two_sin" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="176">
   <si>
     <t>readkeyboard() options</t>
   </si>
@@ -271,21 +276,12 @@
     <t>J</t>
   </si>
   <si>
-    <t>thatspeed</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
-    <t>thatrot</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>thatcutoff</t>
-  </si>
-  <si>
     <t>this_phase</t>
   </si>
   <si>
@@ -470,16 +466,130 @@
   </si>
   <si>
     <t>one_sin_pal_ring</t>
+  </si>
+  <si>
+    <t>myfade</t>
+  </si>
+  <si>
+    <t>ripple2</t>
+  </si>
+  <si>
+    <t>rip_fade</t>
+  </si>
+  <si>
+    <t>serendipitous_pal</t>
+  </si>
+  <si>
+    <t>serendipitous_pal_ring</t>
+  </si>
+  <si>
+    <t>spiral_width</t>
+  </si>
+  <si>
+    <t>spiral</t>
+  </si>
+  <si>
+    <t>spiral_inc</t>
+  </si>
+  <si>
+    <t>spiral_pal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f </t>
+  </si>
+  <si>
+    <t>spiral_sin</t>
+  </si>
+  <si>
+    <t>spiral_sin_sub</t>
+  </si>
+  <si>
+    <t>one_sin_spiral</t>
+  </si>
+  <si>
+    <t>helix_spiral</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>that_speed</t>
+  </si>
+  <si>
+    <t>that_rot</t>
+  </si>
+  <si>
+    <t>that_cutoff</t>
+  </si>
+  <si>
+    <t>plasma_spiral</t>
+  </si>
+  <si>
+    <t>plasma_spiral2</t>
+  </si>
+  <si>
+    <t>palette_spiral</t>
+  </si>
+  <si>
+    <t>mul1</t>
+  </si>
+  <si>
+    <t>mul2</t>
+  </si>
+  <si>
+    <t>mul3</t>
+  </si>
+  <si>
+    <t>mul123r</t>
+  </si>
+  <si>
+    <t>[0-2][0-255]</t>
+  </si>
+  <si>
+    <t>mul123</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>three_sin_pal</t>
+  </si>
+  <si>
+    <t>three_sin_pal_ring</t>
+  </si>
+  <si>
+    <t>two_sin</t>
+  </si>
+  <si>
+    <t>two_sin_ring</t>
+  </si>
+  <si>
+    <t>two_sin_pal_ring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,7 +625,100 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="43">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -603,6 +806,94 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4E2CFFC-7AB4-4994-85D9-66BCB4022AA9}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10" xr:uid="{49DD92C2-9FB6-400A-9839-6C18422FB67A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0F92215F-5CF8-4793-933D-9155E781CDFF}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{0651E5BA-3FFA-4FAE-BECD-CD23F86E1782}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{AE53262A-4AE2-4692-8B8A-39BE16063758}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{CB1B45C4-6F7B-46FA-9A9F-0106F5A39DA2}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{C7E5DBB0-277F-43C0-AE3E-6F7A4572AC0C}" name="myfade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1BDA9CBD-BB59-4B97-B8C3-E6F103CC3C8E}" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
+  <autoFilter ref="C4:F13" xr:uid="{FB72EEAD-9245-4FBC-B1B8-6818E6342FDE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{31353DDD-D1AD-4F61-90AA-BEAB5FD74A1C}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{5817BDC9-E036-4AA6-ADB5-4BDBF42A687F}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{946AE6A9-D9B5-47D6-A69F-F2D47071043D}" name="target_palette"/>
+    <tableColumn id="4" xr3:uid="{97697B75-38BE-43A5-8DCB-CB32AED61D7B}" name="this_fade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9539C1C5-7269-4E20-B5DA-EE7CE6BAAE89}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
+  <autoFilter ref="C5:P44" xr:uid="{33006C65-6254-4C2E-BA90-A793C18B517B}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{D451EFD4-08DE-4D68-937A-6BDCEE1F682A}" name="mode"/>
+    <tableColumn id="3" xr3:uid="{5883A58A-20CA-4E81-9909-A6F77A954824}" name="spiral_width" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{EA20131A-2FB1-42DC-92E8-009F201A0E4C}" name="spiral_inc" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{A18CF2BF-B2C4-463D-B6BB-86282AEAFC90}" name="this_hue" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{8ED8F96E-9098-46A4-BBCF-5EE841CEC53F}" name="this_inc" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{681C7FB6-894A-4108-9431-D245BAD61DF9}" name="this_speed" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{7F663E86-311B-4734-8584-41CD18ADB568}" name="this_rot" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{AF455D61-496F-4E9A-A0C7-FEDCFFC00113}" name="all_freq" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{D6F6226B-3E30-45FE-8738-A77C384B7AF2}" name="that_speed" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{F283AB4A-2A73-41AA-9846-39CADFA4CD34}" name="Column2" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{2744D8B9-518B-47BA-BD49-B78AF6AB55C7}" name="bg_clr" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{A97EB7F3-7BB6-4B29-AB05-0DEA7C7B8FC1}" name="bg_bri" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{587FCE08-EEBE-4135-BAB3-49DAC525E1F1}" name="this_delay" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{03095349-BD0F-45EA-90E9-5472A41B7E6B}" name="target_palette" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A15F9ED9-4F6D-4873-8CBA-8E39FAEBB2BB}" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
+  <autoFilter ref="C5:K13" xr:uid="{647C1886-CAF5-4AD0-935B-332451C9BA78}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A92C0E86-03FD-40DC-91DC-DEF026246354}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{2200EF9C-1450-4853-9AE5-56B41D1F69B8}" name="mul1" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{EF161261-B5EF-4532-A702-979022B37225}" name="mul2" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{DCC1E6A5-1978-4D3D-9D67-596C69ADAEEF}" name="mul3" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{1B829B8C-B435-423A-BB43-30BD398472D2}" name="mul1r" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{5B81F7A2-5C96-4FD2-A49A-84321424C70D}" name="mul2r" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{4486FCB4-072B-4B6B-ABB3-D116B4FA0D0F}" name="mul3r" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{33F25931-6A37-470C-A20E-100ADAE31FE1}" name="this_delay" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{8A7A7265-B42D-4D3E-8DA9-BF829F5D12BF}" name="target_palette" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{85B6E0B0-BC6F-480A-84C1-208C1046B7C5}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
+  <autoFilter ref="C4:M19" xr:uid="{EE3E795F-5D4E-4DF2-909E-0D1BCBB1D820}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{57E55E03-80DB-401D-A6F8-3837F87C4FF6}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{72139E1C-36E1-4E8D-A419-1A9D5E19B27B}" name="this_speed" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C4CBAF6C-6A4A-4A94-BF41-A54D2049DBDD}" name="that_speed" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E728F420-E8EA-469A-9FD8-DF954D0605C4}" name="this_rot" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{DE575798-DF59-4E2B-9B0D-4DDE05C224F9}" name="that_rot" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{62BB0B40-5043-4AE5-93B2-B4BC494EB388}" name="all_freq" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{384979C4-E3C7-4861-BEE1-3E901C9B5D8C}" name="this_cutoff" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B7CD300C-57CE-47E4-958A-D9F134C93B41}" name="that_cutoff" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{920AF0E4-3D55-4CB5-8776-852DC53901B1}" name="this_sat" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{0F87F6FA-5922-4755-ADAC-315EA1E24339}" name="this_delay" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{56537C11-EAD3-4C35-A4A6-AD8FC54CDF55}" name="target_palette" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC78E3C1-4FC4-4E23-8D44-64040CC5F23B}" name="Table3" displayName="Table3" ref="B3:F17" totalsRowShown="0">
   <autoFilter ref="B3:F17" xr:uid="{95820931-D0F6-4D78-9E02-F4BD97F3635A}"/>
@@ -680,18 +971,18 @@
   <autoFilter ref="B3:N40" xr:uid="{BC983D0E-72F1-46A6-A34F-0D3115A13C31}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{8A06A4F3-45AF-4652-B223-BDB11410A52A}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{D5CF372E-8371-4313-8740-2944A4CF04C2}" name="juggle_index_reset" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4C0F5AD5-FBAA-40BC-9F56-6E1DFEA16438}" name="this_fade" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{0C1DE2B9-A77C-4E60-9D7C-DC2CE31F17A1}" name="numdots_ring" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{8AE921B7-CB65-4227-AE7E-CEF139D70EDE}" name="numdots" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{A9D85CDA-C3C6-44D3-8076-75E3B2DA3C14}" name="this_beat" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{870F8A55-34BE-4730-BC78-F6218FF582B6}" name="ringBeat" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{50949DD2-3C68-4AB3-84C4-95C3335C1C0F}" name="this_diff" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{38F98679-ED7F-424F-A584-FFFAC335C341}" name="target_palette" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{F55D081A-A571-4732-8962-5670EDC4BAE7}" name="this_delay" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{1B108AAB-822A-4AAB-9969-62D73DFE8D9F}" name="cooling1-4" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{CC4AAF48-640F-4A6A-9335-F7696968A79B}" name="sparking1-4" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{BB67BBB9-C1D0-44B5-9EEE-EADD648958AA}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D5CF372E-8371-4313-8740-2944A4CF04C2}" name="juggle_index_reset" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{4C0F5AD5-FBAA-40BC-9F56-6E1DFEA16438}" name="this_fade" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{0C1DE2B9-A77C-4E60-9D7C-DC2CE31F17A1}" name="numdots_ring" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{8AE921B7-CB65-4227-AE7E-CEF139D70EDE}" name="numdots" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{A9D85CDA-C3C6-44D3-8076-75E3B2DA3C14}" name="this_beat" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{870F8A55-34BE-4730-BC78-F6218FF582B6}" name="ringBeat" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{50949DD2-3C68-4AB3-84C4-95C3335C1C0F}" name="this_diff" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{38F98679-ED7F-424F-A584-FFFAC335C341}" name="target_palette" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{F55D081A-A571-4732-8962-5670EDC4BAE7}" name="this_delay" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{1B108AAB-822A-4AAB-9969-62D73DFE8D9F}" name="cooling1-4" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{CC4AAF48-640F-4A6A-9335-F7696968A79B}" name="sparking1-4" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{BB67BBB9-C1D0-44B5-9EEE-EADD648958AA}" name="Notes" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1030,7 +1321,7 @@
   <dimension ref="B3:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1357,13 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1076,19 +1373,25 @@
       <c r="C6" t="s">
         <v>70</v>
       </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1099,10 +1402,10 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -1110,13 +1413,13 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -1124,13 +1427,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -1138,10 +1435,10 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1152,10 +1449,10 @@
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1166,10 +1463,10 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
         <v>56</v>
@@ -1183,7 +1480,7 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1194,10 +1491,10 @@
         <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1208,10 +1505,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1222,10 +1519,10 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1233,10 +1530,10 @@
         <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
@@ -1247,7 +1544,13 @@
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1255,10 +1558,10 @@
         <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -1266,13 +1569,13 @@
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1280,7 +1583,7 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
@@ -1294,13 +1597,13 @@
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1308,7 +1611,7 @@
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1316,7 +1619,7 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1324,10 +1627,10 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -1335,7 +1638,7 @@
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1343,7 +1646,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1351,7 +1654,7 @@
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -1546,7 +1849,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1672,7 +1975,7 @@
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -1781,7 +2084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65FB421-461D-4012-B50B-413288907109}">
   <dimension ref="C4:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1864,6 +2167,1574 @@
       <c r="C12" t="s">
         <v>64</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C004E-1540-442C-B2CD-1482F1940A0C}">
+  <dimension ref="C4:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA4B77D-69E6-47AE-AC6F-92D60724A77C}">
+  <dimension ref="C4:F13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81803C8-95EC-4683-B6B4-414BB6DFA3B9}">
+  <dimension ref="C5:Q44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD3FC4D-8AF2-4F13-A7EC-8678F183C890}">
+  <dimension ref="C5:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE3D99-698F-4540-9C95-5DF7F9823692}">
+  <dimension ref="C4:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,7 +3766,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1909,7 +3780,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1926,7 +3797,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -1937,7 +3808,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1945,7 +3816,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1953,7 +3824,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -1961,7 +3832,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1969,7 +3840,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1977,7 +3848,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1988,10 +3859,10 @@
         <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -2002,32 +3873,32 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2059,7 +3930,7 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2068,7 +3939,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -2076,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -2087,33 +3958,33 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -2121,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -2130,27 +4001,27 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2274,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -2299,27 +4170,27 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2366,10 +4237,10 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -2377,10 +4248,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -2412,10 +4283,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -2444,10 +4315,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -2474,10 +4345,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
@@ -2510,25 +4381,25 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -2542,25 +4413,25 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -2572,25 +4443,25 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -2604,25 +4475,25 @@
         <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -2634,25 +4505,25 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +4577,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
         <v>42</v>
@@ -2718,13 +4589,13 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -2760,7 +4631,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2777,7 +4648,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2794,7 +4665,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2811,7 +4682,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2828,7 +4699,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2876,7 +4747,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2893,7 +4764,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2910,7 +4781,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2927,7 +4798,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2944,7 +4815,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2987,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -3074,11 +4945,11 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>39</v>
@@ -3095,7 +4966,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3112,7 +4983,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3129,7 +5000,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3146,7 +5017,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3173,11 +5044,11 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>39</v>
@@ -3194,7 +5065,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3211,7 +5082,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3228,7 +5099,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3245,7 +5116,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3272,11 +5143,11 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>39</v>
@@ -3288,16 +5159,16 @@
         <v>11</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3314,7 +5185,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3331,7 +5202,7 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3348,7 +5219,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3375,11 +5246,11 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>39</v>
@@ -3391,16 +5262,16 @@
         <v>11</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3417,7 +5288,7 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3434,7 +5305,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3451,7 +5322,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3494,10 +5365,10 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -3511,7 +5382,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -3523,17 +5394,17 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -3542,7 +5413,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -3553,22 +5424,22 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3616,10 +5487,10 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -3648,10 +5519,10 @@
         <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>29</v>
@@ -3700,10 +5571,10 @@
         <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
@@ -3717,22 +5588,22 @@
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22381A33-B4BA-4651-B3AF-1389D509592E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6455601F-406C-444D-BC02-F1072D84D3E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26340" yWindow="3390" windowWidth="22245" windowHeight="16755" activeTab="15" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="17" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,17 @@
     <sheet name="confetti" sheetId="5" r:id="rId5"/>
     <sheet name="fire" sheetId="7" r:id="rId6"/>
     <sheet name="juggle" sheetId="6" r:id="rId7"/>
-    <sheet name="noise8" sheetId="8" r:id="rId8"/>
-    <sheet name="one_sin" sheetId="9" r:id="rId9"/>
-    <sheet name="plasma" sheetId="10" r:id="rId10"/>
-    <sheet name="rainbow_march" sheetId="11" r:id="rId11"/>
-    <sheet name="ripple" sheetId="12" r:id="rId12"/>
-    <sheet name="serendipitous" sheetId="13" r:id="rId13"/>
-    <sheet name="spiral" sheetId="14" r:id="rId14"/>
-    <sheet name="three_sin" sheetId="15" r:id="rId15"/>
-    <sheet name="two_sin" sheetId="16" r:id="rId16"/>
+    <sheet name="matrix" sheetId="17" r:id="rId8"/>
+    <sheet name="noise8" sheetId="8" r:id="rId9"/>
+    <sheet name="one_sin" sheetId="9" r:id="rId10"/>
+    <sheet name="plasma" sheetId="10" r:id="rId11"/>
+    <sheet name="rainbow_march" sheetId="11" r:id="rId12"/>
+    <sheet name="ripple" sheetId="12" r:id="rId13"/>
+    <sheet name="serendipitous" sheetId="13" r:id="rId14"/>
+    <sheet name="spiral" sheetId="14" r:id="rId15"/>
+    <sheet name="twinkle" sheetId="18" r:id="rId16"/>
+    <sheet name="three_sin" sheetId="15" r:id="rId17"/>
+    <sheet name="two_sin" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="197">
   <si>
     <t>readkeyboard() options</t>
   </si>
@@ -574,6 +576,69 @@
   </si>
   <si>
     <t>two_sin_pal_ring</t>
+  </si>
+  <si>
+    <t>4,6,7,8,9</t>
+  </si>
+  <si>
+    <t>0,1,2,3,5,10</t>
+  </si>
+  <si>
+    <t>11,12,13</t>
+  </si>
+  <si>
+    <t>15,16</t>
+  </si>
+  <si>
+    <t>18,24</t>
+  </si>
+  <si>
+    <t>20,23</t>
+  </si>
+  <si>
+    <t>25,27</t>
+  </si>
+  <si>
+    <t>28,29</t>
+  </si>
+  <si>
+    <t>pride</t>
+  </si>
+  <si>
+    <t>matrix_pal_ring</t>
+  </si>
+  <si>
+    <t>matrix_random_walk</t>
+  </si>
+  <si>
+    <t>matrix_saw</t>
+  </si>
+  <si>
+    <t>32,34</t>
+  </si>
+  <si>
+    <t>33,35</t>
+  </si>
+  <si>
+    <t>twinkle_speed</t>
+  </si>
+  <si>
+    <t>twinkle_density</t>
+  </si>
+  <si>
+    <t>twinkle_bg</t>
+  </si>
+  <si>
+    <t>auto_select_background_color</t>
+  </si>
+  <si>
+    <t>cool_like_incandescent</t>
+  </si>
+  <si>
+    <t>twinkle</t>
+  </si>
+  <si>
+    <t>part of juggle</t>
   </si>
 </sst>
 </file>
@@ -625,7 +690,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="49">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -782,6 +865,25 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F8DA805A-A649-426C-A40F-06DF52A6EE54}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14" xr:uid="{1BE7BD7C-776D-4EF2-B225-777489E8E389}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{835A8081-C64A-49D3-80C4-2FD8CBC86D03}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{2202223B-38A7-4B24-B74B-249CE7AF0765}" name="this_inc"/>
+    <tableColumn id="3" xr3:uid="{701DEC42-0389-4B0D-A8C6-DEE09B271483}" name="this_speed"/>
+    <tableColumn id="4" xr3:uid="{63716679-72C1-4540-99D9-B495FD0E73F7}" name="all_freq"/>
+    <tableColumn id="5" xr3:uid="{969CDFB9-7494-44DC-AA9F-71AF7178E4FF}" name="this_cutoff"/>
+    <tableColumn id="6" xr3:uid="{2B549345-169C-4A94-94BE-D8A59CE02EE1}" name="bg_clr"/>
+    <tableColumn id="7" xr3:uid="{2B533E98-2ABB-41C7-B022-0E44E478D85D}" name="bg_bri"/>
+    <tableColumn id="8" xr3:uid="{196354DF-1DC4-4925-BFD7-A7DCEFF13A0F}" name="this_rot"/>
+    <tableColumn id="9" xr3:uid="{40DDF6C0-69AD-4ED6-8661-D7A0071FC7BD}" name="this_delay"/>
+    <tableColumn id="10" xr3:uid="{77353565-EC29-48FC-8697-4764BC64BBCD}" name="target_palette"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9D458CF0-3F5A-4D22-8B12-D55930DB86CB}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
   <autoFilter ref="C4:E9" xr:uid="{5298463E-3AA9-4EA1-A1A8-6D70FE74A5EB}"/>
   <tableColumns count="3">
@@ -793,9 +895,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E94BC80A-1DB9-452A-B115-73888EECDBB1}" name="Table12" displayName="Table12" ref="C4:F12" totalsRowShown="0">
-  <autoFilter ref="C4:F12" xr:uid="{A7F0A9D3-4AA5-4454-8745-04F07DEBEE4C}"/>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E94BC80A-1DB9-452A-B115-73888EECDBB1}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16" xr:uid="{A7F0A9D3-4AA5-4454-8745-04F07DEBEE4C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EE0D92E2-41DE-4CA6-A12C-445A38617C6E}" name="mode"/>
     <tableColumn id="2" xr3:uid="{6C8F7E97-AA74-4941-B1F3-1775980F4D71}" name="this_rot"/>
@@ -806,7 +908,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4E2CFFC-7AB4-4994-85D9-66BCB4022AA9}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
   <autoFilter ref="C4:G10" xr:uid="{49DD92C2-9FB6-400A-9839-6C18422FB67A}"/>
   <tableColumns count="5">
@@ -820,7 +922,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1BDA9CBD-BB59-4B97-B8C3-E6F103CC3C8E}" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
   <autoFilter ref="C4:F13" xr:uid="{FB72EEAD-9245-4FBC-B1B8-6818E6342FDE}"/>
   <tableColumns count="4">
@@ -833,62 +935,79 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9539C1C5-7269-4E20-B5DA-EE7CE6BAAE89}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
   <autoFilter ref="C5:P44" xr:uid="{33006C65-6254-4C2E-BA90-A793C18B517B}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D451EFD4-08DE-4D68-937A-6BDCEE1F682A}" name="mode"/>
-    <tableColumn id="3" xr3:uid="{5883A58A-20CA-4E81-9909-A6F77A954824}" name="spiral_width" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{EA20131A-2FB1-42DC-92E8-009F201A0E4C}" name="spiral_inc" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{A18CF2BF-B2C4-463D-B6BB-86282AEAFC90}" name="this_hue" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{8ED8F96E-9098-46A4-BBCF-5EE841CEC53F}" name="this_inc" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{681C7FB6-894A-4108-9431-D245BAD61DF9}" name="this_speed" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{7F663E86-311B-4734-8584-41CD18ADB568}" name="this_rot" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{AF455D61-496F-4E9A-A0C7-FEDCFFC00113}" name="all_freq" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{D6F6226B-3E30-45FE-8738-A77C384B7AF2}" name="that_speed" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{F283AB4A-2A73-41AA-9846-39CADFA4CD34}" name="Column2" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{2744D8B9-518B-47BA-BD49-B78AF6AB55C7}" name="bg_clr" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{A97EB7F3-7BB6-4B29-AB05-0DEA7C7B8FC1}" name="bg_bri" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{587FCE08-EEBE-4135-BAB3-49DAC525E1F1}" name="this_delay" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{03095349-BD0F-45EA-90E9-5472A41B7E6B}" name="target_palette" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{5883A58A-20CA-4E81-9909-A6F77A954824}" name="spiral_width" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{EA20131A-2FB1-42DC-92E8-009F201A0E4C}" name="spiral_inc" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{A18CF2BF-B2C4-463D-B6BB-86282AEAFC90}" name="this_hue" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{8ED8F96E-9098-46A4-BBCF-5EE841CEC53F}" name="this_inc" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{681C7FB6-894A-4108-9431-D245BAD61DF9}" name="this_speed" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{7F663E86-311B-4734-8584-41CD18ADB568}" name="this_rot" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{AF455D61-496F-4E9A-A0C7-FEDCFFC00113}" name="all_freq" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{D6F6226B-3E30-45FE-8738-A77C384B7AF2}" name="that_speed" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{F283AB4A-2A73-41AA-9846-39CADFA4CD34}" name="Column2" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{2744D8B9-518B-47BA-BD49-B78AF6AB55C7}" name="bg_clr" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{A97EB7F3-7BB6-4B29-AB05-0DEA7C7B8FC1}" name="bg_bri" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{587FCE08-EEBE-4135-BAB3-49DAC525E1F1}" name="this_delay" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{03095349-BD0F-45EA-90E9-5472A41B7E6B}" name="target_palette" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{72D6CC55-F6A5-4CD7-A311-28FADA849475}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
+  <autoFilter ref="C3:J6" xr:uid="{260AE32F-34FD-4B24-BF29-B29647C2BB4A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{1D496C40-9BCA-464F-A8F9-6916CF82210D}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{77C40F66-49DB-45FF-AD4C-E7CD85E57EAA}" name="twinkle_speed"/>
+    <tableColumn id="3" xr3:uid="{DC7FD8EE-C0CA-4447-B20D-8E895AF068B4}" name="twinkle_density"/>
+    <tableColumn id="4" xr3:uid="{83A19DCA-9A1F-445E-A1BA-46F7F9146026}" name="twinkle_bg"/>
+    <tableColumn id="5" xr3:uid="{C3FFAE06-2905-436D-9CD7-330975C4DD43}" name="auto_select_background_color"/>
+    <tableColumn id="7" xr3:uid="{2114B4DE-9B7F-45ED-A8BD-5767A45847E1}" name="cool_like_incandescent"/>
+    <tableColumn id="8" xr3:uid="{7C004DD7-D667-4C0C-8D70-1CF78789C974}" name="this_delay"/>
+    <tableColumn id="9" xr3:uid="{72EAC3C8-C3B7-4CDE-95D3-F29D95E77DE2}" name="target_palette"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A15F9ED9-4F6D-4873-8CBA-8E39FAEBB2BB}" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
   <autoFilter ref="C5:K13" xr:uid="{647C1886-CAF5-4AD0-935B-332451C9BA78}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A92C0E86-03FD-40DC-91DC-DEF026246354}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{2200EF9C-1450-4853-9AE5-56B41D1F69B8}" name="mul1" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{EF161261-B5EF-4532-A702-979022B37225}" name="mul2" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{DCC1E6A5-1978-4D3D-9D67-596C69ADAEEF}" name="mul3" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{1B829B8C-B435-423A-BB43-30BD398472D2}" name="mul1r" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{5B81F7A2-5C96-4FD2-A49A-84321424C70D}" name="mul2r" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{4486FCB4-072B-4B6B-ABB3-D116B4FA0D0F}" name="mul3r" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{33F25931-6A37-470C-A20E-100ADAE31FE1}" name="this_delay" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{8A7A7265-B42D-4D3E-8DA9-BF829F5D12BF}" name="target_palette" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2200EF9C-1450-4853-9AE5-56B41D1F69B8}" name="mul1" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{EF161261-B5EF-4532-A702-979022B37225}" name="mul2" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{DCC1E6A5-1978-4D3D-9D67-596C69ADAEEF}" name="mul3" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{1B829B8C-B435-423A-BB43-30BD398472D2}" name="mul1r" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{5B81F7A2-5C96-4FD2-A49A-84321424C70D}" name="mul2r" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{4486FCB4-072B-4B6B-ABB3-D116B4FA0D0F}" name="mul3r" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{33F25931-6A37-470C-A20E-100ADAE31FE1}" name="this_delay" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{8A7A7265-B42D-4D3E-8DA9-BF829F5D12BF}" name="target_palette" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{85B6E0B0-BC6F-480A-84C1-208C1046B7C5}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
   <autoFilter ref="C4:M19" xr:uid="{EE3E795F-5D4E-4DF2-909E-0D1BCBB1D820}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{57E55E03-80DB-401D-A6F8-3837F87C4FF6}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{72139E1C-36E1-4E8D-A419-1A9D5E19B27B}" name="this_speed" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C4CBAF6C-6A4A-4A94-BF41-A54D2049DBDD}" name="that_speed" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E728F420-E8EA-469A-9FD8-DF954D0605C4}" name="this_rot" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{DE575798-DF59-4E2B-9B0D-4DDE05C224F9}" name="that_rot" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{62BB0B40-5043-4AE5-93B2-B4BC494EB388}" name="all_freq" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{384979C4-E3C7-4861-BEE1-3E901C9B5D8C}" name="this_cutoff" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{B7CD300C-57CE-47E4-958A-D9F134C93B41}" name="that_cutoff" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{920AF0E4-3D55-4CB5-8776-852DC53901B1}" name="this_sat" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{0F87F6FA-5922-4755-ADAC-315EA1E24339}" name="this_delay" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{56537C11-EAD3-4C35-A4A6-AD8FC54CDF55}" name="target_palette" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{72139E1C-36E1-4E8D-A419-1A9D5E19B27B}" name="this_speed" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{C4CBAF6C-6A4A-4A94-BF41-A54D2049DBDD}" name="that_speed" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E728F420-E8EA-469A-9FD8-DF954D0605C4}" name="this_rot" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{DE575798-DF59-4E2B-9B0D-4DDE05C224F9}" name="that_rot" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{62BB0B40-5043-4AE5-93B2-B4BC494EB388}" name="all_freq" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{384979C4-E3C7-4861-BEE1-3E901C9B5D8C}" name="this_cutoff" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{B7CD300C-57CE-47E4-958A-D9F134C93B41}" name="that_cutoff" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{920AF0E4-3D55-4CB5-8776-852DC53901B1}" name="this_sat" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{0F87F6FA-5922-4755-ADAC-315EA1E24339}" name="this_delay" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{56537C11-EAD3-4C35-A4A6-AD8FC54CDF55}" name="target_palette" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -971,24 +1090,40 @@
   <autoFilter ref="B3:N40" xr:uid="{BC983D0E-72F1-46A6-A34F-0D3115A13C31}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{8A06A4F3-45AF-4652-B223-BDB11410A52A}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{D5CF372E-8371-4313-8740-2944A4CF04C2}" name="juggle_index_reset" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{4C0F5AD5-FBAA-40BC-9F56-6E1DFEA16438}" name="this_fade" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{0C1DE2B9-A77C-4E60-9D7C-DC2CE31F17A1}" name="numdots_ring" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{8AE921B7-CB65-4227-AE7E-CEF139D70EDE}" name="numdots" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{A9D85CDA-C3C6-44D3-8076-75E3B2DA3C14}" name="this_beat" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{870F8A55-34BE-4730-BC78-F6218FF582B6}" name="ringBeat" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{50949DD2-3C68-4AB3-84C4-95C3335C1C0F}" name="this_diff" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{38F98679-ED7F-424F-A584-FFFAC335C341}" name="target_palette" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{F55D081A-A571-4732-8962-5670EDC4BAE7}" name="this_delay" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{1B108AAB-822A-4AAB-9969-62D73DFE8D9F}" name="cooling1-4" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{CC4AAF48-640F-4A6A-9335-F7696968A79B}" name="sparking1-4" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{BB67BBB9-C1D0-44B5-9EEE-EADD648958AA}" name="Notes" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{D5CF372E-8371-4313-8740-2944A4CF04C2}" name="juggle_index_reset" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{4C0F5AD5-FBAA-40BC-9F56-6E1DFEA16438}" name="this_fade" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{0C1DE2B9-A77C-4E60-9D7C-DC2CE31F17A1}" name="numdots_ring" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{8AE921B7-CB65-4227-AE7E-CEF139D70EDE}" name="numdots" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{A9D85CDA-C3C6-44D3-8076-75E3B2DA3C14}" name="this_beat" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{870F8A55-34BE-4730-BC78-F6218FF582B6}" name="ringBeat" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{50949DD2-3C68-4AB3-84C4-95C3335C1C0F}" name="this_diff" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{38F98679-ED7F-424F-A584-FFFAC335C341}" name="target_palette" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{F55D081A-A571-4732-8962-5670EDC4BAE7}" name="this_delay" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{1B108AAB-822A-4AAB-9969-62D73DFE8D9F}" name="cooling1-4" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{CC4AAF48-640F-4A6A-9335-F7696968A79B}" name="sparking1-4" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{BB67BBB9-C1D0-44B5-9EEE-EADD648958AA}" name="Notes" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{06E86928-983C-4A94-B30A-02133E2B14FC}" name="Table16" displayName="Table16" ref="C4:I15" totalsRowShown="0">
+  <autoFilter ref="C4:I15" xr:uid="{BB459464-8D55-4078-AEB0-B3756A24CE71}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6BA9E6BE-A65A-44B5-93BA-A9004172E176}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{3F544982-2614-4EBC-B5CD-9E2EEB5E2F9E}" name="this_rot" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9816F04B-5C36-4613-8079-6EF4AF805F6B}" name="this_delay" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0E24C419-693F-4DC7-A454-02E431D95E72}" name="target_palette" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3FB5B42A-1E5E-46F4-98F5-AAEC25ECACBE}" name="bg_clr" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{767B200D-BA70-439B-94A5-74CB8576CAA0}" name="bg_bri" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{3986F5DC-2BA5-44B0-A8F4-7A7ACEA7BCB1}" name="this_fade" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{735AEADE-E42C-40CD-BC0F-2BDDEB978719}" name="Table9" displayName="Table9" ref="B3:F12" totalsRowShown="0">
   <autoFilter ref="B3:F12" xr:uid="{2D982AFB-B968-492E-BD67-697A4FE341EE}"/>
   <tableColumns count="5">
@@ -997,25 +1132,6 @@
     <tableColumn id="5" xr3:uid="{6FBF2B45-6040-4C57-8C81-047AEF6F64B5}" name="scale2"/>
     <tableColumn id="3" xr3:uid="{FF203808-A99F-4790-96DC-2E7465E0BAE0}" name="this_delay"/>
     <tableColumn id="4" xr3:uid="{765884F8-5D09-4A63-AA45-9522233E62C7}" name="target_palette"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F8DA805A-A649-426C-A40F-06DF52A6EE54}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14" xr:uid="{1BE7BD7C-776D-4EF2-B225-777489E8E389}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{835A8081-C64A-49D3-80C4-2FD8CBC86D03}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{2202223B-38A7-4B24-B74B-249CE7AF0765}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{701DEC42-0389-4B0D-A8C6-DEE09B271483}" name="this_speed"/>
-    <tableColumn id="4" xr3:uid="{63716679-72C1-4540-99D9-B495FD0E73F7}" name="all_freq"/>
-    <tableColumn id="5" xr3:uid="{969CDFB9-7494-44DC-AA9F-71AF7178E4FF}" name="this_cutoff"/>
-    <tableColumn id="6" xr3:uid="{2B549345-169C-4A94-94BE-D8A59CE02EE1}" name="bg_clr"/>
-    <tableColumn id="7" xr3:uid="{2B533E98-2ABB-41C7-B022-0E44E478D85D}" name="bg_bri"/>
-    <tableColumn id="8" xr3:uid="{196354DF-1DC4-4925-BFD7-A7DCEFF13A0F}" name="this_rot"/>
-    <tableColumn id="9" xr3:uid="{40DDF6C0-69AD-4ED6-8661-D7A0071FC7BD}" name="this_delay"/>
-    <tableColumn id="10" xr3:uid="{77353565-EC29-48FC-8697-4764BC64BBCD}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1320,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E5B464-4504-4F4A-A97E-6EE218327A39}">
   <dimension ref="B3:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2017,59 +2133,165 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407065F9-00F7-4395-AC85-FCDA6551A4EB}">
-  <dimension ref="C4:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32EA96-C52E-46E6-B124-96CB684FD282}">
+  <dimension ref="B4:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>59</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>14</v>
+      </c>
       <c r="C6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2081,11 +2303,78 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65FB421-461D-4012-B50B-413288907109}">
-  <dimension ref="C4:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407065F9-00F7-4395-AC85-FCDA6551A4EB}">
+  <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65FB421-461D-4012-B50B-413288907109}">
+  <dimension ref="B4:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2385,7 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>59</v>
       </c>
@@ -2110,7 +2399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>30</v>
       </c>
@@ -2124,22 +2413,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
       <c r="C6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>31</v>
       </c>
@@ -2153,19 +2445,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
       <c r="C10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2176,12 +2497,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C004E-1540-442C-B2CD-1482F1940A0C}">
-  <dimension ref="C4:G10"/>
+  <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2513,7 @@
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>59</v>
       </c>
@@ -2209,7 +2530,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>32</v>
       </c>
@@ -2226,27 +2547,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>30</v>
+      </c>
       <c r="C6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>141</v>
       </c>
@@ -2259,12 +2583,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA4B77D-69E6-47AE-AC6F-92D60724A77C}">
-  <dimension ref="C4:F13"/>
+  <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2599,7 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>59</v>
       </c>
@@ -2289,7 +2613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>33</v>
       </c>
@@ -2303,42 +2627,48 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>54</v>
+      </c>
       <c r="C10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>144</v>
       </c>
@@ -2351,12 +2681,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81803C8-95EC-4683-B6B4-414BB6DFA3B9}">
-  <dimension ref="C5:Q44"/>
+  <dimension ref="B5:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,7 +2705,7 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>59</v>
       </c>
@@ -2419,7 +2749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>35</v>
       </c>
@@ -2445,7 +2775,10 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>57</v>
+      </c>
       <c r="C7" t="s">
         <v>146</v>
       </c>
@@ -2463,7 +2796,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>146</v>
       </c>
@@ -2481,7 +2814,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>146</v>
       </c>
@@ -2499,7 +2832,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>146</v>
       </c>
@@ -2517,7 +2850,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>36</v>
       </c>
@@ -2548,7 +2881,10 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>58</v>
+      </c>
       <c r="C12" t="s">
         <v>148</v>
       </c>
@@ -2566,7 +2902,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>148</v>
       </c>
@@ -2584,7 +2920,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>148</v>
       </c>
@@ -2602,7 +2938,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>37</v>
       </c>
@@ -2632,7 +2968,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>36</v>
+      </c>
       <c r="C16" t="s">
         <v>150</v>
       </c>
@@ -2650,7 +2989,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>150</v>
       </c>
@@ -2668,7 +3007,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -2686,7 +3025,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>150</v>
       </c>
@@ -2704,7 +3043,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>38</v>
       </c>
@@ -2734,7 +3073,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>59</v>
+      </c>
       <c r="C21" t="s">
         <v>151</v>
       </c>
@@ -2752,7 +3094,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>151</v>
       </c>
@@ -2770,7 +3112,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>151</v>
       </c>
@@ -2788,7 +3130,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>39</v>
       </c>
@@ -2818,7 +3160,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>37</v>
+      </c>
       <c r="C25" t="s">
         <v>152</v>
       </c>
@@ -2836,7 +3181,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>152</v>
       </c>
@@ -2854,7 +3199,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>152</v>
       </c>
@@ -2872,7 +3217,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>152</v>
       </c>
@@ -2890,7 +3235,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>40</v>
       </c>
@@ -2926,7 +3271,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>60</v>
+      </c>
       <c r="C30" t="s">
         <v>153</v>
       </c>
@@ -2944,7 +3292,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>153</v>
       </c>
@@ -2962,7 +3310,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>153</v>
       </c>
@@ -2980,7 +3328,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>41</v>
       </c>
@@ -3002,7 +3350,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>61</v>
+      </c>
       <c r="C34" t="s">
         <v>158</v>
       </c>
@@ -3020,7 +3371,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>158</v>
       </c>
@@ -3038,7 +3389,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>158</v>
       </c>
@@ -3056,7 +3407,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>42</v>
       </c>
@@ -3078,7 +3429,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>62</v>
+      </c>
       <c r="C38" t="s">
         <v>159</v>
       </c>
@@ -3096,7 +3450,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>159</v>
       </c>
@@ -3114,7 +3468,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>159</v>
       </c>
@@ -3132,7 +3486,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>43</v>
       </c>
@@ -3158,7 +3512,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>63</v>
+      </c>
       <c r="C42" t="s">
         <v>160</v>
       </c>
@@ -3176,7 +3533,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>160</v>
       </c>
@@ -3194,7 +3551,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -3221,12 +3578,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD3FC4D-8AF2-4F13-A7EC-8678F183C890}">
-  <dimension ref="C5:K13"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0F38FB-25C6-468C-9D8E-DE2A80B4B870}">
+  <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD3FC4D-8AF2-4F13-A7EC-8678F183C890}">
+  <dimension ref="B5:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,7 +3671,7 @@
     <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>59</v>
       </c>
@@ -3266,7 +3700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>45</v>
       </c>
@@ -3289,7 +3723,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>53</v>
+      </c>
       <c r="C7" t="s">
         <v>171</v>
       </c>
@@ -3302,7 +3739,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>171</v>
       </c>
@@ -3315,7 +3752,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>171</v>
       </c>
@@ -3328,7 +3765,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>46</v>
       </c>
@@ -3351,7 +3788,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
       <c r="C11" t="s">
         <v>172</v>
       </c>
@@ -3364,7 +3804,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>172</v>
       </c>
@@ -3377,7 +3817,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>172</v>
       </c>
@@ -3399,16 +3839,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE3D99-698F-4540-9C95-5DF7F9823692}">
-  <dimension ref="C4:M19"/>
+  <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
@@ -3422,7 +3863,7 @@
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>59</v>
       </c>
@@ -3457,7 +3898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>48</v>
       </c>
@@ -3490,7 +3931,10 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
       <c r="C6" t="s">
         <v>173</v>
       </c>
@@ -3505,7 +3949,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>173</v>
       </c>
@@ -3520,7 +3964,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>173</v>
       </c>
@@ -3535,7 +3979,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>173</v>
       </c>
@@ -3550,7 +3994,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>49</v>
       </c>
@@ -3583,7 +4027,10 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
       <c r="C11" t="s">
         <v>174</v>
       </c>
@@ -3598,7 +4045,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>174</v>
       </c>
@@ -3613,7 +4060,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>174</v>
       </c>
@@ -3628,7 +4075,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>174</v>
       </c>
@@ -3643,7 +4090,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>50</v>
       </c>
@@ -3676,7 +4123,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>52</v>
+      </c>
       <c r="C16" t="s">
         <v>175</v>
       </c>
@@ -3746,10 +4196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77779BD-95B5-4C4A-BC04-7BB2350DA5C2}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3761,7 +4211,7 @@
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>35</v>
       </c>
@@ -3772,7 +4222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -3789,7 +4239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>52</v>
       </c>
@@ -3806,7 +4256,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>46</v>
+      </c>
       <c r="B5" t="s">
         <v>108</v>
       </c>
@@ -3814,7 +4267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>108</v>
       </c>
@@ -3822,7 +4275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>108</v>
       </c>
@@ -3830,7 +4283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>108</v>
       </c>
@@ -3838,7 +4291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>108</v>
       </c>
@@ -3846,7 +4299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>108</v>
       </c>
@@ -3854,7 +4307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>53</v>
       </c>
@@ -3871,27 +4324,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>47</v>
+      </c>
       <c r="B12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>110</v>
       </c>
@@ -3911,10 +4367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72797014-C374-49FE-BA09-69B32D5AA5A3}">
-  <dimension ref="B4:F16"/>
+  <dimension ref="A4:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,7 +4381,7 @@
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -3942,7 +4398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -3956,7 +4412,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>19</v>
+      </c>
       <c r="B6" t="s">
         <v>112</v>
       </c>
@@ -3964,7 +4423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>112</v>
       </c>
@@ -3972,22 +4431,22 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -3999,27 +4458,30 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
       <c r="B12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>114</v>
       </c>
@@ -4034,10 +4496,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E6FC8-33FC-4DF4-851B-F0578CC4A075}">
-  <dimension ref="B3:D10"/>
+  <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4047,7 +4509,7 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -4058,7 +4520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>51</v>
       </c>
@@ -4069,32 +4531,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45</v>
+      </c>
       <c r="B5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>62</v>
       </c>
@@ -4109,10 +4574,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DE3B67-5FCE-4115-A448-2B026FC006FD}">
-  <dimension ref="B3:H9"/>
+  <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4125,7 +4590,7 @@
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -4148,7 +4613,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -4168,27 +4633,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
       <c r="B5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>117</v>
       </c>
@@ -4203,14 +4671,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D5FB12-C8F8-489E-B459-E6836AC79FFA}">
-  <dimension ref="B3:H40"/>
+  <dimension ref="A3:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -4220,7 +4689,7 @@
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -4243,7 +4712,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>4</v>
       </c>
@@ -4258,27 +4727,30 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64</v>
+      </c>
       <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -4295,22 +4767,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>65</v>
+      </c>
       <c r="B10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -4325,22 +4800,25 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>66</v>
+      </c>
       <c r="B14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>7</v>
       </c>
@@ -4357,22 +4835,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>67</v>
+      </c>
       <c r="B18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>8</v>
       </c>
@@ -4387,22 +4868,25 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>39</v>
+      </c>
       <c r="B22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>9</v>
       </c>
@@ -4419,22 +4903,25 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>68</v>
+      </c>
       <c r="B26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>10</v>
       </c>
@@ -4449,22 +4936,25 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>40</v>
+      </c>
       <c r="B30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>11</v>
       </c>
@@ -4481,22 +4971,25 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>69</v>
+      </c>
       <c r="B34" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>12</v>
       </c>
@@ -4511,17 +5004,20 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
       <c r="B38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>128</v>
       </c>
@@ -4536,10 +5032,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298B5153-BF4C-4682-9BCF-06258537994F}">
-  <dimension ref="B3:N40"/>
+  <dimension ref="A3:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4557,7 +5053,7 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -4598,7 +5094,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>14</v>
       </c>
@@ -4629,7 +5125,10 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -4646,7 +5145,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>118</v>
       </c>
@@ -4663,7 +5162,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>118</v>
       </c>
@@ -4680,7 +5179,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>118</v>
       </c>
@@ -4697,7 +5196,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>118</v>
       </c>
@@ -4714,7 +5213,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>15</v>
       </c>
@@ -4745,7 +5244,10 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
       <c r="B11" t="s">
         <v>119</v>
       </c>
@@ -4762,7 +5264,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>119</v>
       </c>
@@ -4779,7 +5281,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>119</v>
       </c>
@@ -4796,7 +5298,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>119</v>
       </c>
@@ -4813,7 +5315,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>119</v>
       </c>
@@ -4830,7 +5332,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>16</v>
       </c>
@@ -4865,7 +5367,10 @@
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>41</v>
+      </c>
       <c r="B17" t="s">
         <v>69</v>
       </c>
@@ -4882,7 +5387,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -4899,7 +5404,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>69</v>
       </c>
@@ -4916,7 +5421,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>69</v>
       </c>
@@ -4933,7 +5438,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -4964,7 +5469,10 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>56</v>
+      </c>
       <c r="B22" t="s">
         <v>129</v>
       </c>
@@ -4981,7 +5489,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>129</v>
       </c>
@@ -4998,7 +5506,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>129</v>
       </c>
@@ -5015,7 +5523,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>129</v>
       </c>
@@ -5032,7 +5540,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>18</v>
       </c>
@@ -5063,7 +5571,10 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>43</v>
+      </c>
       <c r="B27" t="s">
         <v>133</v>
       </c>
@@ -5080,7 +5591,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>133</v>
       </c>
@@ -5097,7 +5608,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>133</v>
       </c>
@@ -5114,7 +5625,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>133</v>
       </c>
@@ -5131,7 +5642,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>19</v>
       </c>
@@ -5166,7 +5677,10 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>42</v>
+      </c>
       <c r="B32" t="s">
         <v>134</v>
       </c>
@@ -5183,7 +5697,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>134</v>
       </c>
@@ -5200,7 +5714,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>134</v>
       </c>
@@ -5217,7 +5731,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>134</v>
       </c>
@@ -5234,7 +5748,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>20</v>
       </c>
@@ -5269,7 +5783,10 @@
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>44</v>
+      </c>
       <c r="B37" t="s">
         <v>135</v>
       </c>
@@ -5286,7 +5803,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>135</v>
       </c>
@@ -5303,7 +5820,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>135</v>
       </c>
@@ -5320,7 +5837,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>135</v>
       </c>
@@ -5346,11 +5863,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A69EF-C943-41AA-AE07-FFE240D8DD82}">
-  <dimension ref="B3:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D523A4E0-E76E-4B95-BE78-E69C80491D32}">
+  <dimension ref="B4:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A69EF-C943-41AA-AE07-FFE240D8DD82}">
+  <dimension ref="A3:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5360,7 +6080,7 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -5377,7 +6097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>23</v>
       </c>
@@ -5392,22 +6112,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21</v>
+      </c>
       <c r="B5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>24</v>
       </c>
@@ -5422,188 +6145,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
       <c r="B9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32EA96-C52E-46E6-B124-96CB684FD282}">
-  <dimension ref="C4:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6455601F-406C-444D-BC02-F1072D84D3E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39310988-E7B9-42B9-90B0-E08C40D7AE58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="17" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
+    <workbookView xWindow="-35610" yWindow="2535" windowWidth="14865" windowHeight="15915" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
     <sheet name="bouncing_balls" sheetId="2" r:id="rId2"/>
     <sheet name="circnoise" sheetId="3" r:id="rId3"/>
     <sheet name="colorwave" sheetId="4" r:id="rId4"/>
-    <sheet name="confetti" sheetId="5" r:id="rId5"/>
-    <sheet name="fire" sheetId="7" r:id="rId6"/>
-    <sheet name="juggle" sheetId="6" r:id="rId7"/>
-    <sheet name="matrix" sheetId="17" r:id="rId8"/>
-    <sheet name="noise8" sheetId="8" r:id="rId9"/>
-    <sheet name="one_sin" sheetId="9" r:id="rId10"/>
-    <sheet name="plasma" sheetId="10" r:id="rId11"/>
-    <sheet name="rainbow_march" sheetId="11" r:id="rId12"/>
-    <sheet name="ripple" sheetId="12" r:id="rId13"/>
-    <sheet name="serendipitous" sheetId="13" r:id="rId14"/>
-    <sheet name="spiral" sheetId="14" r:id="rId15"/>
-    <sheet name="twinkle" sheetId="18" r:id="rId16"/>
-    <sheet name="three_sin" sheetId="15" r:id="rId17"/>
-    <sheet name="two_sin" sheetId="16" r:id="rId18"/>
+    <sheet name="cylon" sheetId="19" r:id="rId5"/>
+    <sheet name="confetti" sheetId="5" r:id="rId6"/>
+    <sheet name="fire" sheetId="7" r:id="rId7"/>
+    <sheet name="juggle" sheetId="6" r:id="rId8"/>
+    <sheet name="matrix" sheetId="17" r:id="rId9"/>
+    <sheet name="noise8" sheetId="8" r:id="rId10"/>
+    <sheet name="one_sin" sheetId="9" r:id="rId11"/>
+    <sheet name="plasma" sheetId="10" r:id="rId12"/>
+    <sheet name="rainbow_march" sheetId="11" r:id="rId13"/>
+    <sheet name="ripple" sheetId="12" r:id="rId14"/>
+    <sheet name="serendipitous" sheetId="13" r:id="rId15"/>
+    <sheet name="spiral" sheetId="14" r:id="rId16"/>
+    <sheet name="twinkle" sheetId="18" r:id="rId17"/>
+    <sheet name="three_sin" sheetId="15" r:id="rId18"/>
+    <sheet name="two_sin" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,10 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="197">
-  <si>
-    <t>readkeyboard() options</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="200">
   <si>
     <t>letter</t>
   </si>
@@ -639,13 +637,25 @@
   </si>
   <si>
     <t>part of juggle</t>
+  </si>
+  <si>
+    <t>circnoise_pal_1_ring</t>
+  </si>
+  <si>
+    <t>circnoise_pal_4_ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this_delay </t>
+  </si>
+  <si>
+    <t>cylon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,16 +669,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -676,16 +712,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,8 +1011,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB685E2-B044-48EC-B274-031DC42D6822}" name="Table1" displayName="Table1" ref="B4:E57" totalsRowShown="0">
-  <autoFilter ref="B4:E57" xr:uid="{7E3B4C9F-74BB-4774-AA55-71F0D54B5B91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB685E2-B044-48EC-B274-031DC42D6822}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30" xr:uid="{7E3B4C9F-74BB-4774-AA55-71F0D54B5B91}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4CA7801F-5C51-46B3-8884-F9D931171BF1}" name="ascii "/>
     <tableColumn id="2" xr3:uid="{03A3BFB1-C188-4714-9F01-CF3B471E7095}" name="letter"/>
@@ -865,6 +1024,20 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{735AEADE-E42C-40CD-BC0F-2BDDEB978719}" name="Table9" displayName="Table9" ref="B3:F12" totalsRowShown="0">
+  <autoFilter ref="B3:F12" xr:uid="{2D982AFB-B968-492E-BD67-697A4FE341EE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{05A310C9-4A29-45A4-A606-C9DC5B7D6B21}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{B86BD539-A9BB-4562-B337-63A65AFC3C27}" name="scale"/>
+    <tableColumn id="5" xr3:uid="{6FBF2B45-6040-4C57-8C81-047AEF6F64B5}" name="scale2"/>
+    <tableColumn id="3" xr3:uid="{FF203808-A99F-4790-96DC-2E7465E0BAE0}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{765884F8-5D09-4A63-AA45-9522233E62C7}" name="target_palette"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F8DA805A-A649-426C-A40F-06DF52A6EE54}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
   <autoFilter ref="C4:L14" xr:uid="{1BE7BD7C-776D-4EF2-B225-777489E8E389}"/>
   <tableColumns count="10">
@@ -883,7 +1056,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9D458CF0-3F5A-4D22-8B12-D55930DB86CB}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
   <autoFilter ref="C4:E9" xr:uid="{5298463E-3AA9-4EA1-A1A8-6D70FE74A5EB}"/>
   <tableColumns count="3">
@@ -895,7 +1068,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E94BC80A-1DB9-452A-B115-73888EECDBB1}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
   <autoFilter ref="C4:F16" xr:uid="{A7F0A9D3-4AA5-4454-8745-04F07DEBEE4C}"/>
   <tableColumns count="4">
@@ -908,7 +1081,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4E2CFFC-7AB4-4994-85D9-66BCB4022AA9}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
   <autoFilter ref="C4:G10" xr:uid="{49DD92C2-9FB6-400A-9839-6C18422FB67A}"/>
   <tableColumns count="5">
@@ -922,7 +1095,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1BDA9CBD-BB59-4B97-B8C3-E6F103CC3C8E}" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
   <autoFilter ref="C4:F13" xr:uid="{FB72EEAD-9245-4FBC-B1B8-6818E6342FDE}"/>
   <tableColumns count="4">
@@ -935,7 +1108,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9539C1C5-7269-4E20-B5DA-EE7CE6BAAE89}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
   <autoFilter ref="C5:P44" xr:uid="{33006C65-6254-4C2E-BA90-A793C18B517B}"/>
   <tableColumns count="14">
@@ -958,7 +1131,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{72D6CC55-F6A5-4CD7-A311-28FADA849475}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
   <autoFilter ref="C3:J6" xr:uid="{260AE32F-34FD-4B24-BF29-B29647C2BB4A}"/>
   <tableColumns count="8">
@@ -975,7 +1148,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A15F9ED9-4F6D-4873-8CBA-8E39FAEBB2BB}" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
   <autoFilter ref="C5:K13" xr:uid="{647C1886-CAF5-4AD0-935B-332451C9BA78}"/>
   <tableColumns count="9">
@@ -993,7 +1166,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{85B6E0B0-BC6F-480A-84C1-208C1046B7C5}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
   <autoFilter ref="C4:M19" xr:uid="{EE3E795F-5D4E-4DF2-909E-0D1BCBB1D820}"/>
   <tableColumns count="11">
@@ -1028,8 +1201,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B0761A06-23B2-4466-8DAC-3CABC074BA5F}" name="Table4" displayName="Table4" ref="B4:F16" totalsRowShown="0">
-  <autoFilter ref="B4:F16" xr:uid="{A2C28CCC-C61B-422C-9EB7-47067BD62A56}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B0761A06-23B2-4466-8DAC-3CABC074BA5F}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24" xr:uid="{A2C28CCC-C61B-422C-9EB7-47067BD62A56}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B6C98E78-8ACF-40CA-A857-F6FC9595B8A9}" name="mode"/>
     <tableColumn id="2" xr3:uid="{F054775A-708C-4B3B-A107-B2DD28B33067}" name="scale"/>
@@ -1037,7 +1210,7 @@
     <tableColumn id="5" xr3:uid="{DC78370B-1081-45E1-A74B-9CCF3697955B}" name="this_delay"/>
     <tableColumn id="4" xr3:uid="{713646CA-B596-4D90-9534-961C4F779169}" name="Notes"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1054,6 +1227,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{956A58C2-F8A4-4A23-83AF-3C5B6B93395A}" name="Table20" displayName="Table20" ref="B4:D8" totalsRowShown="0">
+  <autoFilter ref="B4:D8" xr:uid="{DEFF5426-63AC-48DE-A86C-7530CD4CEE8A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6C4D3F5B-FA58-4442-B7B7-1249ED305236}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{0C06A658-2669-441F-9A38-1C3D17EE961F}" name="this_delay "/>
+    <tableColumn id="3" xr3:uid="{971D7B97-8E63-4CCD-8025-F5035BE11C5F}" name="target_palette"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D08EF6F5-0D7F-41DE-A3C6-860FD8347329}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
   <autoFilter ref="B3:H9" xr:uid="{E0508E23-037B-45E8-84B3-C521CE247F1F}"/>
   <tableColumns count="7">
@@ -1069,7 +1254,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7960933-7632-4D6A-BD49-36E8192F0D63}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
   <autoFilter ref="B3:H40" xr:uid="{6FB8EB4B-0181-423B-ADE4-C57A9A37A434}"/>
   <tableColumns count="7">
@@ -1085,7 +1270,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7DDCFB7F-C540-4DE8-A4FA-7E352A4CA74F}" name="Table7" displayName="Table7" ref="B3:N40" totalsRowShown="0">
   <autoFilter ref="B3:N40" xr:uid="{BC983D0E-72F1-46A6-A34F-0D3115A13C31}"/>
   <tableColumns count="13">
@@ -1107,7 +1292,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{06E86928-983C-4A94-B30A-02133E2B14FC}" name="Table16" displayName="Table16" ref="C4:I15" totalsRowShown="0">
   <autoFilter ref="C4:I15" xr:uid="{BB459464-8D55-4078-AEB0-B3756A24CE71}"/>
   <tableColumns count="7">
@@ -1120,20 +1305,6 @@
     <tableColumn id="7" xr3:uid="{3986F5DC-2BA5-44B0-A8F4-7A7ACEA7BCB1}" name="this_fade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{735AEADE-E42C-40CD-BC0F-2BDDEB978719}" name="Table9" displayName="Table9" ref="B3:F12" totalsRowShown="0">
-  <autoFilter ref="B3:F12" xr:uid="{2D982AFB-B968-492E-BD67-697A4FE341EE}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{05A310C9-4A29-45A4-A606-C9DC5B7D6B21}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{B86BD539-A9BB-4562-B337-63A65AFC3C27}" name="scale"/>
-    <tableColumn id="5" xr3:uid="{6FBF2B45-6040-4C57-8C81-047AEF6F64B5}" name="scale2"/>
-    <tableColumn id="3" xr3:uid="{FF203808-A99F-4790-96DC-2E7465E0BAE0}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{765884F8-5D09-4A63-AA45-9522233E62C7}" name="target_palette"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1434,695 +1605,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E5B464-4504-4F4A-A97E-6EE218327A39}">
-  <dimension ref="B3:E57"/>
+  <dimension ref="B4:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>65</v>
       </c>
       <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6">
         <v>97</v>
       </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>98</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G7" s="6">
+        <v>99</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" t="s">
         <v>164</v>
       </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="9">
+        <v>100</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="G9" s="6">
+        <v>101</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G10" s="9">
+        <v>102</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>71</v>
       </c>
       <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
       <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6">
+        <v>103</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>72</v>
       </c>
       <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
         <v>93</v>
       </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
       <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G12" s="9">
+        <v>104</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>73</v>
       </c>
       <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
         <v>95</v>
       </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
       <c r="E13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G13" s="6">
+        <v>105</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G14" s="9">
+        <v>106</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6">
+        <v>107</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G16" s="9">
+        <v>108</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>77</v>
       </c>
       <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="6">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G18" s="9">
+        <v>110</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>111</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>80</v>
       </c>
       <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="9">
+        <v>112</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
         <v>130</v>
       </c>
-      <c r="E21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="6">
+        <v>113</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G22" s="9">
+        <v>114</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G23" s="6">
+        <v>115</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="G24" s="9">
+        <v>116</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G25" s="6">
+        <v>117</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G26" s="9">
+        <v>118</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="G27" s="6">
+        <v>119</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G28" s="9">
+        <v>120</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="G29" s="6">
+        <v>121</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>103</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>105</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>106</v>
-      </c>
-      <c r="C41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>108</v>
-      </c>
-      <c r="C43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>110</v>
-      </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>111</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>112</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>113</v>
-      </c>
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>115</v>
-      </c>
-      <c r="C50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>118</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>120</v>
-      </c>
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>121</v>
-      </c>
-      <c r="C56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="G30" s="12">
         <v>122</v>
       </c>
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
+      <c r="H30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2133,6 +2269,117 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A69EF-C943-41AA-AE07-FFE240D8DD82}">
+  <dimension ref="A3:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32EA96-C52E-46E6-B124-96CB684FD282}">
   <dimension ref="B4:L14"/>
   <sheetViews>
@@ -2154,34 +2401,34 @@
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -2189,31 +2436,31 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -2221,22 +2468,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -2244,54 +2491,54 @@
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407065F9-00F7-4395-AC85-FCDA6551A4EB}">
   <dimension ref="B4:E9"/>
   <sheetViews>
@@ -2318,13 +2565,13 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -2332,10 +2579,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2343,22 +2590,22 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2369,7 +2616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65FB421-461D-4012-B50B-413288907109}">
   <dimension ref="B4:F16"/>
   <sheetViews>
@@ -2387,16 +2634,16 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -2404,31 +2651,31 @@
         <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2436,31 +2683,31 @@
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -2468,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -2476,17 +2723,17 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +2744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C004E-1540-442C-B2CD-1482F1940A0C}">
   <dimension ref="B4:G10"/>
   <sheetViews>
@@ -2515,19 +2762,19 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -2535,16 +2782,16 @@
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -2552,27 +2799,27 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA4B77D-69E6-47AE-AC6F-92D60724A77C}">
   <dimension ref="B4:F13"/>
   <sheetViews>
@@ -2601,16 +2848,16 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -2618,13 +2865,13 @@
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -2632,22 +2879,22 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -2655,22 +2902,22 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81803C8-95EC-4683-B6B4-414BB6DFA3B9}">
   <dimension ref="B5:Q44"/>
   <sheetViews>
@@ -2707,46 +2954,46 @@
   <sheetData>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -2754,13 +3001,13 @@
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2771,7 +3018,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -2780,7 +3027,7 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2798,7 +3045,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2816,7 +3063,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2834,7 +3081,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2855,16 +3102,16 @@
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2874,10 +3121,10 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -2886,7 +3133,7 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2904,7 +3151,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2922,7 +3169,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2946,26 +3193,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -2973,7 +3220,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2991,7 +3238,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3009,7 +3256,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3027,7 +3274,7 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3051,26 +3298,26 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -3078,7 +3325,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3096,7 +3343,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3114,7 +3361,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3138,26 +3385,26 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -3165,7 +3412,7 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3183,7 +3430,7 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3201,7 +3448,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3219,7 +3466,7 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3243,32 +3490,32 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -3276,7 +3523,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3294,7 +3541,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3312,7 +3559,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3344,10 +3591,10 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -3355,7 +3602,7 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3373,7 +3620,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3391,7 +3638,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3423,10 +3670,10 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -3434,7 +3681,7 @@
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3452,7 +3699,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3470,7 +3717,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3494,10 +3741,10 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -3506,10 +3753,10 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -3517,7 +3764,7 @@
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3535,7 +3782,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3553,7 +3800,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3578,7 +3825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0F38FB-25C6-468C-9D8E-DE2A80B4B870}">
   <dimension ref="B3:J6"/>
   <sheetViews>
@@ -3599,28 +3846,28 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
         <v>190</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>191</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>192</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>193</v>
       </c>
-      <c r="H3" t="s">
-        <v>194</v>
-      </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -3628,10 +3875,10 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -3639,12 +3886,12 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3655,7 +3902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD3FC4D-8AF2-4F13-A7EC-8678F183C890}">
   <dimension ref="B5:K13"/>
   <sheetViews>
@@ -3673,31 +3920,31 @@
   <sheetData>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
         <v>161</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>162</v>
       </c>
-      <c r="F5" t="s">
-        <v>163</v>
-      </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -3705,22 +3952,22 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3728,7 +3975,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3741,7 +3988,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3754,7 +4001,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3773,27 +4020,27 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3806,7 +4053,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3819,7 +4066,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3839,11 +4086,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE3D99-698F-4540-9C95-5DF7F9823692}">
   <dimension ref="B4:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -3865,37 +4112,37 @@
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>155</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
         <v>156</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>157</v>
-      </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -3903,40 +4150,40 @@
         <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3951,7 +4198,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3966,7 +4213,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3981,7 +4228,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3999,40 +4246,40 @@
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4047,7 +4294,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4062,7 +4309,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4077,7 +4324,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4095,32 +4342,32 @@
         <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -4128,7 +4375,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4143,7 +4390,7 @@
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4158,7 +4405,7 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4173,7 +4420,7 @@
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4213,30 +4460,30 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4244,16 +4491,16 @@
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4261,50 +4508,50 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,16 +4559,16 @@
         <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4329,32 +4576,32 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4367,10 +4614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72797014-C374-49FE-BA09-69B32D5AA5A3}">
-  <dimension ref="A4:F16"/>
+  <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,19 +4630,19 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4403,13 +4650,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4417,33 +4664,33 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4451,10 +4698,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -4463,27 +4710,90 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4511,13 +4821,13 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,10 +4835,10 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,32 +4846,32 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4573,6 +4883,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444882A2-46BE-4444-82F9-E3B1E7616528}">
+  <dimension ref="B4:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DE3B67-5FCE-4115-A448-2B026FC006FD}">
   <dimension ref="A3:H9"/>
   <sheetViews>
@@ -4592,25 +4961,25 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4618,47 +4987,47 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4669,7 +5038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D5FB12-C8F8-489E-B459-E6836AC79FFA}">
   <dimension ref="A3:H40"/>
   <sheetViews>
@@ -4691,25 +5060,25 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
         <v>121</v>
-      </c>
-      <c r="H3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4717,13 +5086,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -4732,22 +5101,22 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4755,16 +5124,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4772,17 +5141,17 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4790,13 +5159,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -4805,17 +5174,17 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4823,16 +5192,16 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4840,17 +5209,17 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4858,14 +5227,14 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4873,17 +5242,17 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4891,16 +5260,16 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4908,17 +5277,17 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4926,14 +5295,14 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4941,17 +5310,17 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4959,16 +5328,16 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4976,17 +5345,17 @@
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4994,32 +5363,32 @@
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5030,7 +5399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298B5153-BF4C-4682-9BCF-06258537994F}">
   <dimension ref="A3:N40"/>
   <sheetViews>
@@ -5055,43 +5424,43 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" t="s">
         <v>121</v>
       </c>
-      <c r="M3" t="s">
-        <v>122</v>
-      </c>
       <c r="N3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5099,27 +5468,27 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -5127,10 +5496,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5147,7 +5516,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5164,7 +5533,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5181,7 +5550,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5198,7 +5567,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5218,27 +5587,27 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -5246,10 +5615,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5266,7 +5635,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5283,7 +5652,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5300,7 +5669,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5317,7 +5686,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5337,33 +5706,33 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -5372,7 +5741,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5389,7 +5758,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5406,7 +5775,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5423,7 +5792,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5443,27 +5812,27 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -5474,7 +5843,7 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5491,7 +5860,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5508,7 +5877,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5525,7 +5894,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5545,27 +5914,27 @@
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5576,7 +5945,7 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5593,7 +5962,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5610,7 +5979,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5627,7 +5996,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5647,33 +6016,33 @@
         <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="N31" s="1"/>
     </row>
@@ -5682,7 +6051,7 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5699,7 +6068,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5716,7 +6085,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5733,7 +6102,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5753,33 +6122,33 @@
         <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="N36" s="1"/>
     </row>
@@ -5788,7 +6157,7 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5805,7 +6174,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5822,7 +6191,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5839,7 +6208,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5862,7 +6231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D523A4E0-E76E-4B95-BE78-E69C80491D32}">
   <dimension ref="B4:I15"/>
   <sheetViews>
@@ -5880,25 +6249,25 @@
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -5906,22 +6275,22 @@
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -5929,7 +6298,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -5940,7 +6309,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5951,7 +6320,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5965,18 +6334,18 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -5984,7 +6353,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5995,7 +6364,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -6006,7 +6375,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -6021,15 +6390,15 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -6037,7 +6406,7 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -6048,7 +6417,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -6056,117 +6425,6 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A69EF-C943-41AA-AE07-FFE240D8DD82}">
-  <dimension ref="A3:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39310988-E7B9-42B9-90B0-E08C40D7AE58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33361A43-79A8-4CC0-A483-8F8BA66E7814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35610" yWindow="2535" windowWidth="14865" windowHeight="15915" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
+    <workbookView xWindow="-27615" yWindow="3870" windowWidth="18375" windowHeight="15885" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,20 @@
     <sheet name="colorwave" sheetId="4" r:id="rId4"/>
     <sheet name="cylon" sheetId="19" r:id="rId5"/>
     <sheet name="confetti" sheetId="5" r:id="rId6"/>
-    <sheet name="fire" sheetId="7" r:id="rId7"/>
-    <sheet name="juggle" sheetId="6" r:id="rId8"/>
-    <sheet name="matrix" sheetId="17" r:id="rId9"/>
-    <sheet name="noise8" sheetId="8" r:id="rId10"/>
-    <sheet name="one_sin" sheetId="9" r:id="rId11"/>
-    <sheet name="plasma" sheetId="10" r:id="rId12"/>
-    <sheet name="rainbow_march" sheetId="11" r:id="rId13"/>
-    <sheet name="ripple" sheetId="12" r:id="rId14"/>
-    <sheet name="serendipitous" sheetId="13" r:id="rId15"/>
-    <sheet name="spiral" sheetId="14" r:id="rId16"/>
-    <sheet name="twinkle" sheetId="18" r:id="rId17"/>
-    <sheet name="three_sin" sheetId="15" r:id="rId18"/>
-    <sheet name="two_sin" sheetId="16" r:id="rId19"/>
+    <sheet name="fade" sheetId="20" r:id="rId7"/>
+    <sheet name="fire" sheetId="7" r:id="rId8"/>
+    <sheet name="juggle" sheetId="6" r:id="rId9"/>
+    <sheet name="matrix" sheetId="17" r:id="rId10"/>
+    <sheet name="noise8" sheetId="8" r:id="rId11"/>
+    <sheet name="one_sin" sheetId="9" r:id="rId12"/>
+    <sheet name="plasma" sheetId="10" r:id="rId13"/>
+    <sheet name="rainbow_march" sheetId="11" r:id="rId14"/>
+    <sheet name="ripple" sheetId="12" r:id="rId15"/>
+    <sheet name="serendipitous" sheetId="13" r:id="rId16"/>
+    <sheet name="spiral" sheetId="14" r:id="rId17"/>
+    <sheet name="twinkle" sheetId="18" r:id="rId18"/>
+    <sheet name="three_sin" sheetId="15" r:id="rId19"/>
+    <sheet name="two_sin" sheetId="16" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="205">
   <si>
     <t>letter</t>
   </si>
@@ -649,6 +650,21 @@
   </si>
   <si>
     <t>cylon</t>
+  </si>
+  <si>
+    <t>fade</t>
+  </si>
+  <si>
+    <t>fade_rainbow</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>matrix_ray</t>
+  </si>
+  <si>
+    <t>juggle_pal_individual_ring_onedir_phase</t>
   </si>
 </sst>
 </file>
@@ -827,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,6 +861,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,6 +1043,22 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{06E86928-983C-4A94-B30A-02133E2B14FC}" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
+  <autoFilter ref="C4:I18" xr:uid="{BB459464-8D55-4078-AEB0-B3756A24CE71}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6BA9E6BE-A65A-44B5-93BA-A9004172E176}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{3F544982-2614-4EBC-B5CD-9E2EEB5E2F9E}" name="this_rot" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{9816F04B-5C36-4613-8079-6EF4AF805F6B}" name="this_delay" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{0E24C419-693F-4DC7-A454-02E431D95E72}" name="target_palette" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{3FB5B42A-1E5E-46F4-98F5-AAEC25ECACBE}" name="bg_clr" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{767B200D-BA70-439B-94A5-74CB8576CAA0}" name="bg_bri" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{3986F5DC-2BA5-44B0-A8F4-7A7ACEA7BCB1}" name="this_fade" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{735AEADE-E42C-40CD-BC0F-2BDDEB978719}" name="Table9" displayName="Table9" ref="B3:F12" totalsRowShown="0">
   <autoFilter ref="B3:F12" xr:uid="{2D982AFB-B968-492E-BD67-697A4FE341EE}"/>
   <tableColumns count="5">
@@ -1037,7 +1072,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F8DA805A-A649-426C-A40F-06DF52A6EE54}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
   <autoFilter ref="C4:L14" xr:uid="{1BE7BD7C-776D-4EF2-B225-777489E8E389}"/>
   <tableColumns count="10">
@@ -1056,7 +1091,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9D458CF0-3F5A-4D22-8B12-D55930DB86CB}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
   <autoFilter ref="C4:E9" xr:uid="{5298463E-3AA9-4EA1-A1A8-6D70FE74A5EB}"/>
   <tableColumns count="3">
@@ -1068,7 +1103,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E94BC80A-1DB9-452A-B115-73888EECDBB1}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
   <autoFilter ref="C4:F16" xr:uid="{A7F0A9D3-4AA5-4454-8745-04F07DEBEE4C}"/>
   <tableColumns count="4">
@@ -1081,7 +1116,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4E2CFFC-7AB4-4994-85D9-66BCB4022AA9}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
   <autoFilter ref="C4:G10" xr:uid="{49DD92C2-9FB6-400A-9839-6C18422FB67A}"/>
   <tableColumns count="5">
@@ -1095,7 +1130,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1BDA9CBD-BB59-4B97-B8C3-E6F103CC3C8E}" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
   <autoFilter ref="C4:F13" xr:uid="{FB72EEAD-9245-4FBC-B1B8-6818E6342FDE}"/>
   <tableColumns count="4">
@@ -1108,30 +1143,30 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9539C1C5-7269-4E20-B5DA-EE7CE6BAAE89}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
   <autoFilter ref="C5:P44" xr:uid="{33006C65-6254-4C2E-BA90-A793C18B517B}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D451EFD4-08DE-4D68-937A-6BDCEE1F682A}" name="mode"/>
-    <tableColumn id="3" xr3:uid="{5883A58A-20CA-4E81-9909-A6F77A954824}" name="spiral_width" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{EA20131A-2FB1-42DC-92E8-009F201A0E4C}" name="spiral_inc" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{A18CF2BF-B2C4-463D-B6BB-86282AEAFC90}" name="this_hue" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{8ED8F96E-9098-46A4-BBCF-5EE841CEC53F}" name="this_inc" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{681C7FB6-894A-4108-9431-D245BAD61DF9}" name="this_speed" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{7F663E86-311B-4734-8584-41CD18ADB568}" name="this_rot" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{AF455D61-496F-4E9A-A0C7-FEDCFFC00113}" name="all_freq" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{D6F6226B-3E30-45FE-8738-A77C384B7AF2}" name="that_speed" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{F283AB4A-2A73-41AA-9846-39CADFA4CD34}" name="Column2" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{2744D8B9-518B-47BA-BD49-B78AF6AB55C7}" name="bg_clr" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{A97EB7F3-7BB6-4B29-AB05-0DEA7C7B8FC1}" name="bg_bri" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{587FCE08-EEBE-4135-BAB3-49DAC525E1F1}" name="this_delay" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{03095349-BD0F-45EA-90E9-5472A41B7E6B}" name="target_palette" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{5883A58A-20CA-4E81-9909-A6F77A954824}" name="spiral_width" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{EA20131A-2FB1-42DC-92E8-009F201A0E4C}" name="spiral_inc" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{A18CF2BF-B2C4-463D-B6BB-86282AEAFC90}" name="this_hue" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{8ED8F96E-9098-46A4-BBCF-5EE841CEC53F}" name="this_inc" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{681C7FB6-894A-4108-9431-D245BAD61DF9}" name="this_speed" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{7F663E86-311B-4734-8584-41CD18ADB568}" name="this_rot" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{AF455D61-496F-4E9A-A0C7-FEDCFFC00113}" name="all_freq" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{D6F6226B-3E30-45FE-8738-A77C384B7AF2}" name="that_speed" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{F283AB4A-2A73-41AA-9846-39CADFA4CD34}" name="Column2" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{2744D8B9-518B-47BA-BD49-B78AF6AB55C7}" name="bg_clr" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{A97EB7F3-7BB6-4B29-AB05-0DEA7C7B8FC1}" name="bg_bri" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{587FCE08-EEBE-4135-BAB3-49DAC525E1F1}" name="this_delay" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{03095349-BD0F-45EA-90E9-5472A41B7E6B}" name="target_palette" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{72D6CC55-F6A5-4CD7-A311-28FADA849475}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
   <autoFilter ref="C3:J6" xr:uid="{260AE32F-34FD-4B24-BF29-B29647C2BB4A}"/>
   <tableColumns count="8">
@@ -1148,39 +1183,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A15F9ED9-4F6D-4873-8CBA-8E39FAEBB2BB}" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
   <autoFilter ref="C5:K13" xr:uid="{647C1886-CAF5-4AD0-935B-332451C9BA78}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A92C0E86-03FD-40DC-91DC-DEF026246354}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{2200EF9C-1450-4853-9AE5-56B41D1F69B8}" name="mul1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{EF161261-B5EF-4532-A702-979022B37225}" name="mul2" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{DCC1E6A5-1978-4D3D-9D67-596C69ADAEEF}" name="mul3" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{1B829B8C-B435-423A-BB43-30BD398472D2}" name="mul1r" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{5B81F7A2-5C96-4FD2-A49A-84321424C70D}" name="mul2r" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{4486FCB4-072B-4B6B-ABB3-D116B4FA0D0F}" name="mul3r" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{33F25931-6A37-470C-A20E-100ADAE31FE1}" name="this_delay" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{8A7A7265-B42D-4D3E-8DA9-BF829F5D12BF}" name="target_palette" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{85B6E0B0-BC6F-480A-84C1-208C1046B7C5}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
-  <autoFilter ref="C4:M19" xr:uid="{EE3E795F-5D4E-4DF2-909E-0D1BCBB1D820}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{57E55E03-80DB-401D-A6F8-3837F87C4FF6}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{72139E1C-36E1-4E8D-A419-1A9D5E19B27B}" name="this_speed" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{C4CBAF6C-6A4A-4A94-BF41-A54D2049DBDD}" name="that_speed" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{E728F420-E8EA-469A-9FD8-DF954D0605C4}" name="this_rot" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{DE575798-DF59-4E2B-9B0D-4DDE05C224F9}" name="that_rot" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{62BB0B40-5043-4AE5-93B2-B4BC494EB388}" name="all_freq" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{384979C4-E3C7-4861-BEE1-3E901C9B5D8C}" name="this_cutoff" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{B7CD300C-57CE-47E4-958A-D9F134C93B41}" name="that_cutoff" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{920AF0E4-3D55-4CB5-8776-852DC53901B1}" name="this_sat" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{0F87F6FA-5922-4755-ADAC-315EA1E24339}" name="this_delay" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{56537C11-EAD3-4C35-A4A6-AD8FC54CDF55}" name="target_palette" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2200EF9C-1450-4853-9AE5-56B41D1F69B8}" name="mul1" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{EF161261-B5EF-4532-A702-979022B37225}" name="mul2" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{DCC1E6A5-1978-4D3D-9D67-596C69ADAEEF}" name="mul3" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{1B829B8C-B435-423A-BB43-30BD398472D2}" name="mul1r" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{5B81F7A2-5C96-4FD2-A49A-84321424C70D}" name="mul2r" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{4486FCB4-072B-4B6B-ABB3-D116B4FA0D0F}" name="mul3r" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{33F25931-6A37-470C-A20E-100ADAE31FE1}" name="this_delay" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{8A7A7265-B42D-4D3E-8DA9-BF829F5D12BF}" name="target_palette" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1195,6 +1210,26 @@
     <tableColumn id="3" xr3:uid="{3774D70B-2E45-4B63-8672-EE21C964434F}" name="vImpact0"/>
     <tableColumn id="4" xr3:uid="{BD631230-0D42-48CC-871E-9B660D036B5C}" name="target_palette"/>
     <tableColumn id="5" xr3:uid="{154C240E-B34E-4491-B441-34BAEFA7DA41}" name="this_delay"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{85B6E0B0-BC6F-480A-84C1-208C1046B7C5}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
+  <autoFilter ref="C4:M19" xr:uid="{EE3E795F-5D4E-4DF2-909E-0D1BCBB1D820}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{57E55E03-80DB-401D-A6F8-3837F87C4FF6}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{72139E1C-36E1-4E8D-A419-1A9D5E19B27B}" name="this_speed" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C4CBAF6C-6A4A-4A94-BF41-A54D2049DBDD}" name="that_speed" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E728F420-E8EA-469A-9FD8-DF954D0605C4}" name="this_rot" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{DE575798-DF59-4E2B-9B0D-4DDE05C224F9}" name="that_rot" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{62BB0B40-5043-4AE5-93B2-B4BC494EB388}" name="all_freq" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{384979C4-E3C7-4861-BEE1-3E901C9B5D8C}" name="this_cutoff" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B7CD300C-57CE-47E4-958A-D9F134C93B41}" name="that_cutoff" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{920AF0E4-3D55-4CB5-8776-852DC53901B1}" name="this_sat" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{0F87F6FA-5922-4755-ADAC-315EA1E24339}" name="this_delay" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{56537C11-EAD3-4C35-A4A6-AD8FC54CDF55}" name="target_palette" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1255,6 +1290,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{B11E490D-122C-4714-BD82-AE0F7CD4AF34}" name="Table18" displayName="Table18" ref="C4:E12" totalsRowShown="0">
+  <autoFilter ref="C4:E12" xr:uid="{E869288F-E5E0-45AB-A958-835EFA35FEE5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D573EEF7-4341-4768-87D7-F985817C49A2}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{1D3FC71E-2CA2-407C-9B78-A64789185508}" name="this_hue"/>
+    <tableColumn id="3" xr3:uid="{8E30514E-3612-4F2E-B137-15E9EDCBB767}" name="this_delay"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7960933-7632-4D6A-BD49-36E8192F0D63}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
   <autoFilter ref="B3:H40" xr:uid="{6FB8EB4B-0181-423B-ADE4-C57A9A37A434}"/>
   <tableColumns count="7">
@@ -1270,9 +1317,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7DDCFB7F-C540-4DE8-A4FA-7E352A4CA74F}" name="Table7" displayName="Table7" ref="B3:N40" totalsRowShown="0">
-  <autoFilter ref="B3:N40" xr:uid="{BC983D0E-72F1-46A6-A34F-0D3115A13C31}"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7DDCFB7F-C540-4DE8-A4FA-7E352A4CA74F}" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
+  <autoFilter ref="B3:N44" xr:uid="{BC983D0E-72F1-46A6-A34F-0D3115A13C31}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{8A06A4F3-45AF-4652-B223-BDB11410A52A}" name="mode"/>
     <tableColumn id="2" xr3:uid="{D5CF372E-8371-4313-8740-2944A4CF04C2}" name="juggle_index_reset" dataDxfId="48"/>
@@ -1287,22 +1334,6 @@
     <tableColumn id="11" xr3:uid="{1B108AAB-822A-4AAB-9969-62D73DFE8D9F}" name="cooling1-4" dataDxfId="39"/>
     <tableColumn id="10" xr3:uid="{CC4AAF48-640F-4A6A-9335-F7696968A79B}" name="sparking1-4" dataDxfId="38"/>
     <tableColumn id="9" xr3:uid="{BB67BBB9-C1D0-44B5-9EEE-EADD648958AA}" name="Notes" dataDxfId="37"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{06E86928-983C-4A94-B30A-02133E2B14FC}" name="Table16" displayName="Table16" ref="C4:I15" totalsRowShown="0">
-  <autoFilter ref="C4:I15" xr:uid="{BB459464-8D55-4078-AEB0-B3756A24CE71}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6BA9E6BE-A65A-44B5-93BA-A9004172E176}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{3F544982-2614-4EBC-B5CD-9E2EEB5E2F9E}" name="this_rot" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{9816F04B-5C36-4613-8079-6EF4AF805F6B}" name="this_delay" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0E24C419-693F-4DC7-A454-02E431D95E72}" name="target_palette" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{3FB5B42A-1E5E-46F4-98F5-AAEC25ECACBE}" name="bg_clr" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{767B200D-BA70-439B-94A5-74CB8576CAA0}" name="bg_bri" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{3986F5DC-2BA5-44B0-A8F4-7A7ACEA7BCB1}" name="this_fade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1605,16 +1636,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E5B464-4504-4F4A-A97E-6EE218327A39}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B4:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -2177,6 +2211,9 @@
       <c r="D26" t="s">
         <v>108</v>
       </c>
+      <c r="E26" t="s">
+        <v>202</v>
+      </c>
       <c r="G26" s="9">
         <v>118</v>
       </c>
@@ -2259,6 +2296,250 @@
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D523A4E0-E76E-4B95-BE78-E69C80491D32}">
+  <dimension ref="B4:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2268,7 +2549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A69EF-C943-41AA-AE07-FFE240D8DD82}">
   <dimension ref="A3:F12"/>
   <sheetViews>
@@ -2379,7 +2660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32EA96-C52E-46E6-B124-96CB684FD282}">
   <dimension ref="B4:L14"/>
   <sheetViews>
@@ -2549,7 +2830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407065F9-00F7-4395-AC85-FCDA6551A4EB}">
   <dimension ref="B4:E9"/>
   <sheetViews>
@@ -2616,7 +2897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65FB421-461D-4012-B50B-413288907109}">
   <dimension ref="B4:F16"/>
   <sheetViews>
@@ -2744,7 +3025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C004E-1540-442C-B2CD-1482F1940A0C}">
   <dimension ref="B4:G10"/>
   <sheetViews>
@@ -2830,7 +3111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA4B77D-69E6-47AE-AC6F-92D60724A77C}">
   <dimension ref="B4:F13"/>
   <sheetViews>
@@ -2928,7 +3209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81803C8-95EC-4683-B6B4-414BB6DFA3B9}">
   <dimension ref="B5:Q44"/>
   <sheetViews>
@@ -3825,7 +4106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0F38FB-25C6-468C-9D8E-DE2A80B4B870}">
   <dimension ref="B3:J6"/>
   <sheetViews>
@@ -3902,7 +4183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD3FC4D-8AF2-4F13-A7EC-8678F183C890}">
   <dimension ref="B5:K13"/>
   <sheetViews>
@@ -4079,361 +4360,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE3D99-698F-4540-9C95-5DF7F9823692}">
-  <dimension ref="B4:M19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4603,6 +4529,361 @@
       <c r="B17" t="s">
         <v>109</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE3D99-698F-4540-9C95-5DF7F9823692}">
+  <dimension ref="B4:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5039,6 +5320,93 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB658F8-BD33-424D-B6CE-52BA452BDB0E}">
+  <dimension ref="B4:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D5FB12-C8F8-489E-B459-E6836AC79FFA}">
   <dimension ref="A3:H40"/>
   <sheetViews>
@@ -5399,17 +5767,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298B5153-BF4C-4682-9BCF-06258537994F}">
-  <dimension ref="A3:N40"/>
+  <dimension ref="A3:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
@@ -5495,7 +5864,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="15" t="s">
         <v>187</v>
       </c>
       <c r="B5" t="s">
@@ -5614,7 +5983,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="15" t="s">
         <v>188</v>
       </c>
       <c r="B11" t="s">
@@ -5737,7 +6106,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="15">
         <v>41</v>
       </c>
       <c r="B17" t="s">
@@ -5839,7 +6208,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="15">
         <v>56</v>
       </c>
       <c r="B22" t="s">
@@ -5941,7 +6310,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="15">
         <v>43</v>
       </c>
       <c r="B27" t="s">
@@ -6047,7 +6416,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="15">
         <v>42</v>
       </c>
       <c r="B32" t="s">
@@ -6153,7 +6522,7 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="15">
         <v>44</v>
       </c>
       <c r="B37" t="s">
@@ -6223,208 +6592,90 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D523A4E0-E76E-4B95-BE78-E69C80491D32}">
-  <dimension ref="B4:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>54</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33361A43-79A8-4CC0-A483-8F8BA66E7814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A80FBB-EE7B-4BCF-BFF2-8858C2D0AEF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27615" yWindow="3870" windowWidth="18375" windowHeight="15885" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
+    <workbookView xWindow="-27615" yWindow="3870" windowWidth="18375" windowHeight="15885" activeTab="1" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="208">
   <si>
     <t>letter</t>
   </si>
@@ -665,6 +665,15 @@
   </si>
   <si>
     <t>juggle_pal_individual_ring_onedir_phase</t>
+  </si>
+  <si>
+    <t>inoise_mover</t>
+  </si>
+  <si>
+    <t>inoise_fire</t>
+  </si>
+  <si>
+    <t>jug16_phase</t>
   </si>
 </sst>
 </file>
@@ -868,7 +877,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="53">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1047,26 +1068,26 @@
   <autoFilter ref="C4:I18" xr:uid="{BB459464-8D55-4078-AEB0-B3756A24CE71}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{6BA9E6BE-A65A-44B5-93BA-A9004172E176}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{3F544982-2614-4EBC-B5CD-9E2EEB5E2F9E}" name="this_rot" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{9816F04B-5C36-4613-8079-6EF4AF805F6B}" name="this_delay" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{0E24C419-693F-4DC7-A454-02E431D95E72}" name="target_palette" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{3FB5B42A-1E5E-46F4-98F5-AAEC25ECACBE}" name="bg_clr" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{767B200D-BA70-439B-94A5-74CB8576CAA0}" name="bg_bri" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{3986F5DC-2BA5-44B0-A8F4-7A7ACEA7BCB1}" name="this_fade" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{3F544982-2614-4EBC-B5CD-9E2EEB5E2F9E}" name="this_rot" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{9816F04B-5C36-4613-8079-6EF4AF805F6B}" name="this_delay" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{0E24C419-693F-4DC7-A454-02E431D95E72}" name="target_palette" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{3FB5B42A-1E5E-46F4-98F5-AAEC25ECACBE}" name="bg_clr" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{767B200D-BA70-439B-94A5-74CB8576CAA0}" name="bg_bri" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{3986F5DC-2BA5-44B0-A8F4-7A7ACEA7BCB1}" name="this_fade" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{735AEADE-E42C-40CD-BC0F-2BDDEB978719}" name="Table9" displayName="Table9" ref="B3:F12" totalsRowShown="0">
-  <autoFilter ref="B3:F12" xr:uid="{2D982AFB-B968-492E-BD67-697A4FE341EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{735AEADE-E42C-40CD-BC0F-2BDDEB978719}" name="Table9" displayName="Table9" ref="B3:F20" totalsRowShown="0">
+  <autoFilter ref="B3:F20" xr:uid="{2D982AFB-B968-492E-BD67-697A4FE341EE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{05A310C9-4A29-45A4-A606-C9DC5B7D6B21}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{B86BD539-A9BB-4562-B337-63A65AFC3C27}" name="scale"/>
-    <tableColumn id="5" xr3:uid="{6FBF2B45-6040-4C57-8C81-047AEF6F64B5}" name="scale2"/>
-    <tableColumn id="3" xr3:uid="{FF203808-A99F-4790-96DC-2E7465E0BAE0}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{765884F8-5D09-4A63-AA45-9522233E62C7}" name="target_palette"/>
+    <tableColumn id="2" xr3:uid="{B86BD539-A9BB-4562-B337-63A65AFC3C27}" name="scale" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6FBF2B45-6040-4C57-8C81-047AEF6F64B5}" name="scale2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FF203808-A99F-4790-96DC-2E7465E0BAE0}" name="this_delay" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{765884F8-5D09-4A63-AA45-9522233E62C7}" name="target_palette" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1148,19 +1169,19 @@
   <autoFilter ref="C5:P44" xr:uid="{33006C65-6254-4C2E-BA90-A793C18B517B}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D451EFD4-08DE-4D68-937A-6BDCEE1F682A}" name="mode"/>
-    <tableColumn id="3" xr3:uid="{5883A58A-20CA-4E81-9909-A6F77A954824}" name="spiral_width" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{EA20131A-2FB1-42DC-92E8-009F201A0E4C}" name="spiral_inc" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{A18CF2BF-B2C4-463D-B6BB-86282AEAFC90}" name="this_hue" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{8ED8F96E-9098-46A4-BBCF-5EE841CEC53F}" name="this_inc" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{681C7FB6-894A-4108-9431-D245BAD61DF9}" name="this_speed" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{7F663E86-311B-4734-8584-41CD18ADB568}" name="this_rot" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{AF455D61-496F-4E9A-A0C7-FEDCFFC00113}" name="all_freq" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{D6F6226B-3E30-45FE-8738-A77C384B7AF2}" name="that_speed" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{F283AB4A-2A73-41AA-9846-39CADFA4CD34}" name="Column2" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{2744D8B9-518B-47BA-BD49-B78AF6AB55C7}" name="bg_clr" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{A97EB7F3-7BB6-4B29-AB05-0DEA7C7B8FC1}" name="bg_bri" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{587FCE08-EEBE-4135-BAB3-49DAC525E1F1}" name="this_delay" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{03095349-BD0F-45EA-90E9-5472A41B7E6B}" name="target_palette" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{5883A58A-20CA-4E81-9909-A6F77A954824}" name="spiral_width" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{EA20131A-2FB1-42DC-92E8-009F201A0E4C}" name="spiral_inc" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{A18CF2BF-B2C4-463D-B6BB-86282AEAFC90}" name="this_hue" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{8ED8F96E-9098-46A4-BBCF-5EE841CEC53F}" name="this_inc" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{681C7FB6-894A-4108-9431-D245BAD61DF9}" name="this_speed" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{7F663E86-311B-4734-8584-41CD18ADB568}" name="this_rot" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{AF455D61-496F-4E9A-A0C7-FEDCFFC00113}" name="all_freq" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{D6F6226B-3E30-45FE-8738-A77C384B7AF2}" name="that_speed" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{F283AB4A-2A73-41AA-9846-39CADFA4CD34}" name="Column2" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{2744D8B9-518B-47BA-BD49-B78AF6AB55C7}" name="bg_clr" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{A97EB7F3-7BB6-4B29-AB05-0DEA7C7B8FC1}" name="bg_bri" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{587FCE08-EEBE-4135-BAB3-49DAC525E1F1}" name="this_delay" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{03095349-BD0F-45EA-90E9-5472A41B7E6B}" name="target_palette" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1188,14 +1209,14 @@
   <autoFilter ref="C5:K13" xr:uid="{647C1886-CAF5-4AD0-935B-332451C9BA78}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A92C0E86-03FD-40DC-91DC-DEF026246354}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{2200EF9C-1450-4853-9AE5-56B41D1F69B8}" name="mul1" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{EF161261-B5EF-4532-A702-979022B37225}" name="mul2" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{DCC1E6A5-1978-4D3D-9D67-596C69ADAEEF}" name="mul3" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{1B829B8C-B435-423A-BB43-30BD398472D2}" name="mul1r" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{5B81F7A2-5C96-4FD2-A49A-84321424C70D}" name="mul2r" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{4486FCB4-072B-4B6B-ABB3-D116B4FA0D0F}" name="mul3r" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{33F25931-6A37-470C-A20E-100ADAE31FE1}" name="this_delay" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{8A7A7265-B42D-4D3E-8DA9-BF829F5D12BF}" name="target_palette" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2200EF9C-1450-4853-9AE5-56B41D1F69B8}" name="mul1" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{EF161261-B5EF-4532-A702-979022B37225}" name="mul2" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{DCC1E6A5-1978-4D3D-9D67-596C69ADAEEF}" name="mul3" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{1B829B8C-B435-423A-BB43-30BD398472D2}" name="mul1r" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{5B81F7A2-5C96-4FD2-A49A-84321424C70D}" name="mul2r" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{4486FCB4-072B-4B6B-ABB3-D116B4FA0D0F}" name="mul3r" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{33F25931-6A37-470C-A20E-100ADAE31FE1}" name="this_delay" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{8A7A7265-B42D-4D3E-8DA9-BF829F5D12BF}" name="target_palette" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1220,16 +1241,16 @@
   <autoFilter ref="C4:M19" xr:uid="{EE3E795F-5D4E-4DF2-909E-0D1BCBB1D820}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{57E55E03-80DB-401D-A6F8-3837F87C4FF6}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{72139E1C-36E1-4E8D-A419-1A9D5E19B27B}" name="this_speed" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C4CBAF6C-6A4A-4A94-BF41-A54D2049DBDD}" name="that_speed" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E728F420-E8EA-469A-9FD8-DF954D0605C4}" name="this_rot" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{DE575798-DF59-4E2B-9B0D-4DDE05C224F9}" name="that_rot" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{62BB0B40-5043-4AE5-93B2-B4BC494EB388}" name="all_freq" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{384979C4-E3C7-4861-BEE1-3E901C9B5D8C}" name="this_cutoff" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{B7CD300C-57CE-47E4-958A-D9F134C93B41}" name="that_cutoff" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{920AF0E4-3D55-4CB5-8776-852DC53901B1}" name="this_sat" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{0F87F6FA-5922-4755-ADAC-315EA1E24339}" name="this_delay" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{56537C11-EAD3-4C35-A4A6-AD8FC54CDF55}" name="target_palette" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{72139E1C-36E1-4E8D-A419-1A9D5E19B27B}" name="this_speed" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C4CBAF6C-6A4A-4A94-BF41-A54D2049DBDD}" name="that_speed" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E728F420-E8EA-469A-9FD8-DF954D0605C4}" name="this_rot" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{DE575798-DF59-4E2B-9B0D-4DDE05C224F9}" name="that_rot" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{62BB0B40-5043-4AE5-93B2-B4BC494EB388}" name="all_freq" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{384979C4-E3C7-4861-BEE1-3E901C9B5D8C}" name="this_cutoff" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{B7CD300C-57CE-47E4-958A-D9F134C93B41}" name="that_cutoff" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{920AF0E4-3D55-4CB5-8776-852DC53901B1}" name="this_sat" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{0F87F6FA-5922-4755-ADAC-315EA1E24339}" name="this_delay" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{56537C11-EAD3-4C35-A4A6-AD8FC54CDF55}" name="target_palette" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1322,18 +1343,18 @@
   <autoFilter ref="B3:N44" xr:uid="{BC983D0E-72F1-46A6-A34F-0D3115A13C31}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{8A06A4F3-45AF-4652-B223-BDB11410A52A}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{D5CF372E-8371-4313-8740-2944A4CF04C2}" name="juggle_index_reset" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{4C0F5AD5-FBAA-40BC-9F56-6E1DFEA16438}" name="this_fade" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{0C1DE2B9-A77C-4E60-9D7C-DC2CE31F17A1}" name="numdots_ring" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{8AE921B7-CB65-4227-AE7E-CEF139D70EDE}" name="numdots" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{A9D85CDA-C3C6-44D3-8076-75E3B2DA3C14}" name="this_beat" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{870F8A55-34BE-4730-BC78-F6218FF582B6}" name="ringBeat" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{50949DD2-3C68-4AB3-84C4-95C3335C1C0F}" name="this_diff" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{38F98679-ED7F-424F-A584-FFFAC335C341}" name="target_palette" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{F55D081A-A571-4732-8962-5670EDC4BAE7}" name="this_delay" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{1B108AAB-822A-4AAB-9969-62D73DFE8D9F}" name="cooling1-4" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{CC4AAF48-640F-4A6A-9335-F7696968A79B}" name="sparking1-4" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{BB67BBB9-C1D0-44B5-9EEE-EADD648958AA}" name="Notes" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{D5CF372E-8371-4313-8740-2944A4CF04C2}" name="juggle_index_reset" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{4C0F5AD5-FBAA-40BC-9F56-6E1DFEA16438}" name="this_fade" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{0C1DE2B9-A77C-4E60-9D7C-DC2CE31F17A1}" name="numdots_ring" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{8AE921B7-CB65-4227-AE7E-CEF139D70EDE}" name="numdots" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{A9D85CDA-C3C6-44D3-8076-75E3B2DA3C14}" name="this_beat" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{870F8A55-34BE-4730-BC78-F6218FF582B6}" name="ringBeat" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{50949DD2-3C68-4AB3-84C4-95C3335C1C0F}" name="this_diff" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{38F98679-ED7F-424F-A584-FFFAC335C341}" name="target_palette" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{F55D081A-A571-4732-8962-5670EDC4BAE7}" name="this_delay" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{1B108AAB-822A-4AAB-9969-62D73DFE8D9F}" name="cooling1-4" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{CC4AAF48-640F-4A6A-9335-F7696968A79B}" name="sparking1-4" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{BB67BBB9-C1D0-44B5-9EEE-EADD648958AA}" name="jug16_phase" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1641,8 +1662,8 @@
   </sheetPr>
   <dimension ref="B4:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,6 +2188,12 @@
       </c>
       <c r="C24" t="s">
         <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
       </c>
       <c r="G24" s="9">
         <v>116</v>
@@ -2551,10 +2578,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A69EF-C943-41AA-AE07-FFE240D8DD82}">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A3:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,16 +2630,28 @@
       <c r="B5" t="s">
         <v>135</v>
       </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>135</v>
       </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>135</v>
       </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -2636,21 +2675,131 @@
       <c r="B9" t="s">
         <v>136</v>
       </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>136</v>
       </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>136</v>
       </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>136</v>
       </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4371,7 +4520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77779BD-95B5-4C4A-BC04-7BB2350DA5C2}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -5771,8 +5920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298B5153-BF4C-4682-9BCF-06258537994F}">
   <dimension ref="A3:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5789,6 +5938,7 @@
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -5829,7 +5979,7 @@
         <v>121</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6621,7 +6771,9 @@
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="15">

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A80FBB-EE7B-4BCF-BFF2-8858C2D0AEF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27615" yWindow="3870" windowWidth="18375" windowHeight="15885" activeTab="1" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
+    <workbookView xWindow="-27615" yWindow="3870" windowWidth="18375" windowHeight="7830" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -27,14 +26,15 @@
     <sheet name="one_sin" sheetId="9" r:id="rId12"/>
     <sheet name="plasma" sheetId="10" r:id="rId13"/>
     <sheet name="rainbow_march" sheetId="11" r:id="rId14"/>
-    <sheet name="ripple" sheetId="12" r:id="rId15"/>
-    <sheet name="serendipitous" sheetId="13" r:id="rId16"/>
-    <sheet name="spiral" sheetId="14" r:id="rId17"/>
-    <sheet name="twinkle" sheetId="18" r:id="rId18"/>
-    <sheet name="three_sin" sheetId="15" r:id="rId19"/>
-    <sheet name="two_sin" sheetId="16" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId15"/>
+    <sheet name="ripple" sheetId="12" r:id="rId16"/>
+    <sheet name="serendipitous" sheetId="13" r:id="rId17"/>
+    <sheet name="spiral" sheetId="14" r:id="rId18"/>
+    <sheet name="twinkle" sheetId="18" r:id="rId19"/>
+    <sheet name="three_sin" sheetId="15" r:id="rId20"/>
+    <sheet name="two_sin" sheetId="16" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="212">
   <si>
     <t>letter</t>
   </si>
@@ -556,12 +556,6 @@
     <t>E2</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
     <t>three_sin_pal</t>
   </si>
   <si>
@@ -674,12 +668,30 @@
   </si>
   <si>
     <t>jug16_phase</t>
+  </si>
+  <si>
+    <t>do not change</t>
+  </si>
+  <si>
+    <t>d10</t>
+  </si>
+  <si>
+    <t>omg</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -877,7 +889,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="54">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1051,310 +1066,311 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB685E2-B044-48EC-B274-031DC42D6822}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30" xr:uid="{7E3B4C9F-74BB-4774-AA55-71F0D54B5B91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4CA7801F-5C51-46B3-8884-F9D931171BF1}" name="ascii "/>
-    <tableColumn id="2" xr3:uid="{03A3BFB1-C188-4714-9F01-CF3B471E7095}" name="letter"/>
-    <tableColumn id="3" xr3:uid="{A9E7BE36-D792-4023-AB63-9A8C73B54796}" name="variable"/>
-    <tableColumn id="4" xr3:uid="{8688B40B-086B-454F-9D1F-C4292D36D289}" name="range"/>
+    <tableColumn id="1" name="ascii "/>
+    <tableColumn id="2" name="letter"/>
+    <tableColumn id="3" name="variable"/>
+    <tableColumn id="4" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{06E86928-983C-4A94-B30A-02133E2B14FC}" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
-  <autoFilter ref="C4:I18" xr:uid="{BB459464-8D55-4078-AEB0-B3756A24CE71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
+  <autoFilter ref="C4:I18"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6BA9E6BE-A65A-44B5-93BA-A9004172E176}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{3F544982-2614-4EBC-B5CD-9E2EEB5E2F9E}" name="this_rot" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{9816F04B-5C36-4613-8079-6EF4AF805F6B}" name="this_delay" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{0E24C419-693F-4DC7-A454-02E431D95E72}" name="target_palette" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{3FB5B42A-1E5E-46F4-98F5-AAEC25ECACBE}" name="bg_clr" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{767B200D-BA70-439B-94A5-74CB8576CAA0}" name="bg_bri" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{3986F5DC-2BA5-44B0-A8F4-7A7ACEA7BCB1}" name="this_fade" dataDxfId="35"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot" dataDxfId="41"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="40"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="39"/>
+    <tableColumn id="5" name="bg_clr" dataDxfId="38"/>
+    <tableColumn id="6" name="bg_bri" dataDxfId="37"/>
+    <tableColumn id="7" name="this_fade" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{735AEADE-E42C-40CD-BC0F-2BDDEB978719}" name="Table9" displayName="Table9" ref="B3:F20" totalsRowShown="0">
-  <autoFilter ref="B3:F20" xr:uid="{2D982AFB-B968-492E-BD67-697A4FE341EE}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{05A310C9-4A29-45A4-A606-C9DC5B7D6B21}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{B86BD539-A9BB-4562-B337-63A65AFC3C27}" name="scale" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6FBF2B45-6040-4C57-8C81-047AEF6F64B5}" name="scale2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FF203808-A99F-4790-96DC-2E7465E0BAE0}" name="this_delay" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{765884F8-5D09-4A63-AA45-9522233E62C7}" name="target_palette" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:G20" totalsRowShown="0">
+  <autoFilter ref="B3:G20"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale" dataDxfId="35"/>
+    <tableColumn id="5" name="scale2" dataDxfId="34"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="33"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="32"/>
+    <tableColumn id="6" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F8DA805A-A649-426C-A40F-06DF52A6EE54}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14" xr:uid="{1BE7BD7C-776D-4EF2-B225-777489E8E389}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{835A8081-C64A-49D3-80C4-2FD8CBC86D03}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{2202223B-38A7-4B24-B74B-249CE7AF0765}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{701DEC42-0389-4B0D-A8C6-DEE09B271483}" name="this_speed"/>
-    <tableColumn id="4" xr3:uid="{63716679-72C1-4540-99D9-B495FD0E73F7}" name="all_freq"/>
-    <tableColumn id="5" xr3:uid="{969CDFB9-7494-44DC-AA9F-71AF7178E4FF}" name="this_cutoff"/>
-    <tableColumn id="6" xr3:uid="{2B549345-169C-4A94-94BE-D8A59CE02EE1}" name="bg_clr"/>
-    <tableColumn id="7" xr3:uid="{2B533E98-2ABB-41C7-B022-0E44E478D85D}" name="bg_bri"/>
-    <tableColumn id="8" xr3:uid="{196354DF-1DC4-4925-BFD7-A7DCEFF13A0F}" name="this_rot"/>
-    <tableColumn id="9" xr3:uid="{40DDF6C0-69AD-4ED6-8661-D7A0071FC7BD}" name="this_delay"/>
-    <tableColumn id="10" xr3:uid="{77353565-EC29-48FC-8697-4764BC64BBCD}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_inc"/>
+    <tableColumn id="3" name="this_speed"/>
+    <tableColumn id="4" name="all_freq"/>
+    <tableColumn id="5" name="this_cutoff"/>
+    <tableColumn id="6" name="bg_clr"/>
+    <tableColumn id="7" name="bg_bri"/>
+    <tableColumn id="8" name="this_rot"/>
+    <tableColumn id="9" name="this_delay"/>
+    <tableColumn id="10" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9D458CF0-3F5A-4D22-8B12-D55930DB86CB}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9" xr:uid="{5298463E-3AA9-4EA1-A1A8-6D70FE74A5EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F67FC6CB-8DBF-4465-BA42-AD505C73F052}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{E9EEDAE8-6C2F-4DD2-8B29-DA279C5517D4}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{90972017-D4D9-4C0C-93CC-208379D90717}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E94BC80A-1DB9-452A-B115-73888EECDBB1}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16" xr:uid="{A7F0A9D3-4AA5-4454-8745-04F07DEBEE4C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EE0D92E2-41DE-4CA6-A12C-445A38617C6E}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{6C8F7E97-AA74-4941-B1F3-1775980F4D71}" name="this_rot"/>
-    <tableColumn id="3" xr3:uid="{65D7CAD5-3C10-45A6-BACB-335E23739A9B}" name="this_diff"/>
-    <tableColumn id="4" xr3:uid="{9AB09C79-4F70-489D-BFB9-7ABD9849C47C}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot"/>
+    <tableColumn id="3" name="this_diff"/>
+    <tableColumn id="4" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4E2CFFC-7AB4-4994-85D9-66BCB4022AA9}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10" xr:uid="{49DD92C2-9FB6-400A-9839-6C18422FB67A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0F92215F-5CF8-4793-933D-9155E781CDFF}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{0651E5BA-3FFA-4FAE-BECD-CD23F86E1782}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{AE53262A-4AE2-4692-8B8A-39BE16063758}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{CB1B45C4-6F7B-46FA-9A9F-0106F5A39DA2}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{C7E5DBB0-277F-43C0-AE3E-6F7A4572AC0C}" name="myfade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="myfade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1BDA9CBD-BB59-4B97-B8C3-E6F103CC3C8E}" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
-  <autoFilter ref="C4:F13" xr:uid="{FB72EEAD-9245-4FBC-B1B8-6818E6342FDE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
+  <autoFilter ref="C4:F13"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{31353DDD-D1AD-4F61-90AA-BEAB5FD74A1C}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{5817BDC9-E036-4AA6-ADB5-4BDBF42A687F}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{946AE6A9-D9B5-47D6-A69F-F2D47071043D}" name="target_palette"/>
-    <tableColumn id="4" xr3:uid="{97697B75-38BE-43A5-8DCB-CB32AED61D7B}" name="this_fade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="4" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{9539C1C5-7269-4E20-B5DA-EE7CE6BAAE89}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
-  <autoFilter ref="C5:P44" xr:uid="{33006C65-6254-4C2E-BA90-A793C18B517B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
+  <autoFilter ref="C5:P44"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{D451EFD4-08DE-4D68-937A-6BDCEE1F682A}" name="mode"/>
-    <tableColumn id="3" xr3:uid="{5883A58A-20CA-4E81-9909-A6F77A954824}" name="spiral_width" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{EA20131A-2FB1-42DC-92E8-009F201A0E4C}" name="spiral_inc" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{A18CF2BF-B2C4-463D-B6BB-86282AEAFC90}" name="this_hue" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{8ED8F96E-9098-46A4-BBCF-5EE841CEC53F}" name="this_inc" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{681C7FB6-894A-4108-9431-D245BAD61DF9}" name="this_speed" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{7F663E86-311B-4734-8584-41CD18ADB568}" name="this_rot" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{AF455D61-496F-4E9A-A0C7-FEDCFFC00113}" name="all_freq" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{D6F6226B-3E30-45FE-8738-A77C384B7AF2}" name="that_speed" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{F283AB4A-2A73-41AA-9846-39CADFA4CD34}" name="Column2" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{2744D8B9-518B-47BA-BD49-B78AF6AB55C7}" name="bg_clr" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{A97EB7F3-7BB6-4B29-AB05-0DEA7C7B8FC1}" name="bg_bri" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{587FCE08-EEBE-4135-BAB3-49DAC525E1F1}" name="this_delay" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{03095349-BD0F-45EA-90E9-5472A41B7E6B}" name="target_palette" dataDxfId="22"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="3" name="spiral_width" dataDxfId="31"/>
+    <tableColumn id="6" name="spiral_inc" dataDxfId="30"/>
+    <tableColumn id="4" name="this_hue" dataDxfId="29"/>
+    <tableColumn id="8" name="this_inc" dataDxfId="28"/>
+    <tableColumn id="9" name="this_speed" dataDxfId="27"/>
+    <tableColumn id="10" name="this_rot" dataDxfId="26"/>
+    <tableColumn id="11" name="all_freq" dataDxfId="25"/>
+    <tableColumn id="14" name="that_speed" dataDxfId="24"/>
+    <tableColumn id="15" name="Column2" dataDxfId="23"/>
+    <tableColumn id="12" name="bg_clr" dataDxfId="22"/>
+    <tableColumn id="13" name="bg_bri" dataDxfId="21"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="20"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{72D6CC55-F6A5-4CD7-A311-28FADA849475}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
-  <autoFilter ref="C3:J6" xr:uid="{260AE32F-34FD-4B24-BF29-B29647C2BB4A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
+  <autoFilter ref="C3:J6"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1D496C40-9BCA-464F-A8F9-6916CF82210D}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{77C40F66-49DB-45FF-AD4C-E7CD85E57EAA}" name="twinkle_speed"/>
-    <tableColumn id="3" xr3:uid="{DC7FD8EE-C0CA-4447-B20D-8E895AF068B4}" name="twinkle_density"/>
-    <tableColumn id="4" xr3:uid="{83A19DCA-9A1F-445E-A1BA-46F7F9146026}" name="twinkle_bg"/>
-    <tableColumn id="5" xr3:uid="{C3FFAE06-2905-436D-9CD7-330975C4DD43}" name="auto_select_background_color"/>
-    <tableColumn id="7" xr3:uid="{2114B4DE-9B7F-45ED-A8BD-5767A45847E1}" name="cool_like_incandescent"/>
-    <tableColumn id="8" xr3:uid="{7C004DD7-D667-4C0C-8D70-1CF78789C974}" name="this_delay"/>
-    <tableColumn id="9" xr3:uid="{72EAC3C8-C3B7-4CDE-95D3-F29D95E77DE2}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="twinkle_speed"/>
+    <tableColumn id="3" name="twinkle_density"/>
+    <tableColumn id="4" name="twinkle_bg"/>
+    <tableColumn id="5" name="auto_select_background_color"/>
+    <tableColumn id="7" name="cool_like_incandescent"/>
+    <tableColumn id="8" name="this_delay"/>
+    <tableColumn id="9" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A15F9ED9-4F6D-4873-8CBA-8E39FAEBB2BB}" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
-  <autoFilter ref="C5:K13" xr:uid="{647C1886-CAF5-4AD0-935B-332451C9BA78}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
+  <autoFilter ref="C5:K13"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A92C0E86-03FD-40DC-91DC-DEF026246354}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{2200EF9C-1450-4853-9AE5-56B41D1F69B8}" name="mul1" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{EF161261-B5EF-4532-A702-979022B37225}" name="mul2" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{DCC1E6A5-1978-4D3D-9D67-596C69ADAEEF}" name="mul3" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{1B829B8C-B435-423A-BB43-30BD398472D2}" name="mul1r" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{5B81F7A2-5C96-4FD2-A49A-84321424C70D}" name="mul2r" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{4486FCB4-072B-4B6B-ABB3-D116B4FA0D0F}" name="mul3r" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{33F25931-6A37-470C-A20E-100ADAE31FE1}" name="this_delay" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{8A7A7265-B42D-4D3E-8DA9-BF829F5D12BF}" name="target_palette" dataDxfId="14"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="mul1" dataDxfId="18"/>
+    <tableColumn id="3" name="mul2" dataDxfId="17"/>
+    <tableColumn id="4" name="mul3" dataDxfId="16"/>
+    <tableColumn id="7" name="mul1r" dataDxfId="15"/>
+    <tableColumn id="8" name="mul2r" dataDxfId="14"/>
+    <tableColumn id="9" name="mul3r" dataDxfId="13"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="12"/>
+    <tableColumn id="6" name="target_palette" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC78E3C1-4FC4-4E23-8D44-64040CC5F23B}" name="Table3" displayName="Table3" ref="B3:F17" totalsRowShown="0">
-  <autoFilter ref="B3:F17" xr:uid="{95820931-D0F6-4D78-9E02-F4BD97F3635A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F18" totalsRowShown="0">
+  <autoFilter ref="B3:F18"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9FC814B6-A721-4E4A-BA31-EF0C16DF91EA}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{9ED44B32-8A9A-49E4-9C06-9A4EDE83FD92}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{3774D70B-2E45-4B63-8672-EE21C964434F}" name="vImpact0"/>
-    <tableColumn id="4" xr3:uid="{BD631230-0D42-48CC-871E-9B660D036B5C}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{154C240E-B34E-4491-B441-34BAEFA7DA41}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="vImpact0"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{85B6E0B0-BC6F-480A-84C1-208C1046B7C5}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
-  <autoFilter ref="C4:M19" xr:uid="{EE3E795F-5D4E-4DF2-909E-0D1BCBB1D820}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
+  <autoFilter ref="C4:M19"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{57E55E03-80DB-401D-A6F8-3837F87C4FF6}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{72139E1C-36E1-4E8D-A419-1A9D5E19B27B}" name="this_speed" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{C4CBAF6C-6A4A-4A94-BF41-A54D2049DBDD}" name="that_speed" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E728F420-E8EA-469A-9FD8-DF954D0605C4}" name="this_rot" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{DE575798-DF59-4E2B-9B0D-4DDE05C224F9}" name="that_rot" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{62BB0B40-5043-4AE5-93B2-B4BC494EB388}" name="all_freq" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{384979C4-E3C7-4861-BEE1-3E901C9B5D8C}" name="this_cutoff" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{B7CD300C-57CE-47E4-958A-D9F134C93B41}" name="that_cutoff" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{920AF0E4-3D55-4CB5-8776-852DC53901B1}" name="this_sat" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{0F87F6FA-5922-4755-ADAC-315EA1E24339}" name="this_delay" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{56537C11-EAD3-4C35-A4A6-AD8FC54CDF55}" name="target_palette" dataDxfId="4"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_speed" dataDxfId="10"/>
+    <tableColumn id="3" name="that_speed" dataDxfId="9"/>
+    <tableColumn id="4" name="this_rot" dataDxfId="8"/>
+    <tableColumn id="5" name="that_rot" dataDxfId="7"/>
+    <tableColumn id="6" name="all_freq" dataDxfId="6"/>
+    <tableColumn id="8" name="this_cutoff" dataDxfId="5"/>
+    <tableColumn id="9" name="that_cutoff" dataDxfId="4"/>
+    <tableColumn id="10" name="this_sat" dataDxfId="3"/>
+    <tableColumn id="11" name="this_delay" dataDxfId="2"/>
+    <tableColumn id="12" name="target_palette" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B0761A06-23B2-4466-8DAC-3CABC074BA5F}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24" xr:uid="{A2C28CCC-C61B-422C-9EB7-47067BD62A56}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B6C98E78-8ACF-40CA-A857-F6FC9595B8A9}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{F054775A-708C-4B3B-A107-B2DD28B33067}" name="scale"/>
-    <tableColumn id="3" xr3:uid="{539A8E0D-26E7-436F-A234-B06C48FAFA84}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{DC78370B-1081-45E1-A74B-9CCF3697955B}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{713646CA-B596-4D90-9534-961C4F779169}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="4" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E26DB97-A6FF-44D6-8A61-FBAC13D0868D}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10" xr:uid="{8ED9A975-76DD-425C-B0B5-4E8B5A7941EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{76433A04-2379-49E5-B73B-E0A6A712662D}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{F059B172-64FF-497D-AEB7-CC598D287127}" name="target_palette"/>
-    <tableColumn id="3" xr3:uid="{550D85B0-0D7F-4258-BE54-C21C9285B0D0}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="target_palette"/>
+    <tableColumn id="3" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{956A58C2-F8A4-4A23-83AF-3C5B6B93395A}" name="Table20" displayName="Table20" ref="B4:D8" totalsRowShown="0">
-  <autoFilter ref="B4:D8" xr:uid="{DEFF5426-63AC-48DE-A86C-7530CD4CEE8A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:D8" totalsRowShown="0">
+  <autoFilter ref="B4:D8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6C4D3F5B-FA58-4442-B7B7-1249ED305236}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{0C06A658-2669-441F-9A38-1C3D17EE961F}" name="this_delay "/>
-    <tableColumn id="3" xr3:uid="{971D7B97-8E63-4CCD-8025-F5035BE11C5F}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay "/>
+    <tableColumn id="3" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D08EF6F5-0D7F-41DE-A3C6-860FD8347329}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9" xr:uid="{E0508E23-037B-45E8-84B3-C521CE247F1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B2493BC1-6407-4392-B4F1-4CF798D7A35D}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{43D730D5-B0E1-46B8-8A7C-F87327241D33}" name="this_diff"/>
-    <tableColumn id="3" xr3:uid="{2E83D5D9-CCC0-4E8A-88C7-AC148F1D181C}" name="this_inc"/>
-    <tableColumn id="7" xr3:uid="{8C2CE6D4-419A-4D57-B9F2-FD6CEC1E0A72}" name="this_fade"/>
-    <tableColumn id="4" xr3:uid="{E8FAFD4E-F2B0-4571-91F8-13B7153E803D}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{5D94AFAD-0C98-498F-8723-A24255EBB4C7}" name="this_delay"/>
-    <tableColumn id="6" xr3:uid="{51CE1401-6088-40B7-9D95-98211C042094}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_diff"/>
+    <tableColumn id="3" name="this_inc"/>
+    <tableColumn id="7" name="this_fade"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="6" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{B11E490D-122C-4714-BD82-AE0F7CD4AF34}" name="Table18" displayName="Table18" ref="C4:E12" totalsRowShown="0">
-  <autoFilter ref="C4:E12" xr:uid="{E869288F-E5E0-45AB-A958-835EFA35FEE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:E12" totalsRowShown="0">
+  <autoFilter ref="C4:E12"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D573EEF7-4341-4768-87D7-F985817C49A2}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{1D3FC71E-2CA2-407C-9B78-A64789185508}" name="this_hue"/>
-    <tableColumn id="3" xr3:uid="{8E30514E-3612-4F2E-B137-15E9EDCBB767}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_hue"/>
+    <tableColumn id="3" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7960933-7632-4D6A-BD49-36E8192F0D63}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
-  <autoFilter ref="B3:H40" xr:uid="{6FB8EB4B-0181-423B-ADE4-C57A9A37A434}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
+  <autoFilter ref="B3:H40"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{67C9C81B-BA16-4AC4-9E76-52916A5FF083}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{72F093C9-FC64-4E9C-B7DC-C00C9748D387}" name="cooling"/>
-    <tableColumn id="3" xr3:uid="{FD15EF9E-AB80-49AD-967F-66EE94C824F1}" name="sparking"/>
-    <tableColumn id="4" xr3:uid="{61F21B9B-5299-45BC-8018-E1870B08DA81}" name="this_delay"/>
-    <tableColumn id="5" xr3:uid="{6769BEF6-FEE0-41E2-BD32-F48EBE5B2D0C}" name="target_palette"/>
-    <tableColumn id="6" xr3:uid="{A9CC1D04-7BC4-4155-BB40-01A3CA323DFF}" name="cooling1-4"/>
-    <tableColumn id="7" xr3:uid="{3ECFF6C1-9DDD-4E3F-8F99-305CCE3F5B46}" name="sparking1-4"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="cooling"/>
+    <tableColumn id="3" name="sparking"/>
+    <tableColumn id="4" name="this_delay"/>
+    <tableColumn id="5" name="target_palette"/>
+    <tableColumn id="6" name="cooling1-4"/>
+    <tableColumn id="7" name="sparking1-4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7DDCFB7F-C540-4DE8-A4FA-7E352A4CA74F}" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
-  <autoFilter ref="B3:N44" xr:uid="{BC983D0E-72F1-46A6-A34F-0D3115A13C31}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
+  <autoFilter ref="B3:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8A06A4F3-45AF-4652-B223-BDB11410A52A}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{D5CF372E-8371-4313-8740-2944A4CF04C2}" name="juggle_index_reset" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{4C0F5AD5-FBAA-40BC-9F56-6E1DFEA16438}" name="this_fade" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{0C1DE2B9-A77C-4E60-9D7C-DC2CE31F17A1}" name="numdots_ring" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{8AE921B7-CB65-4227-AE7E-CEF139D70EDE}" name="numdots" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{A9D85CDA-C3C6-44D3-8076-75E3B2DA3C14}" name="this_beat" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{870F8A55-34BE-4730-BC78-F6218FF582B6}" name="ringBeat" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{50949DD2-3C68-4AB3-84C4-95C3335C1C0F}" name="this_diff" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{38F98679-ED7F-424F-A584-FFFAC335C341}" name="target_palette" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{F55D081A-A571-4732-8962-5670EDC4BAE7}" name="this_delay" dataDxfId="44"/>
-    <tableColumn id="11" xr3:uid="{1B108AAB-822A-4AAB-9969-62D73DFE8D9F}" name="cooling1-4" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{CC4AAF48-640F-4A6A-9335-F7696968A79B}" name="sparking1-4" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{BB67BBB9-C1D0-44B5-9EEE-EADD648958AA}" name="jug16_phase" dataDxfId="41"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="juggle_index_reset" dataDxfId="53"/>
+    <tableColumn id="3" name="this_fade" dataDxfId="52"/>
+    <tableColumn id="4" name="numdots_ring" dataDxfId="51"/>
+    <tableColumn id="12" name="numdots" dataDxfId="50"/>
+    <tableColumn id="5" name="this_beat" dataDxfId="49"/>
+    <tableColumn id="13" name="ringBeat" dataDxfId="48"/>
+    <tableColumn id="6" name="this_diff" dataDxfId="47"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="46"/>
+    <tableColumn id="8" name="this_delay" dataDxfId="45"/>
+    <tableColumn id="11" name="cooling1-4" dataDxfId="44"/>
+    <tableColumn id="10" name="sparking1-4" dataDxfId="43"/>
+    <tableColumn id="9" name="jug16_phase" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1656,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E5B464-4504-4F4A-A97E-6EE218327A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2190,7 +2206,7 @@
         <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E24" t="s">
         <v>55</v>
@@ -2239,7 +2255,7 @@
         <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G26" s="9">
         <v>118</v>
@@ -2334,7 +2350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D523A4E0-E76E-4B95-BE78-E69C80491D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2400,7 +2416,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2411,7 +2427,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2422,7 +2438,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2455,7 +2471,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2466,7 +2482,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2477,7 +2493,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2508,7 +2524,7 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2519,7 +2535,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2548,7 +2564,7 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2559,7 +2575,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2577,11 +2593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A69EF-C943-41AA-AE07-FFE240D8DD82}">
-  <dimension ref="A3:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2591,7 +2607,7 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -2607,8 +2623,11 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>23</v>
       </c>
@@ -2622,8 +2641,9 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -2634,8 +2654,9 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>135</v>
       </c>
@@ -2643,8 +2664,9 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>135</v>
       </c>
@@ -2652,8 +2674,9 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>24</v>
       </c>
@@ -2667,10 +2690,11 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>136</v>
@@ -2679,8 +2703,9 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -2688,8 +2713,9 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>136</v>
       </c>
@@ -2697,8 +2723,9 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>136</v>
       </c>
@@ -2706,8 +2733,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>62</v>
       </c>
@@ -2723,38 +2751,42 @@
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>63</v>
       </c>
@@ -2770,36 +2802,50 @@
       <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2810,7 +2856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32EA96-C52E-46E6-B124-96CB684FD282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2950,7 +2996,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
@@ -2980,7 +3026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407065F9-00F7-4395-AC85-FCDA6551A4EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3047,7 +3093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65FB421-461D-4012-B50B-413288907109}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3092,7 +3138,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -3124,7 +3170,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -3153,17 +3199,17 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3221,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C004E-1540-442C-B2CD-1482F1940A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3260,8 +3318,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA4B77D-69E6-47AE-AC6F-92D60724A77C}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -3358,12 +3416,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81803C8-95EC-4683-B6B4-414BB6DFA3B9}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4255,8 +4313,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0F38FB-25C6-468C-9D8E-DE2A80B4B870}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4279,19 +4337,19 @@
         <v>58</v>
       </c>
       <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
         <v>189</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>190</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>191</v>
-      </c>
-      <c r="G3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" t="s">
-        <v>193</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -4316,12 +4374,12 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4332,196 +4390,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD3FC4D-8AF2-4F13-A7EC-8678F183C890}">
-  <dimension ref="B5:K13"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77779BD-95B5-4C4A-BC04-7BB2350DA5C2}">
-  <dimension ref="A2:F17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4585,6 +4459,9 @@
       <c r="B5" t="s">
         <v>107</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
@@ -4593,14 +4470,23 @@
       <c r="B6" t="s">
         <v>107</v>
       </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
       <c r="E6" t="s">
         <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>107</v>
       </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
@@ -4653,11 +4539,23 @@
       <c r="B12" t="s">
         <v>109</v>
       </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>109</v>
       </c>
+      <c r="E13">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -4674,9 +4572,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4688,7 +4591,191 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE3D99-698F-4540-9C95-5DF7F9823692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,10 +4868,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4799,7 +4886,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4814,7 +4901,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4829,7 +4916,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4877,10 +4964,10 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4895,7 +4982,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4910,7 +4997,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4925,7 +5012,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4976,7 +5063,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4991,7 +5078,7 @@
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5006,7 +5093,7 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5021,7 +5108,7 @@
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5043,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72797014-C374-49FE-BA09-69B32D5AA5A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5180,7 +5267,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5189,12 +5276,12 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -5213,17 +5300,17 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5235,7 +5322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E6FC8-33FC-4DF4-851B-F0578CC4A075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5313,7 +5400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444882A2-46BE-4444-82F9-E3B1E7616528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5331,7 +5418,7 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -5350,17 +5437,17 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5372,7 +5459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DE3B67-5FCE-4115-A448-2B026FC006FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5434,7 +5521,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -5469,7 +5556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB658F8-BD33-424D-B6CE-52BA452BDB0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5510,17 +5597,17 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -5534,17 +5621,17 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5556,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D5FB12-C8F8-489E-B459-E6836AC79FFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5892,7 +5979,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
         <v>127</v>
@@ -5917,7 +6004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298B5153-BF4C-4682-9BCF-06258537994F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -5979,7 +6066,7 @@
         <v>121</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6015,7 +6102,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
         <v>117</v>
@@ -6134,7 +6221,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
         <v>118</v>
@@ -6780,7 +6867,7 @@
         <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6797,7 +6884,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6814,7 +6901,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC402276-D147-4803-9C21-A6E0BED2FCD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27615" yWindow="3870" windowWidth="18375" windowHeight="7830" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="-36225" yWindow="4110" windowWidth="18375" windowHeight="15885" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -22,11 +23,11 @@
     <sheet name="fire" sheetId="7" r:id="rId8"/>
     <sheet name="juggle" sheetId="6" r:id="rId9"/>
     <sheet name="matrix" sheetId="17" r:id="rId10"/>
-    <sheet name="noise8" sheetId="8" r:id="rId11"/>
-    <sheet name="one_sin" sheetId="9" r:id="rId12"/>
-    <sheet name="plasma" sheetId="10" r:id="rId13"/>
-    <sheet name="rainbow_march" sheetId="11" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="21" r:id="rId15"/>
+    <sheet name="movingdot" sheetId="21" r:id="rId11"/>
+    <sheet name="noise8" sheetId="8" r:id="rId12"/>
+    <sheet name="one_sin" sheetId="9" r:id="rId13"/>
+    <sheet name="plasma" sheetId="10" r:id="rId14"/>
+    <sheet name="rainbow_march" sheetId="11" r:id="rId15"/>
     <sheet name="ripple" sheetId="12" r:id="rId16"/>
     <sheet name="serendipitous" sheetId="13" r:id="rId17"/>
     <sheet name="spiral" sheetId="14" r:id="rId18"/>
@@ -39,18 +40,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="217">
   <si>
     <t>letter</t>
   </si>
@@ -193,9 +188,6 @@
     <t>u</t>
   </si>
   <si>
-    <t>this_bright</t>
-  </si>
-  <si>
     <t>v</t>
   </si>
   <si>
@@ -541,15 +533,6 @@
     <t>mul3</t>
   </si>
   <si>
-    <t>mul123r</t>
-  </si>
-  <si>
-    <t>[0-2][0-255]</t>
-  </si>
-  <si>
-    <t>mul123</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
@@ -652,9 +635,6 @@
     <t>fade_rainbow</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>matrix_ray</t>
   </si>
   <si>
@@ -686,12 +666,42 @@
   </si>
   <si>
     <t>D2</t>
+  </si>
+  <si>
+    <t>movingdot</t>
+  </si>
+  <si>
+    <t>blue_angle</t>
+  </si>
+  <si>
+    <t>blue_low</t>
+  </si>
+  <si>
+    <t>blue_high</t>
+  </si>
+  <si>
+    <t>green_angle</t>
+  </si>
+  <si>
+    <t>green_low</t>
+  </si>
+  <si>
+    <t>green_high</t>
+  </si>
+  <si>
+    <t>red_angle</t>
+  </si>
+  <si>
+    <t>red_low</t>
+  </si>
+  <si>
+    <t>red_high</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -889,7 +899,40 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="65">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1066,311 +1109,332 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ascii "/>
-    <tableColumn id="2" name="letter"/>
-    <tableColumn id="3" name="variable"/>
-    <tableColumn id="4" name="range"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ascii "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="letter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="variable"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
-  <autoFilter ref="C4:I18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
+  <autoFilter ref="C4:I18" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot" dataDxfId="41"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="40"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="39"/>
-    <tableColumn id="5" name="bg_clr" dataDxfId="38"/>
-    <tableColumn id="6" name="bg_bri" dataDxfId="37"/>
-    <tableColumn id="7" name="this_fade" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="this_rot" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="this_delay" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="target_palette" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="bg_clr" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="bg_bri" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="this_fade" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:G20" totalsRowShown="0">
-  <autoFilter ref="B3:G20"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale" dataDxfId="35"/>
-    <tableColumn id="5" name="scale2" dataDxfId="34"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="33"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="32"/>
-    <tableColumn id="6" name="Column1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7CB80328-1019-4BD3-A3E2-F82C00C0D67D}" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
+  <autoFilter ref="B5:M11" xr:uid="{1043DD12-DC60-4826-A91B-624EE2E4AABD}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{40FE2BF6-1002-4F74-900E-52B6D9F0770D}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{90554CB9-5D07-493B-ADFF-C68636D678F0}" name="this_fade" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{DA85B59B-1E9F-4E9A-BD6B-E67C21387976}" name="this_delay" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A890E05A-E6F5-4F1D-94C3-2F4B6245D062}" name="blue_angle" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D9859800-95AE-4CAB-AFFB-1986A1C93215}" name="blue_low" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{83A21592-77A7-4226-BA18-5469CA3235BD}" name="blue_high" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{180F7B8E-35E6-480C-9EDB-F01CDC23A6F5}" name="green_angle" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B1D7A590-028F-43CF-B941-90F97FDD535A}" name="green_low" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{72756E36-653C-4D62-BD21-9DAF3BCAD1CC}" name="green_high" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{7E44ED25-019D-4EEF-A458-51627270C66C}" name="red_angle" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{0687BB42-C6CB-4C9E-9497-66B8BF6FBC45}" name="red_low" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{29C4DA03-C1FF-41DA-9B25-B19782499507}" name="red_high" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_inc"/>
-    <tableColumn id="3" name="this_speed"/>
-    <tableColumn id="4" name="all_freq"/>
-    <tableColumn id="5" name="this_cutoff"/>
-    <tableColumn id="6" name="bg_clr"/>
-    <tableColumn id="7" name="bg_bri"/>
-    <tableColumn id="8" name="this_rot"/>
-    <tableColumn id="9" name="this_delay"/>
-    <tableColumn id="10" name="target_palette"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table9" displayName="Table9" ref="B3:G20" totalsRowShown="0">
+  <autoFilter ref="B3:G20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="scale" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="scale2" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="this_delay" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="target_palette" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Column1" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="this_inc"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="this_speed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="all_freq"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="this_cutoff"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="bg_clr"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="bg_bri"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="this_rot"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="this_delay"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="target_palette"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay"/>
-    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16"/>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot"/>
-    <tableColumn id="3" name="this_diff"/>
-    <tableColumn id="4" name="this_delay"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="3" name="this_delay"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="myfade"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="this_rot"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="this_diff"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
-  <autoFilter ref="C4:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="myfade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
+  <autoFilter ref="C4:F13" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay"/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="4" name="this_fade"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="target_palette"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
-  <autoFilter ref="C5:P44"/>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
+  <autoFilter ref="C5:P44" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="3" name="spiral_width" dataDxfId="31"/>
-    <tableColumn id="6" name="spiral_inc" dataDxfId="30"/>
-    <tableColumn id="4" name="this_hue" dataDxfId="29"/>
-    <tableColumn id="8" name="this_inc" dataDxfId="28"/>
-    <tableColumn id="9" name="this_speed" dataDxfId="27"/>
-    <tableColumn id="10" name="this_rot" dataDxfId="26"/>
-    <tableColumn id="11" name="all_freq" dataDxfId="25"/>
-    <tableColumn id="14" name="that_speed" dataDxfId="24"/>
-    <tableColumn id="15" name="Column2" dataDxfId="23"/>
-    <tableColumn id="12" name="bg_clr" dataDxfId="22"/>
-    <tableColumn id="13" name="bg_bri" dataDxfId="21"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="20"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="mode"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="spiral_width" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="spiral_inc" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="this_hue" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="this_inc" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="this_speed" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="this_rot" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" name="all_freq" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1000-00000E000000}" name="that_speed" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1000-00000F000000}" name="Column2" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1000-00000C000000}" name="bg_clr" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1000-00000D000000}" name="bg_bri" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="this_delay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="target_palette" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
-  <autoFilter ref="C3:J6"/>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
+  <autoFilter ref="C3:J6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="twinkle_speed"/>
-    <tableColumn id="3" name="twinkle_density"/>
-    <tableColumn id="4" name="twinkle_bg"/>
-    <tableColumn id="5" name="auto_select_background_color"/>
-    <tableColumn id="7" name="cool_like_incandescent"/>
-    <tableColumn id="8" name="this_delay"/>
-    <tableColumn id="9" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="twinkle_speed"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="twinkle_density"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="twinkle_bg"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="auto_select_background_color"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="cool_like_incandescent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="this_delay"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
-  <autoFilter ref="C5:K13"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="mul1" dataDxfId="18"/>
-    <tableColumn id="3" name="mul2" dataDxfId="17"/>
-    <tableColumn id="4" name="mul3" dataDxfId="16"/>
-    <tableColumn id="7" name="mul1r" dataDxfId="15"/>
-    <tableColumn id="8" name="mul2r" dataDxfId="14"/>
-    <tableColumn id="9" name="mul3r" dataDxfId="13"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="12"/>
-    <tableColumn id="6" name="target_palette" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F18" totalsRowShown="0">
-  <autoFilter ref="B3:F18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B3:F18" totalsRowShown="0">
+  <autoFilter ref="B3:F18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="3" name="vImpact0"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="vImpact0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
-  <autoFilter ref="C4:M19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
+  <autoFilter ref="C5:K13" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="mul1" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="mul2" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="mul3" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="mul1r" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="mul2r" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="mul3r" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="this_delay" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="target_palette" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
+  <autoFilter ref="C4:M19" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_speed" dataDxfId="10"/>
-    <tableColumn id="3" name="that_speed" dataDxfId="9"/>
-    <tableColumn id="4" name="this_rot" dataDxfId="8"/>
-    <tableColumn id="5" name="that_rot" dataDxfId="7"/>
-    <tableColumn id="6" name="all_freq" dataDxfId="6"/>
-    <tableColumn id="8" name="this_cutoff" dataDxfId="5"/>
-    <tableColumn id="9" name="that_cutoff" dataDxfId="4"/>
-    <tableColumn id="10" name="this_sat" dataDxfId="3"/>
-    <tableColumn id="11" name="this_delay" dataDxfId="2"/>
-    <tableColumn id="12" name="target_palette" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="this_speed" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="that_speed" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="this_rot" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="that_rot" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="all_freq" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="this_cutoff" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="that_cutoff" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="this_sat" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="this_delay" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="target_palette" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale"/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="4" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="scale"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="target_palette"/>
-    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="target_palette"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:D8" totalsRowShown="0">
-  <autoFilter ref="B4:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table20" displayName="Table20" ref="B4:D8" totalsRowShown="0">
+  <autoFilter ref="B4:D8" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay "/>
-    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="this_delay "/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_diff"/>
-    <tableColumn id="3" name="this_inc"/>
-    <tableColumn id="7" name="this_fade"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="6" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="this_diff"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="this_inc"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="this_fade"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="this_delay"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:E12" totalsRowShown="0">
-  <autoFilter ref="C4:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table18" displayName="Table18" ref="C4:E12" totalsRowShown="0">
+  <autoFilter ref="C4:E12" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_hue"/>
-    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="this_hue"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
-  <autoFilter ref="B3:H40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
+  <autoFilter ref="B3:H40" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="cooling"/>
-    <tableColumn id="3" name="sparking"/>
-    <tableColumn id="4" name="this_delay"/>
-    <tableColumn id="5" name="target_palette"/>
-    <tableColumn id="6" name="cooling1-4"/>
-    <tableColumn id="7" name="sparking1-4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="cooling"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="sparking"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="this_delay"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="target_palette"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="cooling1-4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="sparking1-4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
-  <autoFilter ref="B3:N44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
+  <autoFilter ref="B3:N44" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="juggle_index_reset" dataDxfId="53"/>
-    <tableColumn id="3" name="this_fade" dataDxfId="52"/>
-    <tableColumn id="4" name="numdots_ring" dataDxfId="51"/>
-    <tableColumn id="12" name="numdots" dataDxfId="50"/>
-    <tableColumn id="5" name="this_beat" dataDxfId="49"/>
-    <tableColumn id="13" name="ringBeat" dataDxfId="48"/>
-    <tableColumn id="6" name="this_diff" dataDxfId="47"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="46"/>
-    <tableColumn id="8" name="this_delay" dataDxfId="45"/>
-    <tableColumn id="11" name="cooling1-4" dataDxfId="44"/>
-    <tableColumn id="10" name="sparking1-4" dataDxfId="43"/>
-    <tableColumn id="9" name="jug16_phase" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="juggle_index_reset" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="this_fade" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numdots_ring" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="numdots" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="this_beat" dataDxfId="60"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="ringBeat" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="this_diff" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="target_palette" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="this_delay" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="cooling1-4" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="sparking1-4" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="jug16_phase" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1672,14 +1736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B4:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,10 +1789,10 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1740,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>7</v>
@@ -1751,10 +1815,10 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1777,25 +1841,25 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="6">
         <v>99</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1803,13 +1867,13 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="G8" s="9">
         <v>100</v>
@@ -1829,13 +1893,13 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6">
         <v>101</v>
@@ -1851,7 +1915,13 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
       <c r="G10" s="9">
         <v>102</v>
@@ -1871,10 +1941,10 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
         <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -1897,10 +1967,10 @@
         <v>72</v>
       </c>
       <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
         <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -1923,13 +1993,13 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
         <v>94</v>
       </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="6">
         <v>105</v>
@@ -1949,10 +2019,10 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1975,10 +2045,10 @@
         <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -2001,10 +2071,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -2027,10 +2097,10 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
       </c>
       <c r="G17" s="6">
         <v>109</v>
@@ -2050,13 +2120,13 @@
         <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="9">
         <v>110</v>
@@ -2065,7 +2135,7 @@
         <v>32</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>7</v>
@@ -2076,10 +2146,10 @@
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -2102,10 +2172,10 @@
         <v>80</v>
       </c>
       <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
         <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
       </c>
       <c r="G20" s="9">
         <v>112</v>
@@ -2125,13 +2195,13 @@
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
         <v>129</v>
-      </c>
-      <c r="E21" t="s">
-        <v>130</v>
       </c>
       <c r="G21" s="6">
         <v>113</v>
@@ -2151,10 +2221,10 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -2177,13 +2247,13 @@
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="6">
         <v>115</v>
@@ -2203,13 +2273,13 @@
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="9">
         <v>116</v>
@@ -2229,7 +2299,13 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
       </c>
       <c r="G25" s="6">
         <v>117</v>
@@ -2238,7 +2314,7 @@
         <v>46</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>7</v>
@@ -2249,22 +2325,22 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="G26" s="9">
         <v>118</v>
       </c>
       <c r="H26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>7</v>
@@ -2275,16 +2351,22 @@
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
       </c>
       <c r="G27" s="6">
         <v>119</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J27" s="8"/>
     </row>
@@ -2293,13 +2375,19 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
       </c>
       <c r="G28" s="9">
         <v>120</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>33</v>
@@ -2313,32 +2401,52 @@
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
       </c>
       <c r="G29" s="6">
         <v>121</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
       </c>
       <c r="G30" s="12">
         <v>122</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2350,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B4:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2367,7 +2475,7 @@
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -2379,10 +2487,10 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
         <v>35</v>
@@ -2402,10 +2510,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>34</v>
@@ -2416,7 +2524,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2427,7 +2535,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2438,7 +2546,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2471,7 +2579,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2482,7 +2590,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2493,7 +2601,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2524,7 +2632,7 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2535,7 +2643,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2564,7 +2672,7 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2575,7 +2683,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2593,7 +2701,180 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A5:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" t="s">
+        <v>215</v>
+      </c>
+      <c r="M5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2609,13 +2890,13 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -2624,7 +2905,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2632,7 +2913,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -2648,7 +2929,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2658,7 +2939,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2668,7 +2949,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2682,7 +2963,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -2694,10 +2975,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2707,7 +2988,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2717,7 +2998,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2727,7 +3008,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2740,10 +3021,10 @@
         <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -2758,7 +3039,7 @@
         <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2768,7 +3049,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2778,7 +3059,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2791,10 +3072,10 @@
         <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -2809,7 +3090,7 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -2824,12 +3105,12 @@
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2839,7 +3120,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2855,8 +3136,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B4:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2877,7 +3158,7 @@
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -2892,10 +3173,10 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -2918,16 +3199,16 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
@@ -2944,22 +3225,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -2973,16 +3254,16 @@
         <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
@@ -2996,25 +3277,25 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3025,8 +3306,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3041,7 +3322,7 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -3066,22 +3347,22 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3092,8 +3373,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3110,7 +3391,7 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -3138,20 +3419,20 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -3170,20 +3451,20 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -3199,17 +3480,17 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3220,20 +3501,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3250,7 +3519,7 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3262,7 +3531,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -3279,7 +3548,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -3287,27 +3556,27 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3319,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -3336,7 +3605,7 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -3367,22 +3636,22 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -3390,22 +3659,22 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +3686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B5:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3442,13 +3711,13 @@
   <sheetData>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3466,16 +3735,16 @@
         <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O5" t="s">
         <v>11</v>
@@ -3489,10 +3758,10 @@
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
@@ -3515,7 +3784,7 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3533,7 +3802,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3551,7 +3820,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3569,7 +3838,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3590,10 +3859,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
@@ -3612,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -3621,7 +3890,7 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3639,7 +3908,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3657,7 +3926,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3690,7 +3959,7 @@
         <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3700,7 +3969,7 @@
         <v>10</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -3708,7 +3977,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3726,7 +3995,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3744,7 +4013,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3762,7 +4031,7 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3795,7 +4064,7 @@
         <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3805,7 +4074,7 @@
         <v>10</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -3813,7 +4082,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3831,7 +4100,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3849,7 +4118,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3882,7 +4151,7 @@
         <v>28</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3892,7 +4161,7 @@
         <v>10</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -3900,7 +4169,7 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3918,7 +4187,7 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3936,7 +4205,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3954,7 +4223,7 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3987,23 +4256,23 @@
         <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -4011,7 +4280,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4029,7 +4298,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4047,7 +4316,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4082,7 +4351,7 @@
         <v>10</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -4090,7 +4359,7 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4108,7 +4377,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4126,7 +4395,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4161,7 +4430,7 @@
         <v>10</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -4169,7 +4438,7 @@
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4187,7 +4456,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4205,7 +4474,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4244,7 +4513,7 @@
         <v>10</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -4252,7 +4521,7 @@
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4270,7 +4539,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4288,7 +4557,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4314,7 +4583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4334,22 +4603,22 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" t="s">
         <v>187</v>
-      </c>
-      <c r="E3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" t="s">
-        <v>191</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -4374,12 +4643,12 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4391,7 +4660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4412,7 +4681,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -4420,13 +4689,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -4443,7 +4712,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -4457,7 +4726,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4468,7 +4737,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -4477,12 +4746,12 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -4493,7 +4762,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -4501,7 +4770,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -4509,7 +4778,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -4520,10 +4789,10 @@
         <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -4537,7 +4806,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -4551,7 +4820,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>44</v>
@@ -4559,27 +4828,27 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4591,10 +4860,10 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B5:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -4608,25 +4877,25 @@
   <sheetData>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
         <v>160</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>161</v>
       </c>
-      <c r="F5" t="s">
-        <v>162</v>
-      </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -4640,13 +4909,13 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4663,7 +4932,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4676,7 +4945,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4689,7 +4958,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4708,13 +4977,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>10</v>
@@ -4725,10 +4994,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4741,7 +5010,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4754,7 +5023,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4775,7 +5044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4800,19 +5069,19 @@
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -4821,7 +5090,7 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K4" t="s">
         <v>43</v>
@@ -4841,22 +5110,22 @@
         <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>42</v>
@@ -4868,10 +5137,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4886,7 +5155,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4901,7 +5170,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4916,7 +5185,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4937,22 +5206,22 @@
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>42</v>
@@ -4964,10 +5233,10 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4982,7 +5251,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4997,7 +5266,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5012,7 +5281,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5033,22 +5302,22 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
@@ -5063,7 +5332,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5078,7 +5347,7 @@
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5093,7 +5362,7 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5108,7 +5377,7 @@
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5130,7 +5399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5147,10 +5416,10 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -5159,7 +5428,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5167,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -5181,33 +5450,33 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5215,7 +5484,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -5227,27 +5496,27 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -5267,7 +5536,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5276,12 +5545,12 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -5300,17 +5569,17 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5322,7 +5591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5338,7 +5607,7 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -5363,32 +5632,32 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5400,7 +5669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5415,10 +5684,10 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -5437,17 +5706,17 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5459,7 +5728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5478,7 +5747,7 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -5496,7 +5765,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5521,30 +5790,30 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5556,7 +5825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5572,7 +5841,7 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -5597,17 +5866,17 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -5621,17 +5890,17 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5643,7 +5912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5664,13 +5933,13 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -5679,10 +5948,10 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
         <v>120</v>
-      </c>
-      <c r="H3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5690,10 +5959,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -5705,22 +5974,22 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5728,10 +5997,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -5745,17 +6014,17 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5763,10 +6032,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -5778,17 +6047,17 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5796,10 +6065,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -5813,17 +6082,17 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5835,10 +6104,10 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5846,17 +6115,17 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5870,10 +6139,10 @@
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5881,17 +6150,17 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5903,10 +6172,10 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5914,17 +6183,17 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5938,10 +6207,10 @@
         <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5949,17 +6218,17 @@
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5971,28 +6240,28 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6004,7 +6273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:N44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -6030,7 +6299,7 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -6042,13 +6311,13 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>41</v>
@@ -6060,13 +6329,13 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" t="s">
         <v>120</v>
       </c>
-      <c r="M3" t="s">
-        <v>121</v>
-      </c>
       <c r="N3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6102,10 +6371,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6122,7 +6391,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6139,7 +6408,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6156,7 +6425,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -6173,7 +6442,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6221,10 +6490,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6241,7 +6510,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -6258,7 +6527,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -6275,7 +6544,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -6292,7 +6561,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -6335,10 +6604,10 @@
         <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -6347,7 +6616,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -6364,7 +6633,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -6381,7 +6650,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -6398,7 +6667,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -6425,11 +6694,11 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>38</v>
@@ -6449,7 +6718,7 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -6466,7 +6735,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -6483,7 +6752,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -6500,7 +6769,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -6527,11 +6796,11 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>38</v>
@@ -6551,7 +6820,7 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -6568,7 +6837,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -6585,7 +6854,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -6602,7 +6871,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -6629,11 +6898,11 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>38</v>
@@ -6645,10 +6914,10 @@
         <v>10</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="N31" s="1"/>
     </row>
@@ -6657,7 +6926,7 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -6674,7 +6943,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6691,7 +6960,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -6708,7 +6977,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -6735,11 +7004,11 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>38</v>
@@ -6751,10 +7020,10 @@
         <v>10</v>
       </c>
       <c r="L36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="N36" s="1"/>
     </row>
@@ -6763,7 +7032,7 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -6780,7 +7049,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -6797,7 +7066,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -6814,7 +7083,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -6841,7 +7110,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>37</v>
@@ -6859,7 +7128,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -6867,7 +7136,7 @@
         <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6884,7 +7153,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6901,7 +7170,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC402276-D147-4803-9C21-A6E0BED2FCD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36225" yWindow="4110" windowWidth="18375" windowHeight="15885" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36225" yWindow="4110" windowWidth="18375" windowHeight="15885" tabRatio="765" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -701,7 +700,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1109,332 +1108,332 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ascii "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="letter"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="variable"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="range"/>
+    <tableColumn id="1" name="ascii "/>
+    <tableColumn id="2" name="letter"/>
+    <tableColumn id="3" name="variable"/>
+    <tableColumn id="4" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
-  <autoFilter ref="C4:I18" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
+  <autoFilter ref="C4:I18"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="this_rot" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="this_delay" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="target_palette" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="bg_clr" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="bg_bri" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="this_fade" dataDxfId="47"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot" dataDxfId="52"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="51"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="50"/>
+    <tableColumn id="5" name="bg_clr" dataDxfId="49"/>
+    <tableColumn id="6" name="bg_bri" dataDxfId="48"/>
+    <tableColumn id="7" name="this_fade" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7CB80328-1019-4BD3-A3E2-F82C00C0D67D}" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
-  <autoFilter ref="B5:M11" xr:uid="{1043DD12-DC60-4826-A91B-624EE2E4AABD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
+  <autoFilter ref="B5:M11"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{40FE2BF6-1002-4F74-900E-52B6D9F0770D}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{90554CB9-5D07-493B-ADFF-C68636D678F0}" name="this_fade" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{DA85B59B-1E9F-4E9A-BD6B-E67C21387976}" name="this_delay" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A890E05A-E6F5-4F1D-94C3-2F4B6245D062}" name="blue_angle" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D9859800-95AE-4CAB-AFFB-1986A1C93215}" name="blue_low" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{83A21592-77A7-4226-BA18-5469CA3235BD}" name="blue_high" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{180F7B8E-35E6-480C-9EDB-F01CDC23A6F5}" name="green_angle" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B1D7A590-028F-43CF-B941-90F97FDD535A}" name="green_low" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{72756E36-653C-4D62-BD21-9DAF3BCAD1CC}" name="green_high" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{7E44ED25-019D-4EEF-A458-51627270C66C}" name="red_angle" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{0687BB42-C6CB-4C9E-9497-66B8BF6FBC45}" name="red_low" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{29C4DA03-C1FF-41DA-9B25-B19782499507}" name="red_high" dataDxfId="0"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade" dataDxfId="46"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="45"/>
+    <tableColumn id="4" name="blue_angle" dataDxfId="44"/>
+    <tableColumn id="5" name="blue_low" dataDxfId="43"/>
+    <tableColumn id="6" name="blue_high" dataDxfId="42"/>
+    <tableColumn id="7" name="green_angle" dataDxfId="41"/>
+    <tableColumn id="8" name="green_low" dataDxfId="40"/>
+    <tableColumn id="9" name="green_high" dataDxfId="39"/>
+    <tableColumn id="10" name="red_angle" dataDxfId="38"/>
+    <tableColumn id="11" name="red_low" dataDxfId="37"/>
+    <tableColumn id="12" name="red_high" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table9" displayName="Table9" ref="B3:G20" totalsRowShown="0">
-  <autoFilter ref="B3:G20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:G20" totalsRowShown="0">
+  <autoFilter ref="B3:G20"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="scale" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="scale2" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="this_delay" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="target_palette" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Column1" dataDxfId="42"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale" dataDxfId="35"/>
+    <tableColumn id="5" name="scale2" dataDxfId="34"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="33"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="32"/>
+    <tableColumn id="6" name="Column1" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="this_speed"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="all_freq"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="this_cutoff"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="bg_clr"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="bg_bri"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="this_rot"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="this_delay"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_inc"/>
+    <tableColumn id="3" name="this_speed"/>
+    <tableColumn id="4" name="all_freq"/>
+    <tableColumn id="5" name="this_cutoff"/>
+    <tableColumn id="6" name="bg_clr"/>
+    <tableColumn id="7" name="bg_bri"/>
+    <tableColumn id="8" name="this_rot"/>
+    <tableColumn id="9" name="this_delay"/>
+    <tableColumn id="10" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="this_rot"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="this_diff"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot"/>
+    <tableColumn id="3" name="this_diff"/>
+    <tableColumn id="4" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="myfade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="myfade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
-  <autoFilter ref="C4:F13" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
+  <autoFilter ref="C4:F13"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="target_palette"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="this_fade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="4" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
-  <autoFilter ref="C5:P44" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
+  <autoFilter ref="C5:P44"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="mode"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="spiral_width" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="spiral_inc" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="this_hue" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="this_inc" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="this_speed" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="this_rot" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" name="all_freq" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1000-00000E000000}" name="that_speed" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1000-00000F000000}" name="Column2" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1000-00000C000000}" name="bg_clr" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1000-00000D000000}" name="bg_bri" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="this_delay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="target_palette" dataDxfId="29"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="3" name="spiral_width" dataDxfId="30"/>
+    <tableColumn id="6" name="spiral_inc" dataDxfId="29"/>
+    <tableColumn id="4" name="this_hue" dataDxfId="28"/>
+    <tableColumn id="8" name="this_inc" dataDxfId="27"/>
+    <tableColumn id="9" name="this_speed" dataDxfId="26"/>
+    <tableColumn id="10" name="this_rot" dataDxfId="25"/>
+    <tableColumn id="11" name="all_freq" dataDxfId="24"/>
+    <tableColumn id="14" name="that_speed" dataDxfId="23"/>
+    <tableColumn id="15" name="Column2" dataDxfId="22"/>
+    <tableColumn id="12" name="bg_clr" dataDxfId="21"/>
+    <tableColumn id="13" name="bg_bri" dataDxfId="20"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="19"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
-  <autoFilter ref="C3:J6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
+  <autoFilter ref="C3:J6"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="twinkle_speed"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="twinkle_density"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="twinkle_bg"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="auto_select_background_color"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="cool_like_incandescent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="this_delay"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="twinkle_speed"/>
+    <tableColumn id="3" name="twinkle_density"/>
+    <tableColumn id="4" name="twinkle_bg"/>
+    <tableColumn id="5" name="auto_select_background_color"/>
+    <tableColumn id="7" name="cool_like_incandescent"/>
+    <tableColumn id="8" name="this_delay"/>
+    <tableColumn id="9" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B3:F18" totalsRowShown="0">
-  <autoFilter ref="B3:F18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F18" totalsRowShown="0">
+  <autoFilter ref="B3:F18"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="vImpact0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="vImpact0"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
-  <autoFilter ref="C5:K13" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
+  <autoFilter ref="C5:K13"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="mul1" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="mul2" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="mul3" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="mul1r" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="mul2r" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="mul3r" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="this_delay" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="target_palette" dataDxfId="21"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="mul1" dataDxfId="17"/>
+    <tableColumn id="3" name="mul2" dataDxfId="16"/>
+    <tableColumn id="4" name="mul3" dataDxfId="15"/>
+    <tableColumn id="7" name="mul1r" dataDxfId="14"/>
+    <tableColumn id="8" name="mul2r" dataDxfId="13"/>
+    <tableColumn id="9" name="mul3r" dataDxfId="12"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="11"/>
+    <tableColumn id="6" name="target_palette" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
-  <autoFilter ref="C4:M19" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
+  <autoFilter ref="C4:M19"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="this_speed" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="that_speed" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="this_rot" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="that_rot" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="all_freq" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="this_cutoff" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="that_cutoff" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="this_sat" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="this_delay" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="target_palette" dataDxfId="11"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_speed" dataDxfId="9"/>
+    <tableColumn id="3" name="that_speed" dataDxfId="8"/>
+    <tableColumn id="4" name="this_rot" dataDxfId="7"/>
+    <tableColumn id="5" name="that_rot" dataDxfId="6"/>
+    <tableColumn id="6" name="all_freq" dataDxfId="5"/>
+    <tableColumn id="8" name="this_cutoff" dataDxfId="4"/>
+    <tableColumn id="9" name="that_cutoff" dataDxfId="3"/>
+    <tableColumn id="10" name="this_sat" dataDxfId="2"/>
+    <tableColumn id="11" name="this_delay" dataDxfId="1"/>
+    <tableColumn id="12" name="target_palette" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="scale"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="4" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="target_palette"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="target_palette"/>
+    <tableColumn id="3" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table20" displayName="Table20" ref="B4:D8" totalsRowShown="0">
-  <autoFilter ref="B4:D8" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:D8" totalsRowShown="0">
+  <autoFilter ref="B4:D8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="this_delay "/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay "/>
+    <tableColumn id="3" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="this_diff"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="this_inc"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="this_fade"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="this_delay"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_diff"/>
+    <tableColumn id="3" name="this_inc"/>
+    <tableColumn id="7" name="this_fade"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="6" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table18" displayName="Table18" ref="C4:E12" totalsRowShown="0">
-  <autoFilter ref="C4:E12" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:E12" totalsRowShown="0">
+  <autoFilter ref="C4:E12"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="this_hue"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_hue"/>
+    <tableColumn id="3" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
-  <autoFilter ref="B3:H40" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
+  <autoFilter ref="B3:H40"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="cooling"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="sparking"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="this_delay"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="target_palette"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="cooling1-4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="sparking1-4"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="cooling"/>
+    <tableColumn id="3" name="sparking"/>
+    <tableColumn id="4" name="this_delay"/>
+    <tableColumn id="5" name="target_palette"/>
+    <tableColumn id="6" name="cooling1-4"/>
+    <tableColumn id="7" name="sparking1-4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
-  <autoFilter ref="B3:N44" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
+  <autoFilter ref="B3:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="juggle_index_reset" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="this_fade" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numdots_ring" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="numdots" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="this_beat" dataDxfId="60"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="ringBeat" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="this_diff" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="target_palette" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="this_delay" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="cooling1-4" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="sparking1-4" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="jug16_phase" dataDxfId="53"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="juggle_index_reset" dataDxfId="64"/>
+    <tableColumn id="3" name="this_fade" dataDxfId="63"/>
+    <tableColumn id="4" name="numdots_ring" dataDxfId="62"/>
+    <tableColumn id="12" name="numdots" dataDxfId="61"/>
+    <tableColumn id="5" name="this_beat" dataDxfId="60"/>
+    <tableColumn id="13" name="ringBeat" dataDxfId="59"/>
+    <tableColumn id="6" name="this_diff" dataDxfId="58"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="57"/>
+    <tableColumn id="8" name="this_delay" dataDxfId="56"/>
+    <tableColumn id="11" name="cooling1-4" dataDxfId="55"/>
+    <tableColumn id="10" name="sparking1-4" dataDxfId="54"/>
+    <tableColumn id="9" name="jug16_phase" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1736,13 +1735,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B4:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -2458,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2701,7 +2700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2874,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3137,7 +3136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3307,7 +3306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3374,7 +3373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3502,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3588,7 +3587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -3686,10 +3685,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4583,7 +4582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4660,7 +4659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4860,7 +4859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5044,7 +5043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5399,7 +5398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5591,7 +5590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5669,7 +5668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5728,7 +5727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5825,7 +5824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5912,7 +5911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6273,7 +6272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922DADE6-FBC0-44EF-930B-01A63E2E0212}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36225" yWindow="4110" windowWidth="18375" windowHeight="15885" tabRatio="765" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="-36225" yWindow="4110" windowWidth="18375" windowHeight="15885" tabRatio="765" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="217">
   <si>
     <t>letter</t>
   </si>
@@ -700,7 +701,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1108,332 +1109,333 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ascii "/>
-    <tableColumn id="2" name="letter"/>
-    <tableColumn id="3" name="variable"/>
-    <tableColumn id="4" name="range"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ascii "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="letter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="variable"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
-  <autoFilter ref="C4:I18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
+  <autoFilter ref="C4:I18" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot" dataDxfId="52"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="51"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="50"/>
-    <tableColumn id="5" name="bg_clr" dataDxfId="49"/>
-    <tableColumn id="6" name="bg_bri" dataDxfId="48"/>
-    <tableColumn id="7" name="this_fade" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="this_rot" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="this_delay" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="target_palette" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="bg_clr" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="bg_bri" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="this_fade" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
-  <autoFilter ref="B5:M11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
+  <autoFilter ref="B5:M11" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade" dataDxfId="46"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="45"/>
-    <tableColumn id="4" name="blue_angle" dataDxfId="44"/>
-    <tableColumn id="5" name="blue_low" dataDxfId="43"/>
-    <tableColumn id="6" name="blue_high" dataDxfId="42"/>
-    <tableColumn id="7" name="green_angle" dataDxfId="41"/>
-    <tableColumn id="8" name="green_low" dataDxfId="40"/>
-    <tableColumn id="9" name="green_high" dataDxfId="39"/>
-    <tableColumn id="10" name="red_angle" dataDxfId="38"/>
-    <tableColumn id="11" name="red_low" dataDxfId="37"/>
-    <tableColumn id="12" name="red_high" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="this_fade" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="this_delay" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="blue_angle" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="blue_low" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="blue_high" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="green_angle" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="green_low" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="green_high" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="red_angle" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="red_low" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="red_high" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:G20" totalsRowShown="0">
-  <autoFilter ref="B3:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table9" displayName="Table9" ref="B3:G20" totalsRowShown="0">
+  <autoFilter ref="B3:G20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale" dataDxfId="35"/>
-    <tableColumn id="5" name="scale2" dataDxfId="34"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="33"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="32"/>
-    <tableColumn id="6" name="Column1" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="scale" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="scale2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="this_delay" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="target_palette" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Column1" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_inc"/>
-    <tableColumn id="3" name="this_speed"/>
-    <tableColumn id="4" name="all_freq"/>
-    <tableColumn id="5" name="this_cutoff"/>
-    <tableColumn id="6" name="bg_clr"/>
-    <tableColumn id="7" name="bg_bri"/>
-    <tableColumn id="8" name="this_rot"/>
-    <tableColumn id="9" name="this_delay"/>
-    <tableColumn id="10" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="this_inc"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="this_speed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="all_freq"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="this_cutoff"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="bg_clr"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="bg_bri"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="this_rot"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="this_delay"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay"/>
-    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot"/>
-    <tableColumn id="3" name="this_diff"/>
-    <tableColumn id="4" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="this_rot"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="this_diff"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="3" name="this_delay"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="myfade"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="myfade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
-  <autoFilter ref="C4:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
+  <autoFilter ref="C4:F13" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay"/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="4" name="this_fade"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="target_palette"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
-  <autoFilter ref="C5:P44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
+  <autoFilter ref="C5:P44" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="3" name="spiral_width" dataDxfId="30"/>
-    <tableColumn id="6" name="spiral_inc" dataDxfId="29"/>
-    <tableColumn id="4" name="this_hue" dataDxfId="28"/>
-    <tableColumn id="8" name="this_inc" dataDxfId="27"/>
-    <tableColumn id="9" name="this_speed" dataDxfId="26"/>
-    <tableColumn id="10" name="this_rot" dataDxfId="25"/>
-    <tableColumn id="11" name="all_freq" dataDxfId="24"/>
-    <tableColumn id="14" name="that_speed" dataDxfId="23"/>
-    <tableColumn id="15" name="Column2" dataDxfId="22"/>
-    <tableColumn id="12" name="bg_clr" dataDxfId="21"/>
-    <tableColumn id="13" name="bg_bri" dataDxfId="20"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="19"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="mode"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="spiral_width" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="spiral_inc" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="this_hue" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="this_inc" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="this_speed" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1100-00000A000000}" name="this_rot" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1100-00000B000000}" name="all_freq" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1100-00000E000000}" name="that_speed" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1100-00000F000000}" name="Column2" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1100-00000C000000}" name="bg_clr" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1100-00000D000000}" name="bg_bri" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="this_delay" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="target_palette" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
-  <autoFilter ref="C3:J6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
+  <autoFilter ref="C3:J6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="twinkle_speed"/>
-    <tableColumn id="3" name="twinkle_density"/>
-    <tableColumn id="4" name="twinkle_bg"/>
-    <tableColumn id="5" name="auto_select_background_color"/>
-    <tableColumn id="7" name="cool_like_incandescent"/>
-    <tableColumn id="8" name="this_delay"/>
-    <tableColumn id="9" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="twinkle_speed"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="twinkle_density"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="twinkle_bg"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="auto_select_background_color"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="cool_like_incandescent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="this_delay"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F18" totalsRowShown="0">
-  <autoFilter ref="B3:F18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B3:F18" totalsRowShown="0">
+  <autoFilter ref="B3:F18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="3" name="vImpact0"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="vImpact0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
-  <autoFilter ref="C5:K13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
+  <autoFilter ref="C5:K13" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="mul1" dataDxfId="17"/>
-    <tableColumn id="3" name="mul2" dataDxfId="16"/>
-    <tableColumn id="4" name="mul3" dataDxfId="15"/>
-    <tableColumn id="7" name="mul1r" dataDxfId="14"/>
-    <tableColumn id="8" name="mul2r" dataDxfId="13"/>
-    <tableColumn id="9" name="mul3r" dataDxfId="12"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="11"/>
-    <tableColumn id="6" name="target_palette" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="mul1" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="mul2" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="mul3" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="mul1r" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="mul2r" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="mul3r" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="this_delay" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="target_palette" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
-  <autoFilter ref="C4:M19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
+  <autoFilter ref="C4:M19" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_speed" dataDxfId="9"/>
-    <tableColumn id="3" name="that_speed" dataDxfId="8"/>
-    <tableColumn id="4" name="this_rot" dataDxfId="7"/>
-    <tableColumn id="5" name="that_rot" dataDxfId="6"/>
-    <tableColumn id="6" name="all_freq" dataDxfId="5"/>
-    <tableColumn id="8" name="this_cutoff" dataDxfId="4"/>
-    <tableColumn id="9" name="that_cutoff" dataDxfId="3"/>
-    <tableColumn id="10" name="this_sat" dataDxfId="2"/>
-    <tableColumn id="11" name="this_delay" dataDxfId="1"/>
-    <tableColumn id="12" name="target_palette" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="this_speed" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="that_speed" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="this_rot" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="that_rot" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="all_freq" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="this_cutoff" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" name="that_cutoff" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" name="this_sat" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1400-00000B000000}" name="this_delay" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1400-00000C000000}" name="target_palette" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale"/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="4" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="scale"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="target_palette"/>
-    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="target_palette"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:D8" totalsRowShown="0">
-  <autoFilter ref="B4:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table20" displayName="Table20" ref="B4:D8" totalsRowShown="0">
+  <autoFilter ref="B4:D8" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay "/>
-    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="this_delay "/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_diff"/>
-    <tableColumn id="3" name="this_inc"/>
-    <tableColumn id="7" name="this_fade"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="6" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="this_diff"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="this_inc"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="this_fade"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="this_delay"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:E12" totalsRowShown="0">
-  <autoFilter ref="C4:E12"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_hue"/>
-    <tableColumn id="3" name="this_delay"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table18" displayName="Table18" ref="C4:F12" totalsRowShown="0">
+  <autoFilter ref="C4:F12" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="this_hue"/>
+    <tableColumn id="4" xr3:uid="{1F4030B0-4E77-42E1-820F-52EF3FB3AFD7}" name="this_inc"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
-  <autoFilter ref="B3:H40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
+  <autoFilter ref="B3:H40" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="cooling"/>
-    <tableColumn id="3" name="sparking"/>
-    <tableColumn id="4" name="this_delay"/>
-    <tableColumn id="5" name="target_palette"/>
-    <tableColumn id="6" name="cooling1-4"/>
-    <tableColumn id="7" name="sparking1-4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="cooling"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="sparking"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="this_delay"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="target_palette"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="cooling1-4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="sparking1-4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
-  <autoFilter ref="B3:N44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
+  <autoFilter ref="B3:N44" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="juggle_index_reset" dataDxfId="64"/>
-    <tableColumn id="3" name="this_fade" dataDxfId="63"/>
-    <tableColumn id="4" name="numdots_ring" dataDxfId="62"/>
-    <tableColumn id="12" name="numdots" dataDxfId="61"/>
-    <tableColumn id="5" name="this_beat" dataDxfId="60"/>
-    <tableColumn id="13" name="ringBeat" dataDxfId="59"/>
-    <tableColumn id="6" name="this_diff" dataDxfId="58"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="57"/>
-    <tableColumn id="8" name="this_delay" dataDxfId="56"/>
-    <tableColumn id="11" name="cooling1-4" dataDxfId="55"/>
-    <tableColumn id="10" name="sparking1-4" dataDxfId="54"/>
-    <tableColumn id="9" name="jug16_phase" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="juggle_index_reset" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="this_fade" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numdots_ring" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="numdots" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="this_beat" dataDxfId="60"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="ringBeat" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="this_diff" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="target_palette" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="this_delay" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="cooling1-4" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="sparking1-4" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="jug16_phase" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1735,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2457,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B4:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2700,7 +2702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A5:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2873,7 +2875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3136,7 +3138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B4:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3306,7 +3308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3373,7 +3375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3501,7 +3503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -3685,10 +3687,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B5:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4582,7 +4584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4659,7 +4661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4859,7 +4861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B5:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5043,7 +5045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,7 +5400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5590,7 +5592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5668,7 +5670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5727,7 +5729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5824,21 +5826,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B4:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -5846,21 +5849,25 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>73</v>
       </c>
@@ -5868,36 +5875,42 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>59</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>74</v>
+      </c>
       <c r="C10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>195</v>
       </c>
@@ -5911,7 +5924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6272,7 +6285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:N44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922DADE6-FBC0-44EF-930B-01A63E2E0212}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36225" yWindow="4110" windowWidth="18375" windowHeight="15885" tabRatio="765" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36228" yWindow="4116" windowWidth="18372" windowHeight="15888" tabRatio="765" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="222">
   <si>
     <t>letter</t>
   </si>
@@ -696,12 +695,27 @@
   </si>
   <si>
     <t>red_high</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>change to this_inc</t>
+  </si>
+  <si>
+    <t>doesn't work</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -899,7 +913,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="66">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1109,333 +1126,336 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ascii "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="letter"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="variable"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="range"/>
+    <tableColumn id="1" name="ascii "/>
+    <tableColumn id="2" name="letter"/>
+    <tableColumn id="3" name="variable"/>
+    <tableColumn id="4" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
-  <autoFilter ref="C4:I18" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
+  <autoFilter ref="C4:I18"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="this_rot" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="this_delay" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="target_palette" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="bg_clr" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="bg_bri" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="this_fade" dataDxfId="47"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot" dataDxfId="53"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="52"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="51"/>
+    <tableColumn id="5" name="bg_clr" dataDxfId="50"/>
+    <tableColumn id="6" name="bg_bri" dataDxfId="49"/>
+    <tableColumn id="7" name="this_fade" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
-  <autoFilter ref="B5:M11" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
+  <autoFilter ref="B5:M11"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="this_fade" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="this_delay" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="blue_angle" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="blue_low" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="blue_high" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="green_angle" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="green_low" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="green_high" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="red_angle" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="red_low" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="red_high" dataDxfId="36"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade" dataDxfId="47"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="46"/>
+    <tableColumn id="4" name="blue_angle" dataDxfId="45"/>
+    <tableColumn id="5" name="blue_low" dataDxfId="44"/>
+    <tableColumn id="6" name="blue_high" dataDxfId="43"/>
+    <tableColumn id="7" name="green_angle" dataDxfId="42"/>
+    <tableColumn id="8" name="green_low" dataDxfId="41"/>
+    <tableColumn id="9" name="green_high" dataDxfId="40"/>
+    <tableColumn id="10" name="red_angle" dataDxfId="39"/>
+    <tableColumn id="11" name="red_low" dataDxfId="38"/>
+    <tableColumn id="12" name="red_high" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table9" displayName="Table9" ref="B3:G20" totalsRowShown="0">
-  <autoFilter ref="B3:G20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="scale" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="scale2" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="this_delay" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="target_palette" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Column1" dataDxfId="31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:H20" totalsRowShown="0">
+  <autoFilter ref="B3:H20"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale" dataDxfId="36"/>
+    <tableColumn id="5" name="scale2" dataDxfId="35"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="34"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="33"/>
+    <tableColumn id="6" name="Column1" dataDxfId="32"/>
+    <tableColumn id="7" name="b" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="this_speed"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="all_freq"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="this_cutoff"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="bg_clr"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="bg_bri"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="this_rot"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="this_delay"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_inc"/>
+    <tableColumn id="3" name="this_speed"/>
+    <tableColumn id="4" name="all_freq"/>
+    <tableColumn id="5" name="this_cutoff"/>
+    <tableColumn id="6" name="bg_clr"/>
+    <tableColumn id="7" name="bg_bri"/>
+    <tableColumn id="8" name="this_rot"/>
+    <tableColumn id="9" name="this_delay"/>
+    <tableColumn id="10" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="this_rot"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="this_diff"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot"/>
+    <tableColumn id="3" name="this_diff"/>
+    <tableColumn id="4" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="myfade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="myfade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
-  <autoFilter ref="C4:F13" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
+  <autoFilter ref="C4:F13"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="target_palette"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="this_fade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="4" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
-  <autoFilter ref="C5:P44" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
+  <autoFilter ref="C5:P44"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="mode"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="spiral_width" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="spiral_inc" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="this_hue" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="this_inc" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="this_speed" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1100-00000A000000}" name="this_rot" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1100-00000B000000}" name="all_freq" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1100-00000E000000}" name="that_speed" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1100-00000F000000}" name="Column2" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1100-00000C000000}" name="bg_clr" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1100-00000D000000}" name="bg_bri" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="this_delay" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="target_palette" dataDxfId="18"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="3" name="spiral_width" dataDxfId="31"/>
+    <tableColumn id="6" name="spiral_inc" dataDxfId="30"/>
+    <tableColumn id="4" name="this_hue" dataDxfId="29"/>
+    <tableColumn id="8" name="this_inc" dataDxfId="28"/>
+    <tableColumn id="9" name="this_speed" dataDxfId="27"/>
+    <tableColumn id="10" name="this_rot" dataDxfId="26"/>
+    <tableColumn id="11" name="all_freq" dataDxfId="25"/>
+    <tableColumn id="14" name="that_speed" dataDxfId="24"/>
+    <tableColumn id="15" name="Column2" dataDxfId="23"/>
+    <tableColumn id="12" name="bg_clr" dataDxfId="22"/>
+    <tableColumn id="13" name="bg_bri" dataDxfId="21"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="20"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
-  <autoFilter ref="C3:J6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
+  <autoFilter ref="C3:J6"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="twinkle_speed"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="twinkle_density"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="twinkle_bg"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="auto_select_background_color"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="cool_like_incandescent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="this_delay"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="twinkle_speed"/>
+    <tableColumn id="3" name="twinkle_density"/>
+    <tableColumn id="4" name="twinkle_bg"/>
+    <tableColumn id="5" name="auto_select_background_color"/>
+    <tableColumn id="7" name="cool_like_incandescent"/>
+    <tableColumn id="8" name="this_delay"/>
+    <tableColumn id="9" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B3:F18" totalsRowShown="0">
-  <autoFilter ref="B3:F18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="vImpact0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="this_delay"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:G15" totalsRowShown="0">
+  <autoFilter ref="B3:G15"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="vImpact0"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="6" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
-  <autoFilter ref="C5:K13" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
+  <autoFilter ref="C5:K13"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="mul1" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="mul2" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="mul3" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="mul1r" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="mul2r" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="mul3r" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="this_delay" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="target_palette" dataDxfId="10"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="mul1" dataDxfId="18"/>
+    <tableColumn id="3" name="mul2" dataDxfId="17"/>
+    <tableColumn id="4" name="mul3" dataDxfId="16"/>
+    <tableColumn id="7" name="mul1r" dataDxfId="15"/>
+    <tableColumn id="8" name="mul2r" dataDxfId="14"/>
+    <tableColumn id="9" name="mul3r" dataDxfId="13"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="12"/>
+    <tableColumn id="6" name="target_palette" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
-  <autoFilter ref="C4:M19" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
+  <autoFilter ref="C4:M19"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="this_speed" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="that_speed" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="this_rot" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="that_rot" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="all_freq" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="this_cutoff" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" name="that_cutoff" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" name="this_sat" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1400-00000B000000}" name="this_delay" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1400-00000C000000}" name="target_palette" dataDxfId="0"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_speed" dataDxfId="10"/>
+    <tableColumn id="3" name="that_speed" dataDxfId="9"/>
+    <tableColumn id="4" name="this_rot" dataDxfId="8"/>
+    <tableColumn id="5" name="that_rot" dataDxfId="7"/>
+    <tableColumn id="6" name="all_freq" dataDxfId="6"/>
+    <tableColumn id="8" name="this_cutoff" dataDxfId="5"/>
+    <tableColumn id="9" name="that_cutoff" dataDxfId="4"/>
+    <tableColumn id="10" name="this_sat" dataDxfId="3"/>
+    <tableColumn id="11" name="this_delay" dataDxfId="2"/>
+    <tableColumn id="12" name="target_palette" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="scale"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="4" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="target_palette"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="target_palette"/>
+    <tableColumn id="3" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table20" displayName="Table20" ref="B4:D8" totalsRowShown="0">
-  <autoFilter ref="B4:D8" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="this_delay "/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="target_palette"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
+  <autoFilter ref="B4:E8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay "/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="4" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="this_diff"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="this_inc"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="this_fade"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="this_delay"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_diff"/>
+    <tableColumn id="3" name="this_inc"/>
+    <tableColumn id="7" name="this_fade"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="6" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table18" displayName="Table18" ref="C4:F12" totalsRowShown="0">
-  <autoFilter ref="C4:F12" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:F12" totalsRowShown="0">
+  <autoFilter ref="C4:F12"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="this_hue"/>
-    <tableColumn id="4" xr3:uid="{1F4030B0-4E77-42E1-820F-52EF3FB3AFD7}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_hue"/>
+    <tableColumn id="4" name="this_inc"/>
+    <tableColumn id="3" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
-  <autoFilter ref="B3:H40" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
+  <autoFilter ref="B3:H40"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="cooling"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="sparking"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="this_delay"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="target_palette"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="cooling1-4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="sparking1-4"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="cooling"/>
+    <tableColumn id="3" name="sparking"/>
+    <tableColumn id="4" name="this_delay"/>
+    <tableColumn id="5" name="target_palette"/>
+    <tableColumn id="6" name="cooling1-4"/>
+    <tableColumn id="7" name="sparking1-4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
-  <autoFilter ref="B3:N44" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
+  <autoFilter ref="B3:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="juggle_index_reset" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="this_fade" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numdots_ring" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="numdots" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="this_beat" dataDxfId="60"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="ringBeat" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="this_diff" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="target_palette" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="this_delay" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="cooling1-4" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="sparking1-4" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="jug16_phase" dataDxfId="53"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="juggle_index_reset" dataDxfId="65"/>
+    <tableColumn id="3" name="this_fade" dataDxfId="64"/>
+    <tableColumn id="4" name="numdots_ring" dataDxfId="63"/>
+    <tableColumn id="12" name="numdots" dataDxfId="62"/>
+    <tableColumn id="5" name="this_beat" dataDxfId="61"/>
+    <tableColumn id="13" name="ringBeat" dataDxfId="60"/>
+    <tableColumn id="6" name="this_diff" dataDxfId="59"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="58"/>
+    <tableColumn id="8" name="this_delay" dataDxfId="57"/>
+    <tableColumn id="11" name="cooling1-4" dataDxfId="56"/>
+    <tableColumn id="10" name="sparking1-4" dataDxfId="55"/>
+    <tableColumn id="9" name="jug16_phase" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1737,7 +1757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1747,19 +1767,19 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1785,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>65</v>
       </c>
@@ -1811,7 +1831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>66</v>
       </c>
@@ -1837,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>67</v>
       </c>
@@ -1863,7 +1883,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>68</v>
       </c>
@@ -1889,7 +1909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>69</v>
       </c>
@@ -1911,7 +1931,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>70</v>
       </c>
@@ -1937,7 +1957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>71</v>
       </c>
@@ -1963,7 +1983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>72</v>
       </c>
@@ -1989,7 +2009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>73</v>
       </c>
@@ -2015,7 +2035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>74</v>
       </c>
@@ -2041,7 +2061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>75</v>
       </c>
@@ -2067,7 +2087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>76</v>
       </c>
@@ -2093,7 +2113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>77</v>
       </c>
@@ -2116,7 +2136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>78</v>
       </c>
@@ -2142,7 +2162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>79</v>
       </c>
@@ -2168,7 +2188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>80</v>
       </c>
@@ -2191,7 +2211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>81</v>
       </c>
@@ -2217,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>82</v>
       </c>
@@ -2243,7 +2263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>83</v>
       </c>
@@ -2269,7 +2289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>84</v>
       </c>
@@ -2295,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>85</v>
       </c>
@@ -2321,7 +2341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>86</v>
       </c>
@@ -2347,7 +2367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>87</v>
       </c>
@@ -2371,7 +2391,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>88</v>
       </c>
@@ -2397,7 +2417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>89</v>
       </c>
@@ -2423,7 +2443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>90</v>
       </c>
@@ -2459,22 +2479,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2497,7 +2517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>21</v>
       </c>
@@ -2520,7 +2540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>31</v>
       </c>
@@ -2534,7 +2554,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>178</v>
       </c>
@@ -2545,7 +2565,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>178</v>
       </c>
@@ -2556,7 +2576,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>22</v>
       </c>
@@ -2575,7 +2595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>55</v>
       </c>
@@ -2583,13 +2603,21 @@
         <v>179</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>179</v>
       </c>
@@ -2600,7 +2628,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>179</v>
       </c>
@@ -2611,7 +2639,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>54</v>
       </c>
@@ -2628,7 +2656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>48</v>
       </c>
@@ -2642,7 +2670,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>180</v>
       </c>
@@ -2653,7 +2681,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>60</v>
       </c>
@@ -2668,7 +2696,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>75</v>
       </c>
@@ -2682,7 +2710,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>196</v>
       </c>
@@ -2702,30 +2730,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -2763,7 +2791,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>64</v>
       </c>
@@ -2795,7 +2823,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>79</v>
       </c>
@@ -2814,7 +2842,10 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2827,7 +2858,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2840,7 +2871,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2853,7 +2884,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2875,21 +2906,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A3:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -2908,8 +2939,11 @@
       <c r="G3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>23</v>
       </c>
@@ -2924,21 +2958,33 @@
         <v>14</v>
       </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>32</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>29</v>
+      </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>134</v>
       </c>
@@ -2947,8 +2993,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -2957,8 +3004,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>24</v>
       </c>
@@ -2973,8 +3021,9 @@
         <v>14</v>
       </c>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -2982,32 +3031,55 @@
         <v>135</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>80</v>
+      </c>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>65</v>
+      </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>135</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>58</v>
+      </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>135</v>
       </c>
@@ -3016,8 +3088,9 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>62</v>
       </c>
@@ -3034,8 +3107,9 @@
         <v>14</v>
       </c>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>77</v>
       </c>
@@ -3047,8 +3121,9 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>198</v>
       </c>
@@ -3057,8 +3132,9 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>198</v>
       </c>
@@ -3067,8 +3143,9 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>63</v>
       </c>
@@ -3085,8 +3162,9 @@
         <v>14</v>
       </c>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>78</v>
       </c>
@@ -3108,8 +3186,9 @@
       <c r="G18" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>199</v>
       </c>
@@ -3118,8 +3197,9 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>199</v>
       </c>
@@ -3128,6 +3208,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3138,26 +3219,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3189,7 +3270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>25</v>
       </c>
@@ -3221,30 +3302,48 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>180</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>26</v>
       </c>
@@ -3276,7 +3375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>172</v>
       </c>
@@ -3284,17 +3383,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>137</v>
       </c>
@@ -3308,20 +3407,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3332,7 +3431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>28</v>
       </c>
@@ -3343,7 +3442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>49</v>
       </c>
@@ -3351,17 +3450,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>59</v>
       </c>
@@ -3375,22 +3474,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3404,7 +3503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>30</v>
       </c>
@@ -3418,7 +3517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>175</v>
       </c>
@@ -3426,17 +3525,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>31</v>
       </c>
@@ -3450,7 +3549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>176</v>
       </c>
@@ -3458,17 +3557,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>29</v>
       </c>
@@ -3476,7 +3575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>26</v>
       </c>
@@ -3484,12 +3583,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>177</v>
       </c>
@@ -3503,22 +3602,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3535,7 +3634,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>32</v>
       </c>
@@ -3552,7 +3651,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>30</v>
       </c>
@@ -3560,22 +3659,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>139</v>
       </c>
@@ -3589,22 +3688,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3618,7 +3717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>33</v>
       </c>
@@ -3632,7 +3731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>17</v>
       </c>
@@ -3640,22 +3739,22 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>54</v>
       </c>
@@ -3663,17 +3762,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>142</v>
       </c>
@@ -3687,30 +3786,30 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>57</v>
       </c>
@@ -3754,7 +3853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>35</v>
       </c>
@@ -3780,7 +3879,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>57</v>
       </c>
@@ -3801,7 +3900,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -3819,7 +3918,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>144</v>
       </c>
@@ -3837,7 +3936,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>144</v>
       </c>
@@ -3855,7 +3954,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>36</v>
       </c>
@@ -3886,7 +3985,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>58</v>
       </c>
@@ -3907,7 +4006,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>146</v>
       </c>
@@ -3925,7 +4024,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>146</v>
       </c>
@@ -3943,7 +4042,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>37</v>
       </c>
@@ -3973,7 +4072,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>36</v>
       </c>
@@ -3994,7 +4093,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>148</v>
       </c>
@@ -4012,7 +4111,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>148</v>
       </c>
@@ -4030,7 +4129,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>148</v>
       </c>
@@ -4048,7 +4147,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>38</v>
       </c>
@@ -4078,7 +4177,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>59</v>
       </c>
@@ -4099,7 +4198,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>149</v>
       </c>
@@ -4117,7 +4216,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>149</v>
       </c>
@@ -4135,7 +4234,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>39</v>
       </c>
@@ -4165,7 +4264,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>37</v>
       </c>
@@ -4186,7 +4285,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -4204,7 +4303,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>150</v>
       </c>
@@ -4222,7 +4321,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>150</v>
       </c>
@@ -4240,7 +4339,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>40</v>
       </c>
@@ -4276,7 +4375,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>60</v>
       </c>
@@ -4297,7 +4396,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>151</v>
       </c>
@@ -4315,7 +4414,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>151</v>
       </c>
@@ -4333,7 +4432,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>41</v>
       </c>
@@ -4355,7 +4454,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>61</v>
       </c>
@@ -4376,7 +4475,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>156</v>
       </c>
@@ -4394,7 +4493,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>156</v>
       </c>
@@ -4412,7 +4511,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>42</v>
       </c>
@@ -4434,7 +4533,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>62</v>
       </c>
@@ -4455,7 +4554,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>157</v>
       </c>
@@ -4473,7 +4572,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -4491,7 +4590,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>43</v>
       </c>
@@ -4517,7 +4616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>63</v>
       </c>
@@ -4538,7 +4637,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>158</v>
       </c>
@@ -4556,7 +4655,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>158</v>
       </c>
@@ -4584,25 +4683,25 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>57</v>
       </c>
@@ -4628,7 +4727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>47</v>
       </c>
@@ -4639,7 +4738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>38</v>
       </c>
@@ -4647,7 +4746,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>188</v>
       </c>
@@ -4661,23 +4760,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>34</v>
       </c>
@@ -4688,7 +4787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -4704,8 +4803,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>52</v>
       </c>
@@ -4722,7 +4824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>46</v>
       </c>
@@ -4735,8 +4837,11 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>106</v>
       </c>
@@ -4750,105 +4855,87 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>106</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>53</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>108</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>57</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>108</v>
       </c>
-      <c r="E13">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4861,22 +4948,22 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>57</v>
       </c>
@@ -4905,7 +4992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>45</v>
       </c>
@@ -4928,7 +5015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>53</v>
       </c>
@@ -4944,7 +5031,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>164</v>
       </c>
@@ -4957,7 +5044,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>164</v>
       </c>
@@ -4970,7 +5057,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>46</v>
       </c>
@@ -4993,7 +5080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>171</v>
       </c>
@@ -5009,7 +5096,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>165</v>
       </c>
@@ -5022,7 +5109,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>165</v>
       </c>
@@ -5045,30 +5132,30 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -5103,7 +5190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>48</v>
       </c>
@@ -5136,7 +5223,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -5154,7 +5241,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>166</v>
       </c>
@@ -5169,7 +5256,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>166</v>
       </c>
@@ -5184,7 +5271,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>166</v>
       </c>
@@ -5199,7 +5286,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>49</v>
       </c>
@@ -5232,7 +5319,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>169</v>
       </c>
@@ -5250,7 +5337,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>167</v>
       </c>
@@ -5265,7 +5352,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>167</v>
       </c>
@@ -5280,7 +5367,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>167</v>
       </c>
@@ -5295,7 +5382,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>50</v>
       </c>
@@ -5328,7 +5415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>52</v>
       </c>
@@ -5346,7 +5433,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>168</v>
       </c>
@@ -5361,7 +5448,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>168</v>
       </c>
@@ -5376,7 +5463,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>168</v>
       </c>
@@ -5400,22 +5487,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -5432,7 +5519,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -5446,7 +5533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19</v>
       </c>
@@ -5457,7 +5544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>110</v>
       </c>
@@ -5465,22 +5552,22 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -5492,7 +5579,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>23</v>
       </c>
@@ -5500,27 +5587,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>55</v>
       </c>
@@ -5535,7 +5622,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>190</v>
       </c>
@@ -5544,17 +5631,17 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>56</v>
       </c>
@@ -5568,17 +5655,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>191</v>
       </c>
@@ -5592,21 +5679,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -5617,7 +5704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>51</v>
       </c>
@@ -5628,7 +5715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>45</v>
       </c>
@@ -5636,27 +5723,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -5670,20 +5757,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B4:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -5693,8 +5780,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>57</v>
       </c>
@@ -5704,18 +5794,24 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>72</v>
+      </c>
       <c r="B6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>193</v>
       </c>
@@ -5729,24 +5825,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -5769,7 +5865,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -5789,7 +5885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -5797,22 +5893,22 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>115</v>
       </c>
@@ -5826,22 +5922,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -5855,7 +5951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>58</v>
       </c>
@@ -5867,7 +5963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>73</v>
       </c>
@@ -5875,17 +5971,17 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>59</v>
       </c>
@@ -5897,7 +5993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>74</v>
       </c>
@@ -5905,12 +6001,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>195</v>
       </c>
@@ -5924,26 +6020,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -5966,7 +6062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>4</v>
       </c>
@@ -5981,7 +6077,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>64</v>
       </c>
@@ -5989,22 +6085,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -6021,7 +6117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>65</v>
       </c>
@@ -6029,17 +6125,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -6054,7 +6150,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>66</v>
       </c>
@@ -6062,17 +6158,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>7</v>
       </c>
@@ -6089,7 +6185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>67</v>
       </c>
@@ -6097,17 +6193,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>8</v>
       </c>
@@ -6122,7 +6218,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>39</v>
       </c>
@@ -6130,17 +6226,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>9</v>
       </c>
@@ -6157,7 +6253,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>68</v>
       </c>
@@ -6165,17 +6261,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>10</v>
       </c>
@@ -6190,7 +6286,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>40</v>
       </c>
@@ -6198,17 +6294,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>11</v>
       </c>
@@ -6225,7 +6321,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>69</v>
       </c>
@@ -6233,17 +6329,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>12</v>
       </c>
@@ -6258,7 +6354,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -6266,12 +6362,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>126</v>
       </c>
@@ -6285,31 +6381,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A4" zoomScale="77" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="15"/>
+    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -6350,7 +6446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>14</v>
       </c>
@@ -6381,7 +6477,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>181</v>
       </c>
@@ -6401,7 +6497,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>116</v>
       </c>
@@ -6418,7 +6514,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>116</v>
       </c>
@@ -6435,7 +6531,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>116</v>
       </c>
@@ -6452,7 +6548,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>116</v>
       </c>
@@ -6469,7 +6565,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>15</v>
       </c>
@@ -6500,7 +6596,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>182</v>
       </c>
@@ -6520,7 +6616,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>117</v>
       </c>
@@ -6537,7 +6633,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>117</v>
       </c>
@@ -6554,7 +6650,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>117</v>
       </c>
@@ -6571,7 +6667,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>117</v>
       </c>
@@ -6588,7 +6684,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>16</v>
       </c>
@@ -6623,7 +6719,7 @@
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>41</v>
       </c>
@@ -6643,7 +6739,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -6660,7 +6756,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>67</v>
       </c>
@@ -6677,7 +6773,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>67</v>
       </c>
@@ -6694,7 +6790,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -6725,7 +6821,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>56</v>
       </c>
@@ -6745,7 +6841,10 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="B23" t="s">
         <v>127</v>
       </c>
@@ -6762,7 +6861,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>127</v>
       </c>
@@ -6779,7 +6878,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>127</v>
       </c>
@@ -6796,7 +6895,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>18</v>
       </c>
@@ -6827,15 +6926,19 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -6847,7 +6950,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>131</v>
       </c>
@@ -6864,7 +6967,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>131</v>
       </c>
@@ -6881,7 +6984,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -6898,7 +7001,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>19</v>
       </c>
@@ -6933,7 +7036,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>42</v>
       </c>
@@ -6953,7 +7056,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>132</v>
       </c>
@@ -6970,7 +7073,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>132</v>
       </c>
@@ -6987,7 +7090,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>132</v>
       </c>
@@ -7004,7 +7107,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>20</v>
       </c>
@@ -7039,7 +7142,7 @@
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>44</v>
       </c>
@@ -7059,7 +7162,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>133</v>
       </c>
@@ -7076,7 +7179,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>133</v>
       </c>
@@ -7093,7 +7196,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>133</v>
       </c>
@@ -7110,7 +7213,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>61</v>
       </c>
@@ -7143,7 +7246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>76</v>
       </c>
@@ -7163,7 +7266,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>197</v>
       </c>
@@ -7180,7 +7283,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>197</v>
       </c>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EECBEC-A331-4D5A-A5A8-3AFEAFB64A3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36228" yWindow="4116" windowWidth="18372" windowHeight="15888" tabRatio="765" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="5475" windowWidth="18375" windowHeight="9675" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="216">
   <si>
     <t>letter</t>
   </si>
@@ -298,21 +299,12 @@
     <t>S</t>
   </si>
   <si>
-    <t>mul1r</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>mul2r</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>mul3r</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -502,9 +494,6 @@
     <t>helix_spiral</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
     <t>that_speed</t>
   </si>
   <si>
@@ -532,12 +521,6 @@
     <t>mul3</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
     <t>three_sin_pal</t>
   </si>
   <si>
@@ -661,12 +644,6 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>movingdot</t>
   </si>
   <si>
@@ -710,12 +687,18 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>no good</t>
+  </si>
+  <si>
+    <t>get variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,7 +722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,6 +745,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -888,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,20 +898,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1126,336 +1110,334 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ascii "/>
-    <tableColumn id="2" name="letter"/>
-    <tableColumn id="3" name="variable"/>
-    <tableColumn id="4" name="range"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ascii "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="letter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="variable"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
-  <autoFilter ref="C4:I18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
+  <autoFilter ref="C4:I18" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot" dataDxfId="53"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="52"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="51"/>
-    <tableColumn id="5" name="bg_clr" dataDxfId="50"/>
-    <tableColumn id="6" name="bg_bri" dataDxfId="49"/>
-    <tableColumn id="7" name="this_fade" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="this_rot" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="this_delay" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="target_palette" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="bg_clr" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="bg_bri" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="this_fade" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
-  <autoFilter ref="B5:M11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
+  <autoFilter ref="B5:M11" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade" dataDxfId="47"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="46"/>
-    <tableColumn id="4" name="blue_angle" dataDxfId="45"/>
-    <tableColumn id="5" name="blue_low" dataDxfId="44"/>
-    <tableColumn id="6" name="blue_high" dataDxfId="43"/>
-    <tableColumn id="7" name="green_angle" dataDxfId="42"/>
-    <tableColumn id="8" name="green_low" dataDxfId="41"/>
-    <tableColumn id="9" name="green_high" dataDxfId="40"/>
-    <tableColumn id="10" name="red_angle" dataDxfId="39"/>
-    <tableColumn id="11" name="red_low" dataDxfId="38"/>
-    <tableColumn id="12" name="red_high" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="this_fade" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="this_delay" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="blue_angle" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="blue_low" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="blue_high" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="green_angle" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="green_low" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="green_high" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="red_angle" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="red_low" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="red_high" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:H20" totalsRowShown="0">
-  <autoFilter ref="B3:H20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table9" displayName="Table9" ref="B3:H20" totalsRowShown="0">
+  <autoFilter ref="B3:H20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale" dataDxfId="36"/>
-    <tableColumn id="5" name="scale2" dataDxfId="35"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="34"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="33"/>
-    <tableColumn id="6" name="Column1" dataDxfId="32"/>
-    <tableColumn id="7" name="b" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="scale" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="scale2" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="this_delay" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="target_palette" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Column1" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="b" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_inc"/>
-    <tableColumn id="3" name="this_speed"/>
-    <tableColumn id="4" name="all_freq"/>
-    <tableColumn id="5" name="this_cutoff"/>
-    <tableColumn id="6" name="bg_clr"/>
-    <tableColumn id="7" name="bg_bri"/>
-    <tableColumn id="8" name="this_rot"/>
-    <tableColumn id="9" name="this_delay"/>
-    <tableColumn id="10" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="this_inc"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="this_speed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="all_freq"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="this_cutoff"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="bg_clr"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="bg_bri"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="this_rot"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="this_delay"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay"/>
-    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot"/>
-    <tableColumn id="3" name="this_diff"/>
-    <tableColumn id="4" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="this_rot"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="this_diff"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="3" name="this_delay"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="myfade"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="myfade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F13" totalsRowShown="0">
-  <autoFilter ref="C4:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
+  <autoFilter ref="C4:F14" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay"/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="4" name="this_fade"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="target_palette"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
-  <autoFilter ref="C5:P44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
+  <autoFilter ref="C5:P44" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="3" name="spiral_width" dataDxfId="31"/>
-    <tableColumn id="6" name="spiral_inc" dataDxfId="30"/>
-    <tableColumn id="4" name="this_hue" dataDxfId="29"/>
-    <tableColumn id="8" name="this_inc" dataDxfId="28"/>
-    <tableColumn id="9" name="this_speed" dataDxfId="27"/>
-    <tableColumn id="10" name="this_rot" dataDxfId="26"/>
-    <tableColumn id="11" name="all_freq" dataDxfId="25"/>
-    <tableColumn id="14" name="that_speed" dataDxfId="24"/>
-    <tableColumn id="15" name="Column2" dataDxfId="23"/>
-    <tableColumn id="12" name="bg_clr" dataDxfId="22"/>
-    <tableColumn id="13" name="bg_bri" dataDxfId="21"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="20"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="mode"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="spiral_width" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="spiral_inc" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="this_hue" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="this_inc" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="this_speed" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1100-00000A000000}" name="this_rot" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1100-00000B000000}" name="all_freq" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{224737A4-F2E0-4741-A037-78BAF37DC825}" name="this_cutoff" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1100-00000E000000}" name="that_speed" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1100-00000C000000}" name="bg_clr" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1100-00000D000000}" name="bg_bri" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="this_delay" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="target_palette" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
-  <autoFilter ref="C3:J6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
+  <autoFilter ref="C3:J6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="twinkle_speed"/>
-    <tableColumn id="3" name="twinkle_density"/>
-    <tableColumn id="4" name="twinkle_bg"/>
-    <tableColumn id="5" name="auto_select_background_color"/>
-    <tableColumn id="7" name="cool_like_incandescent"/>
-    <tableColumn id="8" name="this_delay"/>
-    <tableColumn id="9" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="twinkle_speed"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="twinkle_density"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="twinkle_bg"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="auto_select_background_color"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="cool_like_incandescent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="this_delay"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:G15" totalsRowShown="0">
-  <autoFilter ref="B3:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B3:G15" totalsRowShown="0">
+  <autoFilter ref="B3:G15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="3" name="vImpact0"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="6" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="vImpact0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="this_delay"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:K13" totalsRowShown="0">
-  <autoFilter ref="C5:K13"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="mul1" dataDxfId="18"/>
-    <tableColumn id="3" name="mul2" dataDxfId="17"/>
-    <tableColumn id="4" name="mul3" dataDxfId="16"/>
-    <tableColumn id="7" name="mul1r" dataDxfId="15"/>
-    <tableColumn id="8" name="mul2r" dataDxfId="14"/>
-    <tableColumn id="9" name="mul3r" dataDxfId="13"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="12"/>
-    <tableColumn id="6" name="target_palette" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table15" displayName="Table15" ref="C5:H13" totalsRowShown="0">
+  <autoFilter ref="C5:H13" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="mul1" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="mul2" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="mul3" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="this_delay" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="target_palette" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
-  <autoFilter ref="C4:M19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
+  <autoFilter ref="C4:M19" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_speed" dataDxfId="10"/>
-    <tableColumn id="3" name="that_speed" dataDxfId="9"/>
-    <tableColumn id="4" name="this_rot" dataDxfId="8"/>
-    <tableColumn id="5" name="that_rot" dataDxfId="7"/>
-    <tableColumn id="6" name="all_freq" dataDxfId="6"/>
-    <tableColumn id="8" name="this_cutoff" dataDxfId="5"/>
-    <tableColumn id="9" name="that_cutoff" dataDxfId="4"/>
-    <tableColumn id="10" name="this_sat" dataDxfId="3"/>
-    <tableColumn id="11" name="this_delay" dataDxfId="2"/>
-    <tableColumn id="12" name="target_palette" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="this_speed" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="that_speed" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="this_rot" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="that_rot" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="all_freq" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="this_cutoff" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" name="that_cutoff" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" name="this_sat" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1400-00000B000000}" name="this_delay" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1400-00000C000000}" name="target_palette" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale"/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="4" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="scale"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="target_palette"/>
-    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="target_palette"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
-  <autoFilter ref="B4:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
+  <autoFilter ref="B4:E8" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay "/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="4" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="this_delay "/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="target_palette"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_diff"/>
-    <tableColumn id="3" name="this_inc"/>
-    <tableColumn id="7" name="this_fade"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="6" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="this_diff"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="this_inc"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="this_fade"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="this_delay"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:F12" totalsRowShown="0">
-  <autoFilter ref="C4:F12"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_hue"/>
-    <tableColumn id="4" name="this_inc"/>
-    <tableColumn id="3" name="this_delay"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
+  <autoFilter ref="C4:G12" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="this_hue"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="this_inc"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="this_delay"/>
+    <tableColumn id="5" xr3:uid="{3CD86568-346E-42F4-8A83-60AE3B2E2A56}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
-  <autoFilter ref="B3:H40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
+  <autoFilter ref="B3:H40" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="cooling"/>
-    <tableColumn id="3" name="sparking"/>
-    <tableColumn id="4" name="this_delay"/>
-    <tableColumn id="5" name="target_palette"/>
-    <tableColumn id="6" name="cooling1-4"/>
-    <tableColumn id="7" name="sparking1-4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="cooling"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="sparking"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="this_delay"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="target_palette"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="cooling1-4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="sparking1-4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
-  <autoFilter ref="B3:N44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
+  <autoFilter ref="B3:N44" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="juggle_index_reset" dataDxfId="65"/>
-    <tableColumn id="3" name="this_fade" dataDxfId="64"/>
-    <tableColumn id="4" name="numdots_ring" dataDxfId="63"/>
-    <tableColumn id="12" name="numdots" dataDxfId="62"/>
-    <tableColumn id="5" name="this_beat" dataDxfId="61"/>
-    <tableColumn id="13" name="ringBeat" dataDxfId="60"/>
-    <tableColumn id="6" name="this_diff" dataDxfId="59"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="58"/>
-    <tableColumn id="8" name="this_delay" dataDxfId="57"/>
-    <tableColumn id="11" name="cooling1-4" dataDxfId="56"/>
-    <tableColumn id="10" name="sparking1-4" dataDxfId="55"/>
-    <tableColumn id="9" name="jug16_phase" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="juggle_index_reset" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="this_fade" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numdots_ring" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="numdots" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="this_beat" dataDxfId="58"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="ringBeat" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="this_diff" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="target_palette" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="this_delay" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="cooling1-4" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="sparking1-4" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="jug16_phase" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1757,29 +1739,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B4:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1805,15 +1787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1831,7 +1813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>66</v>
       </c>
@@ -1839,7 +1821,7 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1857,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>67</v>
       </c>
@@ -1868,7 +1850,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G7" s="6">
         <v>99</v>
@@ -1883,7 +1865,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>68</v>
       </c>
@@ -1891,7 +1873,7 @@
         <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -1909,15 +1891,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1931,15 +1913,15 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1957,15 +1939,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -1983,15 +1965,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -2009,15 +1991,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
         <v>54</v>
@@ -2035,7 +2017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>74</v>
       </c>
@@ -2043,7 +2025,7 @@
         <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -2061,7 +2043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>75</v>
       </c>
@@ -2069,7 +2051,7 @@
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -2087,7 +2069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>76</v>
       </c>
@@ -2095,7 +2077,7 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -2113,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>77</v>
       </c>
@@ -2136,15 +2118,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
@@ -2162,15 +2144,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -2188,7 +2170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>80</v>
       </c>
@@ -2211,18 +2193,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G21" s="6">
         <v>113</v>
@@ -2237,12 +2219,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
@@ -2263,7 +2245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>83</v>
       </c>
@@ -2274,7 +2256,7 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G23" s="6">
         <v>115</v>
@@ -2289,15 +2271,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
         <v>54</v>
@@ -2315,18 +2297,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="G25" s="6">
         <v>117</v>
@@ -2335,24 +2311,16 @@
         <v>46</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="G26" s="9">
         <v>118</v>
@@ -2367,18 +2335,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="G27" s="6">
         <v>119</v>
@@ -2391,18 +2353,12 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="G28" s="9">
         <v>120</v>
@@ -2417,18 +2373,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="G29" s="6">
         <v>121</v>
@@ -2436,38 +2386,24 @@
       <c r="H29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>90</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
       <c r="G30" s="12">
         <v>122</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2479,22 +2415,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B4:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2508,16 +2444,16 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>21</v>
       </c>
@@ -2531,21 +2467,21 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2554,9 +2490,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2565,9 +2501,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2576,7 +2512,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>22</v>
       </c>
@@ -2595,12 +2531,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -2617,9 +2553,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2628,9 +2564,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2639,7 +2575,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>54</v>
       </c>
@@ -2656,12 +2592,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2670,9 +2606,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2681,7 +2617,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>60</v>
       </c>
@@ -2696,12 +2632,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2710,9 +2646,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2730,30 +2666,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A5:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -2764,34 +2700,34 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5" t="s">
         <v>208</v>
       </c>
-      <c r="F5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I5" t="s">
-        <v>212</v>
-      </c>
-      <c r="J5" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" t="s">
-        <v>214</v>
-      </c>
-      <c r="L5" t="s">
-        <v>215</v>
-      </c>
-      <c r="M5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>64</v>
       </c>
@@ -2802,19 +2738,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>56</v>
@@ -2823,12 +2759,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2842,9 +2778,9 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2858,7 +2794,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2871,7 +2807,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2884,7 +2820,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2906,29 +2842,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A3:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -2937,18 +2873,18 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -2962,12 +2898,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -2984,9 +2920,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2995,9 +2931,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3006,13 +2942,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -3023,12 +2959,12 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -3045,9 +2981,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -3062,9 +2998,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -3079,9 +3015,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3090,15 +3026,15 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -3109,12 +3045,12 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3123,9 +3059,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3134,9 +3070,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3145,15 +3081,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -3164,12 +3100,12 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -3184,13 +3120,13 @@
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3199,9 +3135,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3219,26 +3155,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B4:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3255,10 +3191,10 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -3270,7 +3206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>25</v>
       </c>
@@ -3287,10 +3223,10 @@
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
@@ -3302,7 +3238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>14</v>
       </c>
@@ -3328,22 +3264,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>26</v>
       </c>
@@ -3360,10 +3296,10 @@
         <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
@@ -3375,27 +3311,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3407,20 +3343,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3431,7 +3367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>28</v>
       </c>
@@ -3442,7 +3378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>49</v>
       </c>
@@ -3450,17 +3386,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>59</v>
       </c>
@@ -3474,22 +3410,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3503,7 +3439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>30</v>
       </c>
@@ -3517,25 +3453,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>31</v>
       </c>
@@ -3549,25 +3485,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>29</v>
       </c>
@@ -3575,22 +3511,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3602,22 +3538,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3631,10 +3567,10 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>32</v>
       </c>
@@ -3648,35 +3584,35 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3688,22 +3624,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="B4:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -3717,7 +3653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>33</v>
       </c>
@@ -3731,50 +3667,55 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3786,38 +3727,39 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B5:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3835,16 +3777,16 @@
         <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
         <v>11</v>
@@ -3853,12 +3795,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>68</v>
@@ -3879,12 +3821,12 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
-        <v>144</v>
+      <c r="C7" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3900,9 +3842,9 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>144</v>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3918,9 +3860,9 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>144</v>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3936,9 +3878,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>144</v>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3954,12 +3896,12 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="17">
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>68</v>
@@ -3981,16 +3923,16 @@
         <v>10</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
-        <v>146</v>
+      <c r="C12" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4006,9 +3948,9 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>146</v>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4024,9 +3966,9 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>146</v>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4042,7 +3984,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>37</v>
       </c>
@@ -4061,7 +4003,9 @@
       <c r="J15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -4069,15 +4013,15 @@
         <v>10</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4093,9 +4037,9 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4111,9 +4055,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4129,9 +4073,9 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4147,7 +4091,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>38</v>
       </c>
@@ -4166,7 +4110,9 @@
       <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -4174,15 +4120,15 @@
         <v>10</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4198,9 +4144,9 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4216,9 +4162,9 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4234,7 +4180,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>39</v>
       </c>
@@ -4253,23 +4199,29 @@
       <c r="J24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="O24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4285,9 +4237,9 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4303,9 +4255,9 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -4321,9 +4273,9 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -4339,7 +4291,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>40</v>
       </c>
@@ -4359,28 +4311,30 @@
         <v>51</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4396,9 +4350,9 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4414,9 +4368,9 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4432,7 +4386,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>41</v>
       </c>
@@ -4451,15 +4405,15 @@
         <v>10</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4475,9 +4429,9 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4493,9 +4447,9 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4511,7 +4465,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>42</v>
       </c>
@@ -4530,15 +4484,15 @@
         <v>10</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4554,9 +4508,9 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4572,9 +4526,9 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4590,7 +4544,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>43</v>
       </c>
@@ -4613,15 +4567,15 @@
         <v>10</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4637,9 +4591,9 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4655,9 +4609,9 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4683,42 +4637,42 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -4727,7 +4681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>47</v>
       </c>
@@ -4738,17 +4692,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4760,34 +4714,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -4795,7 +4749,7 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -4804,10 +4758,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>52</v>
       </c>
@@ -4815,7 +4769,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -4824,12 +4778,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4838,12 +4792,12 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -4852,12 +4806,12 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4866,18 +4820,18 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -4886,9 +4840,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -4900,43 +4854,43 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4948,179 +4902,145 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="B5:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>46</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5132,30 +5052,30 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B4:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -5163,13 +5083,13 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -5178,7 +5098,7 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K4" t="s">
         <v>43</v>
@@ -5190,7 +5110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>48</v>
       </c>
@@ -5223,12 +5143,12 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -5241,9 +5161,9 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5256,9 +5176,9 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5271,9 +5191,9 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5286,7 +5206,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>49</v>
       </c>
@@ -5319,12 +5239,12 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5337,9 +5257,9 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5352,9 +5272,9 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5367,9 +5287,9 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5382,7 +5302,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>50</v>
       </c>
@@ -5415,12 +5335,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5433,9 +5353,9 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5448,9 +5368,9 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5463,9 +5383,9 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5487,27 +5407,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -5516,15 +5436,15 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -5533,81 +5453,81 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>55</v>
       </c>
@@ -5622,26 +5542,26 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>56</v>
       </c>
@@ -5655,19 +5575,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5679,21 +5599,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -5704,7 +5624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>51</v>
       </c>
@@ -5715,7 +5635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45</v>
       </c>
@@ -5723,27 +5643,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -5757,34 +5677,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>57</v>
       </c>
@@ -5795,25 +5715,25 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5825,24 +5745,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -5862,10 +5782,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -5885,32 +5805,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5922,22 +5842,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B4:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -5950,8 +5870,11 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>58</v>
       </c>
@@ -5963,25 +5886,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="G6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>59</v>
       </c>
@@ -5992,23 +5918,26 @@
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6020,26 +5949,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -6056,13 +5985,13 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>4</v>
       </c>
@@ -6077,7 +6006,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>64</v>
       </c>
@@ -6085,22 +6014,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -6117,7 +6046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>65</v>
       </c>
@@ -6125,17 +6054,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -6150,7 +6079,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>66</v>
       </c>
@@ -6158,17 +6087,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>7</v>
       </c>
@@ -6185,7 +6114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>67</v>
       </c>
@@ -6193,17 +6122,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>8</v>
       </c>
@@ -6212,31 +6141,31 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>9</v>
       </c>
@@ -6247,31 +6176,31 @@
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>10</v>
       </c>
@@ -6280,31 +6209,31 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>11</v>
       </c>
@@ -6315,31 +6244,31 @@
         <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>12</v>
       </c>
@@ -6348,28 +6277,28 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6381,31 +6310,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="77" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="77" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="15"/>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -6425,7 +6354,7 @@
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
         <v>41</v>
@@ -6437,16 +6366,16 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>14</v>
       </c>
@@ -6477,12 +6406,12 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6497,9 +6426,9 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6514,9 +6443,9 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6531,9 +6460,9 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -6548,9 +6477,9 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6565,7 +6494,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>15</v>
       </c>
@@ -6596,12 +6525,12 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6616,9 +6545,9 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -6633,9 +6562,9 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -6650,9 +6579,9 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -6667,9 +6596,9 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -6684,7 +6613,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>16</v>
       </c>
@@ -6712,14 +6641,14 @@
         <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>41</v>
       </c>
@@ -6739,7 +6668,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -6756,7 +6685,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>67</v>
       </c>
@@ -6773,7 +6702,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>67</v>
       </c>
@@ -6790,7 +6719,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -6802,11 +6731,11 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>38</v>
@@ -6821,12 +6750,12 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -6841,12 +6770,12 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -6861,9 +6790,9 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -6878,9 +6807,9 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -6895,7 +6824,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>18</v>
       </c>
@@ -6907,11 +6836,11 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>38</v>
@@ -6926,12 +6855,12 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -6950,9 +6879,9 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -6967,9 +6896,9 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -6984,9 +6913,9 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -7001,7 +6930,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>19</v>
       </c>
@@ -7013,11 +6942,11 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>38</v>
@@ -7029,19 +6958,19 @@
         <v>10</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -7056,9 +6985,9 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -7073,9 +7002,9 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -7090,9 +7019,9 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -7107,7 +7036,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>20</v>
       </c>
@@ -7119,11 +7048,11 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>38</v>
@@ -7135,19 +7064,19 @@
         <v>10</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -7162,9 +7091,9 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -7179,9 +7108,9 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -7196,9 +7125,9 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -7213,7 +7142,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>61</v>
       </c>
@@ -7225,7 +7154,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>37</v>
@@ -7243,15 +7172,15 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -7266,9 +7195,9 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -7283,9 +7212,9 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EECBEC-A331-4D5A-A5A8-3AFEAFB64A3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5475" windowWidth="18375" windowHeight="9675" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13005" windowHeight="5505" tabRatio="765" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="217">
   <si>
     <t>letter</t>
   </si>
@@ -693,12 +692,15 @@
   </si>
   <si>
     <t>get variables</t>
+  </si>
+  <si>
+    <t>brightness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -906,7 +908,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="64">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1110,334 +1115,335 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ascii "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="letter"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="variable"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="range"/>
+    <tableColumn id="1" name="ascii "/>
+    <tableColumn id="2" name="letter"/>
+    <tableColumn id="3" name="variable"/>
+    <tableColumn id="4" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
-  <autoFilter ref="C4:I18" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
+  <autoFilter ref="C4:I18"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="this_rot" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="this_delay" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="target_palette" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="bg_clr" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="bg_bri" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="this_fade" dataDxfId="45"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot" dataDxfId="51"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="50"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="49"/>
+    <tableColumn id="5" name="bg_clr" dataDxfId="48"/>
+    <tableColumn id="6" name="bg_bri" dataDxfId="47"/>
+    <tableColumn id="7" name="this_fade" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
-  <autoFilter ref="B5:M11" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
+  <autoFilter ref="B5:M11"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="this_fade" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="this_delay" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="blue_angle" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="blue_low" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="blue_high" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="green_angle" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="green_low" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="green_high" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="red_angle" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="red_low" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="red_high" dataDxfId="34"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade" dataDxfId="45"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="44"/>
+    <tableColumn id="4" name="blue_angle" dataDxfId="43"/>
+    <tableColumn id="5" name="blue_low" dataDxfId="42"/>
+    <tableColumn id="6" name="blue_high" dataDxfId="41"/>
+    <tableColumn id="7" name="green_angle" dataDxfId="40"/>
+    <tableColumn id="8" name="green_low" dataDxfId="39"/>
+    <tableColumn id="9" name="green_high" dataDxfId="38"/>
+    <tableColumn id="10" name="red_angle" dataDxfId="37"/>
+    <tableColumn id="11" name="red_low" dataDxfId="36"/>
+    <tableColumn id="12" name="red_high" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table9" displayName="Table9" ref="B3:H20" totalsRowShown="0">
-  <autoFilter ref="B3:H20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:H20" totalsRowShown="0">
+  <autoFilter ref="B3:H20"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="scale" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="scale2" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="this_delay" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="target_palette" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Column1" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="b" dataDxfId="28"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale" dataDxfId="34"/>
+    <tableColumn id="5" name="scale2" dataDxfId="33"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="32"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="31"/>
+    <tableColumn id="6" name="Column1" dataDxfId="30"/>
+    <tableColumn id="7" name="b" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="this_speed"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="all_freq"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="this_cutoff"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="bg_clr"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="bg_bri"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="this_rot"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="this_delay"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_inc"/>
+    <tableColumn id="3" name="this_speed"/>
+    <tableColumn id="4" name="all_freq"/>
+    <tableColumn id="5" name="this_cutoff"/>
+    <tableColumn id="6" name="bg_clr"/>
+    <tableColumn id="7" name="bg_bri"/>
+    <tableColumn id="8" name="this_rot"/>
+    <tableColumn id="9" name="this_delay"/>
+    <tableColumn id="10" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="this_rot"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="this_diff"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot"/>
+    <tableColumn id="3" name="this_diff"/>
+    <tableColumn id="4" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="myfade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="myfade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
-  <autoFilter ref="C4:F14" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
+  <autoFilter ref="C4:F14"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="target_palette"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="this_fade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="4" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
-  <autoFilter ref="C5:P44" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
+  <autoFilter ref="C5:P44"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="mode"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="spiral_width" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="spiral_inc" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="this_hue" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="this_inc" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="this_speed" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1100-00000A000000}" name="this_rot" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1100-00000B000000}" name="all_freq" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{224737A4-F2E0-4741-A037-78BAF37DC825}" name="this_cutoff" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1100-00000E000000}" name="that_speed" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1100-00000C000000}" name="bg_clr" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1100-00000D000000}" name="bg_bri" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="this_delay" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="target_palette" dataDxfId="16"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="3" name="spiral_width" dataDxfId="28"/>
+    <tableColumn id="6" name="spiral_inc" dataDxfId="27"/>
+    <tableColumn id="4" name="this_hue" dataDxfId="26"/>
+    <tableColumn id="8" name="this_inc" dataDxfId="25"/>
+    <tableColumn id="9" name="this_speed" dataDxfId="24"/>
+    <tableColumn id="10" name="this_rot" dataDxfId="23"/>
+    <tableColumn id="11" name="all_freq" dataDxfId="22"/>
+    <tableColumn id="2" name="this_cutoff" dataDxfId="21"/>
+    <tableColumn id="14" name="that_speed" dataDxfId="20"/>
+    <tableColumn id="12" name="bg_clr" dataDxfId="19"/>
+    <tableColumn id="13" name="bg_bri" dataDxfId="18"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="17"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
-  <autoFilter ref="C3:J6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
+  <autoFilter ref="C3:J6"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="twinkle_speed"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="twinkle_density"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="twinkle_bg"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="auto_select_background_color"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="cool_like_incandescent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="this_delay"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="twinkle_speed"/>
+    <tableColumn id="3" name="twinkle_density"/>
+    <tableColumn id="4" name="twinkle_bg"/>
+    <tableColumn id="5" name="auto_select_background_color"/>
+    <tableColumn id="7" name="cool_like_incandescent"/>
+    <tableColumn id="8" name="this_delay"/>
+    <tableColumn id="9" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B3:G15" totalsRowShown="0">
-  <autoFilter ref="B3:G15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:G15" totalsRowShown="0">
+  <autoFilter ref="B3:G15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="vImpact0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="this_delay"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="vImpact0"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="6" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table15" displayName="Table15" ref="C5:H13" totalsRowShown="0">
-  <autoFilter ref="C5:H13" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:H15" totalsRowShown="0">
+  <autoFilter ref="C5:H15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="mul1" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="mul2" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="mul3" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="this_delay" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="target_palette" dataDxfId="11"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="mul1" dataDxfId="15"/>
+    <tableColumn id="3" name="mul2" dataDxfId="14"/>
+    <tableColumn id="4" name="mul3" dataDxfId="13"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="12"/>
+    <tableColumn id="6" name="target_palette" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table17" displayName="Table17" ref="C4:M19" totalsRowShown="0">
-  <autoFilter ref="C4:M19" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="this_speed" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="that_speed" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="this_rot" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="that_rot" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="all_freq" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="this_cutoff" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" name="that_cutoff" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" name="this_sat" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1400-00000B000000}" name="this_delay" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1400-00000C000000}" name="target_palette" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:N19" totalsRowShown="0">
+  <autoFilter ref="C4:N19"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_speed" dataDxfId="10"/>
+    <tableColumn id="3" name="that_speed" dataDxfId="9"/>
+    <tableColumn id="4" name="this_rot" dataDxfId="8"/>
+    <tableColumn id="5" name="that_rot" dataDxfId="7"/>
+    <tableColumn id="6" name="all_freq" dataDxfId="6"/>
+    <tableColumn id="8" name="this_cutoff" dataDxfId="5"/>
+    <tableColumn id="9" name="that_cutoff" dataDxfId="4"/>
+    <tableColumn id="10" name="this_sat" dataDxfId="3"/>
+    <tableColumn id="11" name="this_delay" dataDxfId="2"/>
+    <tableColumn id="12" name="target_palette" dataDxfId="1"/>
+    <tableColumn id="7" name="brightness" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="scale"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="4" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="target_palette"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="target_palette"/>
+    <tableColumn id="3" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
-  <autoFilter ref="B4:E8" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
+  <autoFilter ref="B4:E8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="this_delay "/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="target_palette"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column1"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay "/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="4" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="this_diff"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="this_inc"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="this_fade"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="this_delay"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_diff"/>
+    <tableColumn id="3" name="this_inc"/>
+    <tableColumn id="7" name="this_fade"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="6" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
-  <autoFilter ref="C4:G12" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
+  <autoFilter ref="C4:G12"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="this_hue"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="this_delay"/>
-    <tableColumn id="5" xr3:uid="{3CD86568-346E-42F4-8A83-60AE3B2E2A56}" name="Column1"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_hue"/>
+    <tableColumn id="4" name="this_inc"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="5" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
-  <autoFilter ref="B3:H40" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
+  <autoFilter ref="B3:H40"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="cooling"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="sparking"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="this_delay"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="target_palette"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="cooling1-4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="sparking1-4"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="cooling"/>
+    <tableColumn id="3" name="sparking"/>
+    <tableColumn id="4" name="this_delay"/>
+    <tableColumn id="5" name="target_palette"/>
+    <tableColumn id="6" name="cooling1-4"/>
+    <tableColumn id="7" name="sparking1-4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
-  <autoFilter ref="B3:N44" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
+  <autoFilter ref="B3:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="juggle_index_reset" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="this_fade" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numdots_ring" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="numdots" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="this_beat" dataDxfId="58"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="ringBeat" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="this_diff" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="target_palette" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="this_delay" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="cooling1-4" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="sparking1-4" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="jug16_phase" dataDxfId="51"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="juggle_index_reset" dataDxfId="63"/>
+    <tableColumn id="3" name="this_fade" dataDxfId="62"/>
+    <tableColumn id="4" name="numdots_ring" dataDxfId="61"/>
+    <tableColumn id="12" name="numdots" dataDxfId="60"/>
+    <tableColumn id="5" name="this_beat" dataDxfId="59"/>
+    <tableColumn id="13" name="ringBeat" dataDxfId="58"/>
+    <tableColumn id="6" name="this_diff" dataDxfId="57"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="56"/>
+    <tableColumn id="8" name="this_delay" dataDxfId="55"/>
+    <tableColumn id="11" name="cooling1-4" dataDxfId="54"/>
+    <tableColumn id="10" name="sparking1-4" dataDxfId="53"/>
+    <tableColumn id="9" name="jug16_phase" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1739,13 +1745,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B4:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -2415,7 +2421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -2666,7 +2672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -3155,11 +3161,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,11 +3263,20 @@
       <c r="G6">
         <v>180</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>8</v>
       </c>
       <c r="K6">
         <v>4</v>
+      </c>
+      <c r="L6">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -3318,10 +3333,64 @@
       <c r="C11" t="s">
         <v>134</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>180</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>134</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>224</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -3343,7 +3412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3410,7 +3479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3538,7 +3607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3624,11 +3693,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,6 +3743,15 @@
       <c r="C6" t="s">
         <v>138</v>
       </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -3694,6 +3772,15 @@
       <c r="C10" s="1">
         <v>34</v>
       </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -3701,6 +3788,15 @@
       </c>
       <c r="C11" t="s">
         <v>139</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -3727,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4637,7 +4733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4714,7 +4810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4902,11 +4998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="B5:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4963,20 +5059,38 @@
       <c r="C7" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -5016,31 +5130,88 @@
       <c r="C11" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5052,11 +5223,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="B4:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5075,7 +5246,7 @@
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -5109,8 +5280,11 @@
       <c r="M4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>48</v>
       </c>
@@ -5142,71 +5316,156 @@
         <v>10</v>
       </c>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>128</v>
+      </c>
+      <c r="J6" s="1">
+        <v>160</v>
+      </c>
+      <c r="K6" s="1">
+        <v>255</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10</v>
+      </c>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>253</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1">
+        <v>128</v>
+      </c>
+      <c r="J7" s="1">
+        <v>128</v>
+      </c>
+      <c r="K7" s="1">
+        <v>255</v>
+      </c>
+      <c r="L7" s="1">
+        <v>12</v>
+      </c>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>128</v>
+      </c>
+      <c r="J8" s="1">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1">
+        <v>255</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>255</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>64</v>
+      </c>
+      <c r="J9" s="1">
+        <v>128</v>
+      </c>
+      <c r="K9" s="1">
+        <v>255</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>49</v>
       </c>
@@ -5238,41 +5497,82 @@
         <v>10</v>
       </c>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>163</v>
       </c>
       <c r="C11" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>253</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1">
+        <v>128</v>
+      </c>
+      <c r="J11" s="1">
+        <v>64</v>
+      </c>
+      <c r="K11" s="1">
+        <v>255</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>255</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>161</v>
       </c>
@@ -5286,8 +5586,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>161</v>
       </c>
@@ -5301,8 +5602,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>50</v>
       </c>
@@ -5327,33 +5629,59 @@
       <c r="J15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>253</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>64</v>
+      </c>
+      <c r="J16" s="1">
+        <v>128</v>
+      </c>
+      <c r="K16" s="1">
+        <v>255</v>
+      </c>
+      <c r="L16" s="1">
+        <v>15</v>
+      </c>
+      <c r="M16" s="1">
+        <v>66</v>
+      </c>
+      <c r="N16" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5367,8 +5695,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>162</v>
       </c>
@@ -5382,8 +5711,9 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -5397,6 +5727,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5407,7 +5738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -5599,7 +5930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5677,7 +6008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5745,7 +6076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5842,7 +6173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5949,7 +6280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -6310,7 +6641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="77" workbookViewId="0">

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13005" windowHeight="5505" tabRatio="765" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13005" windowHeight="4950" tabRatio="765" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="221">
   <si>
     <t>letter</t>
   </si>
@@ -695,6 +695,18 @@
   </si>
   <si>
     <t>brightness</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>change H</t>
+  </si>
+  <si>
+    <t>not good</t>
   </si>
 </sst>
 </file>
@@ -908,7 +920,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="67">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1128,16 +1149,18 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:I18" totalsRowShown="0">
-  <autoFilter ref="C4:I18"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:K18" totalsRowShown="0">
+  <autoFilter ref="C4:K18"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot" dataDxfId="51"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="50"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="49"/>
-    <tableColumn id="5" name="bg_clr" dataDxfId="48"/>
-    <tableColumn id="6" name="bg_bri" dataDxfId="47"/>
-    <tableColumn id="7" name="this_fade" dataDxfId="46"/>
+    <tableColumn id="2" name="this_rot" dataDxfId="54"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="53"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="52"/>
+    <tableColumn id="5" name="bg_clr" dataDxfId="51"/>
+    <tableColumn id="6" name="bg_bri" dataDxfId="50"/>
+    <tableColumn id="7" name="this_fade" dataDxfId="49"/>
+    <tableColumn id="8" name="Column1" dataDxfId="1"/>
+    <tableColumn id="9" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1148,33 +1171,34 @@
   <autoFilter ref="B5:M11"/>
   <tableColumns count="12">
     <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade" dataDxfId="45"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="44"/>
-    <tableColumn id="4" name="blue_angle" dataDxfId="43"/>
-    <tableColumn id="5" name="blue_low" dataDxfId="42"/>
-    <tableColumn id="6" name="blue_high" dataDxfId="41"/>
-    <tableColumn id="7" name="green_angle" dataDxfId="40"/>
-    <tableColumn id="8" name="green_low" dataDxfId="39"/>
-    <tableColumn id="9" name="green_high" dataDxfId="38"/>
-    <tableColumn id="10" name="red_angle" dataDxfId="37"/>
-    <tableColumn id="11" name="red_low" dataDxfId="36"/>
-    <tableColumn id="12" name="red_high" dataDxfId="35"/>
+    <tableColumn id="2" name="this_fade" dataDxfId="48"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="47"/>
+    <tableColumn id="4" name="blue_angle" dataDxfId="46"/>
+    <tableColumn id="5" name="blue_low" dataDxfId="45"/>
+    <tableColumn id="6" name="blue_high" dataDxfId="44"/>
+    <tableColumn id="7" name="green_angle" dataDxfId="43"/>
+    <tableColumn id="8" name="green_low" dataDxfId="42"/>
+    <tableColumn id="9" name="green_high" dataDxfId="41"/>
+    <tableColumn id="10" name="red_angle" dataDxfId="40"/>
+    <tableColumn id="11" name="red_low" dataDxfId="39"/>
+    <tableColumn id="12" name="red_high" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:H20" totalsRowShown="0">
-  <autoFilter ref="B3:H20"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:I20" totalsRowShown="0">
+  <autoFilter ref="B3:I20"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale" dataDxfId="34"/>
-    <tableColumn id="5" name="scale2" dataDxfId="33"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="32"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="31"/>
-    <tableColumn id="6" name="Column1" dataDxfId="30"/>
-    <tableColumn id="7" name="b" dataDxfId="29"/>
+    <tableColumn id="2" name="scale" dataDxfId="37"/>
+    <tableColumn id="5" name="scale2" dataDxfId="36"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="35"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="34"/>
+    <tableColumn id="6" name="Column1" dataDxfId="33"/>
+    <tableColumn id="7" name="b" dataDxfId="32"/>
+    <tableColumn id="8" name="Column2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1256,19 +1280,19 @@
   <autoFilter ref="C5:P44"/>
   <tableColumns count="14">
     <tableColumn id="1" name="mode"/>
-    <tableColumn id="3" name="spiral_width" dataDxfId="28"/>
-    <tableColumn id="6" name="spiral_inc" dataDxfId="27"/>
-    <tableColumn id="4" name="this_hue" dataDxfId="26"/>
-    <tableColumn id="8" name="this_inc" dataDxfId="25"/>
-    <tableColumn id="9" name="this_speed" dataDxfId="24"/>
-    <tableColumn id="10" name="this_rot" dataDxfId="23"/>
-    <tableColumn id="11" name="all_freq" dataDxfId="22"/>
-    <tableColumn id="2" name="this_cutoff" dataDxfId="21"/>
-    <tableColumn id="14" name="that_speed" dataDxfId="20"/>
-    <tableColumn id="12" name="bg_clr" dataDxfId="19"/>
-    <tableColumn id="13" name="bg_bri" dataDxfId="18"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="17"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="16"/>
+    <tableColumn id="3" name="spiral_width" dataDxfId="31"/>
+    <tableColumn id="6" name="spiral_inc" dataDxfId="30"/>
+    <tableColumn id="4" name="this_hue" dataDxfId="29"/>
+    <tableColumn id="8" name="this_inc" dataDxfId="28"/>
+    <tableColumn id="9" name="this_speed" dataDxfId="27"/>
+    <tableColumn id="10" name="this_rot" dataDxfId="26"/>
+    <tableColumn id="11" name="all_freq" dataDxfId="25"/>
+    <tableColumn id="2" name="this_cutoff" dataDxfId="24"/>
+    <tableColumn id="14" name="that_speed" dataDxfId="23"/>
+    <tableColumn id="12" name="bg_clr" dataDxfId="22"/>
+    <tableColumn id="13" name="bg_bri" dataDxfId="21"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="20"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1311,11 +1335,11 @@
   <autoFilter ref="C5:H15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="mul1" dataDxfId="15"/>
-    <tableColumn id="3" name="mul2" dataDxfId="14"/>
-    <tableColumn id="4" name="mul3" dataDxfId="13"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="12"/>
-    <tableColumn id="6" name="target_palette" dataDxfId="11"/>
+    <tableColumn id="2" name="mul1" dataDxfId="18"/>
+    <tableColumn id="3" name="mul2" dataDxfId="17"/>
+    <tableColumn id="4" name="mul3" dataDxfId="16"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="15"/>
+    <tableColumn id="6" name="target_palette" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1326,17 +1350,17 @@
   <autoFilter ref="C4:N19"/>
   <tableColumns count="12">
     <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_speed" dataDxfId="10"/>
-    <tableColumn id="3" name="that_speed" dataDxfId="9"/>
-    <tableColumn id="4" name="this_rot" dataDxfId="8"/>
-    <tableColumn id="5" name="that_rot" dataDxfId="7"/>
-    <tableColumn id="6" name="all_freq" dataDxfId="6"/>
-    <tableColumn id="8" name="this_cutoff" dataDxfId="5"/>
-    <tableColumn id="9" name="that_cutoff" dataDxfId="4"/>
-    <tableColumn id="10" name="this_sat" dataDxfId="3"/>
-    <tableColumn id="11" name="this_delay" dataDxfId="2"/>
-    <tableColumn id="12" name="target_palette" dataDxfId="1"/>
-    <tableColumn id="7" name="brightness" dataDxfId="0"/>
+    <tableColumn id="2" name="this_speed" dataDxfId="13"/>
+    <tableColumn id="3" name="that_speed" dataDxfId="12"/>
+    <tableColumn id="4" name="this_rot" dataDxfId="11"/>
+    <tableColumn id="5" name="that_rot" dataDxfId="10"/>
+    <tableColumn id="6" name="all_freq" dataDxfId="9"/>
+    <tableColumn id="8" name="this_cutoff" dataDxfId="8"/>
+    <tableColumn id="9" name="that_cutoff" dataDxfId="7"/>
+    <tableColumn id="10" name="this_sat" dataDxfId="6"/>
+    <tableColumn id="11" name="this_delay" dataDxfId="5"/>
+    <tableColumn id="12" name="target_palette" dataDxfId="4"/>
+    <tableColumn id="7" name="brightness" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1432,18 +1456,18 @@
   <autoFilter ref="B3:N44"/>
   <tableColumns count="13">
     <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="juggle_index_reset" dataDxfId="63"/>
-    <tableColumn id="3" name="this_fade" dataDxfId="62"/>
-    <tableColumn id="4" name="numdots_ring" dataDxfId="61"/>
-    <tableColumn id="12" name="numdots" dataDxfId="60"/>
-    <tableColumn id="5" name="this_beat" dataDxfId="59"/>
-    <tableColumn id="13" name="ringBeat" dataDxfId="58"/>
-    <tableColumn id="6" name="this_diff" dataDxfId="57"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="56"/>
-    <tableColumn id="8" name="this_delay" dataDxfId="55"/>
-    <tableColumn id="11" name="cooling1-4" dataDxfId="54"/>
-    <tableColumn id="10" name="sparking1-4" dataDxfId="53"/>
-    <tableColumn id="9" name="jug16_phase" dataDxfId="52"/>
+    <tableColumn id="2" name="juggle_index_reset" dataDxfId="66"/>
+    <tableColumn id="3" name="this_fade" dataDxfId="65"/>
+    <tableColumn id="4" name="numdots_ring" dataDxfId="64"/>
+    <tableColumn id="12" name="numdots" dataDxfId="63"/>
+    <tableColumn id="5" name="this_beat" dataDxfId="62"/>
+    <tableColumn id="13" name="ringBeat" dataDxfId="61"/>
+    <tableColumn id="6" name="this_diff" dataDxfId="60"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="59"/>
+    <tableColumn id="8" name="this_delay" dataDxfId="58"/>
+    <tableColumn id="11" name="cooling1-4" dataDxfId="57"/>
+    <tableColumn id="10" name="sparking1-4" dataDxfId="56"/>
+    <tableColumn id="9" name="jug16_phase" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2422,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I18"/>
+  <dimension ref="B4:K18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,7 +2460,7 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -2458,8 +2482,14 @@
       <c r="I4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>21</v>
       </c>
@@ -2481,22 +2511,38 @@
       <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>172</v>
       </c>
@@ -2506,8 +2552,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>172</v>
       </c>
@@ -2517,8 +2565,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>22</v>
       </c>
@@ -2536,19 +2586,25 @@
       <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>75</v>
+      </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
@@ -2558,8 +2614,10 @@
       <c r="I10" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>173</v>
       </c>
@@ -2569,8 +2627,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>173</v>
       </c>
@@ -2580,8 +2640,10 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>54</v>
       </c>
@@ -2597,8 +2659,10 @@
       <c r="I13" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>48</v>
       </c>
@@ -2611,8 +2675,12 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>174</v>
       </c>
@@ -2622,8 +2690,10 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>60</v>
       </c>
@@ -2637,8 +2707,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>75</v>
       </c>
@@ -2646,13 +2718,19 @@
         <v>190</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>87</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>190</v>
       </c>
@@ -2662,6 +2740,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2849,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H20"/>
+  <dimension ref="A3:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2942,7 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -2884,8 +2964,11 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>23</v>
       </c>
@@ -2903,8 +2986,9 @@
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -2925,30 +3009,45 @@
       <c r="H5" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>46</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>24</v>
       </c>
@@ -2964,8 +3063,9 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -2986,8 +3086,9 @@
       <c r="H9" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>132</v>
       </c>
@@ -3003,8 +3104,9 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>132</v>
       </c>
@@ -3020,8 +3122,9 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>132</v>
       </c>
@@ -3031,8 +3134,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>62</v>
       </c>
@@ -3050,8 +3154,11 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>77</v>
       </c>
@@ -3064,8 +3171,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>192</v>
       </c>
@@ -3075,8 +3183,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>192</v>
       </c>
@@ -3086,8 +3195,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>63</v>
       </c>
@@ -3105,8 +3215,9 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>78</v>
       </c>
@@ -3129,28 +3240,51 @@
         <v>197</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>49</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>60</v>
+      </c>
+      <c r="I20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3482,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,6 +3663,15 @@
       <c r="C6" t="s">
         <v>61</v>
       </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -3561,11 +3704,29 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>62</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -3586,6 +3747,9 @@
       </c>
       <c r="C14" t="s">
         <v>171</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -3611,7 +3775,7 @@
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,6 +3827,18 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>128</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -3696,7 +3872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5741,8 +5917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5791,6 +5967,15 @@
       <c r="B6" t="s">
         <v>107</v>
       </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>110</v>
       </c>
@@ -5799,6 +5984,15 @@
       <c r="B7" t="s">
         <v>107</v>
       </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>111</v>
       </c>
@@ -5828,14 +6022,25 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>109</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5858,7 +6063,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>55</v>
       </c>
@@ -5873,26 +6078,35 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>70</v>
+      </c>
       <c r="B18" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1">
+        <v>700</v>
+      </c>
+      <c r="D18" s="1">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>56</v>
       </c>
@@ -5906,17 +6120,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>71</v>
+      </c>
       <c r="B22" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>95</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>185</v>
       </c>
@@ -6080,7 +6306,7 @@
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6143,15 +6369,60 @@
       <c r="B5" t="s">
         <v>112</v>
       </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>112</v>
       </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>112</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6644,8 +6915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="77" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6744,15 +7015,29 @@
       <c r="B5" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -6761,15 +7046,29 @@
       <c r="B6" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -6778,15 +7077,29 @@
       <c r="B7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>59</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -6795,15 +7108,29 @@
       <c r="B8" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B88231B-B675-41E7-A3C3-B924DFCF4AD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13005" windowHeight="4950" tabRatio="765" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="-32415" yWindow="5070" windowWidth="18375" windowHeight="9675" tabRatio="765" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -20,19 +21,20 @@
     <sheet name="confetti" sheetId="5" r:id="rId6"/>
     <sheet name="fade" sheetId="20" r:id="rId7"/>
     <sheet name="fire" sheetId="7" r:id="rId8"/>
-    <sheet name="juggle" sheetId="6" r:id="rId9"/>
-    <sheet name="matrix" sheetId="17" r:id="rId10"/>
-    <sheet name="movingdot" sheetId="21" r:id="rId11"/>
-    <sheet name="noise8" sheetId="8" r:id="rId12"/>
-    <sheet name="one_sin" sheetId="9" r:id="rId13"/>
-    <sheet name="plasma" sheetId="10" r:id="rId14"/>
-    <sheet name="rainbow_march" sheetId="11" r:id="rId15"/>
-    <sheet name="ripple" sheetId="12" r:id="rId16"/>
-    <sheet name="serendipitous" sheetId="13" r:id="rId17"/>
-    <sheet name="spiral" sheetId="14" r:id="rId18"/>
-    <sheet name="twinkle" sheetId="18" r:id="rId19"/>
-    <sheet name="three_sin" sheetId="15" r:id="rId20"/>
-    <sheet name="two_sin" sheetId="16" r:id="rId21"/>
+    <sheet name="fireworks" sheetId="22" r:id="rId9"/>
+    <sheet name="juggle" sheetId="6" r:id="rId10"/>
+    <sheet name="matrix" sheetId="17" r:id="rId11"/>
+    <sheet name="movingdot" sheetId="21" r:id="rId12"/>
+    <sheet name="noise8" sheetId="8" r:id="rId13"/>
+    <sheet name="one_sin" sheetId="9" r:id="rId14"/>
+    <sheet name="plasma" sheetId="10" r:id="rId15"/>
+    <sheet name="rainbow_march" sheetId="11" r:id="rId16"/>
+    <sheet name="ripple" sheetId="12" r:id="rId17"/>
+    <sheet name="serendipitous" sheetId="13" r:id="rId18"/>
+    <sheet name="spiral" sheetId="14" r:id="rId19"/>
+    <sheet name="twinkle" sheetId="18" r:id="rId20"/>
+    <sheet name="three_sin" sheetId="15" r:id="rId21"/>
+    <sheet name="two_sin" sheetId="16" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="213">
   <si>
     <t>letter</t>
   </si>
@@ -358,9 +360,6 @@
     <t>bouncing_balls</t>
   </si>
   <si>
-    <t>vImpact0</t>
-  </si>
-  <si>
     <t>bouncing_balls2</t>
   </si>
   <si>
@@ -535,30 +534,6 @@
     <t>two_sin_pal_ring</t>
   </si>
   <si>
-    <t>4,6,7,8,9</t>
-  </si>
-  <si>
-    <t>0,1,2,3,5,10</t>
-  </si>
-  <si>
-    <t>11,12,13</t>
-  </si>
-  <si>
-    <t>15,16</t>
-  </si>
-  <si>
-    <t>18,24</t>
-  </si>
-  <si>
-    <t>20,23</t>
-  </si>
-  <si>
-    <t>25,27</t>
-  </si>
-  <si>
-    <t>28,29</t>
-  </si>
-  <si>
     <t>pride</t>
   </si>
   <si>
@@ -571,9 +546,6 @@
     <t>matrix_saw</t>
   </si>
   <si>
-    <t>32,34</t>
-  </si>
-  <si>
     <t>33,35</t>
   </si>
   <si>
@@ -631,9 +603,6 @@
     <t>jug16_phase</t>
   </si>
   <si>
-    <t>do not change</t>
-  </si>
-  <si>
     <t>d10</t>
   </si>
   <si>
@@ -707,12 +676,21 @@
   </si>
   <si>
     <t>not good</t>
+  </si>
+  <si>
+    <t>streamer_velocity</t>
+  </si>
+  <si>
+    <t>explosion_velocity</t>
+  </si>
+  <si>
+    <t>fireworks()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -891,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -916,11 +894,62 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1136,340 +1165,364 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ascii "/>
-    <tableColumn id="2" name="letter"/>
-    <tableColumn id="3" name="variable"/>
-    <tableColumn id="4" name="range"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ascii "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="letter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="variable"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:K18" totalsRowShown="0">
-  <autoFilter ref="C4:K18"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot" dataDxfId="54"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="53"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="52"/>
-    <tableColumn id="5" name="bg_clr" dataDxfId="51"/>
-    <tableColumn id="6" name="bg_bri" dataDxfId="50"/>
-    <tableColumn id="7" name="this_fade" dataDxfId="49"/>
-    <tableColumn id="8" name="Column1" dataDxfId="1"/>
-    <tableColumn id="9" name="Column2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A1AD7105-03D9-4870-AA05-9CBEB1AD9A63}" name="Table23" displayName="Table23" ref="C3:G8" totalsRowShown="0">
+  <autoFilter ref="C3:G8" xr:uid="{9D610FC5-A212-44BC-8C3E-DF904A9D831E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CAC1F056-6E4A-4B20-9174-22DC12C24235}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{FADA7DCA-456A-4B67-9DDF-0888809EB91E}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{9D84BFBD-E4F7-41E2-86CE-DE5A7A0D2989}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{DFACCDAD-8CC3-44D4-ACA7-50CA009068BE}" name="streamer_velocity"/>
+    <tableColumn id="5" xr3:uid="{3864A4D6-85A1-4441-B104-44DA0171B8BB}" name="explosion_velocity"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
+  <autoFilter ref="B3:N44" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="juggle_index_reset" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="this_fade" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numdots_ring" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="numdots" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="this_beat" dataDxfId="64"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="ringBeat" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="this_diff" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="target_palette" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="this_delay" dataDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="cooling1-4" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="sparking1-4" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="jug16_phase" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
-  <autoFilter ref="B5:M11"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade" dataDxfId="48"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="47"/>
-    <tableColumn id="4" name="blue_angle" dataDxfId="46"/>
-    <tableColumn id="5" name="blue_low" dataDxfId="45"/>
-    <tableColumn id="6" name="blue_high" dataDxfId="44"/>
-    <tableColumn id="7" name="green_angle" dataDxfId="43"/>
-    <tableColumn id="8" name="green_low" dataDxfId="42"/>
-    <tableColumn id="9" name="green_high" dataDxfId="41"/>
-    <tableColumn id="10" name="red_angle" dataDxfId="40"/>
-    <tableColumn id="11" name="red_low" dataDxfId="39"/>
-    <tableColumn id="12" name="red_high" dataDxfId="38"/>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table16" displayName="Table16" ref="C4:K18" totalsRowShown="0">
+  <autoFilter ref="C4:K18" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="this_rot" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="this_delay" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="target_palette" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="bg_clr" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="bg_bri" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="this_fade" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Column1" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="Column2" dataDxfId="49"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:I20" totalsRowShown="0">
-  <autoFilter ref="B3:I20"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale" dataDxfId="37"/>
-    <tableColumn id="5" name="scale2" dataDxfId="36"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="35"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="34"/>
-    <tableColumn id="6" name="Column1" dataDxfId="33"/>
-    <tableColumn id="7" name="b" dataDxfId="32"/>
-    <tableColumn id="8" name="Column2" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_inc"/>
-    <tableColumn id="3" name="this_speed"/>
-    <tableColumn id="4" name="all_freq"/>
-    <tableColumn id="5" name="this_cutoff"/>
-    <tableColumn id="6" name="bg_clr"/>
-    <tableColumn id="7" name="bg_bri"/>
-    <tableColumn id="8" name="this_rot"/>
-    <tableColumn id="9" name="this_delay"/>
-    <tableColumn id="10" name="target_palette"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
+  <autoFilter ref="B5:M11" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="this_fade" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="this_delay" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="blue_angle" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="blue_low" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="blue_high" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="green_angle" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="green_low" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="green_high" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="red_angle" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="red_low" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="red_high" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table9" displayName="Table9" ref="B3:I20" totalsRowShown="0">
+  <autoFilter ref="B3:I20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="scale" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="scale2" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="this_delay" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="target_palette" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Column1" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="b" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Column2" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="this_inc"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="this_speed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="all_freq"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="this_cutoff"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="bg_clr"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="bg_bri"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="this_rot"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="this_delay"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="target_palette"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay"/>
-    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16"/>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot"/>
-    <tableColumn id="3" name="this_diff"/>
-    <tableColumn id="4" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="this_rot"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="this_diff"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10"/>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="3" name="this_delay"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="myfade"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="myfade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
-  <autoFilter ref="C4:F14"/>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
+  <autoFilter ref="C4:F14" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay"/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="4" name="this_fade"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
-  <autoFilter ref="C5:P44"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="3" name="spiral_width" dataDxfId="31"/>
-    <tableColumn id="6" name="spiral_inc" dataDxfId="30"/>
-    <tableColumn id="4" name="this_hue" dataDxfId="29"/>
-    <tableColumn id="8" name="this_inc" dataDxfId="28"/>
-    <tableColumn id="9" name="this_speed" dataDxfId="27"/>
-    <tableColumn id="10" name="this_rot" dataDxfId="26"/>
-    <tableColumn id="11" name="all_freq" dataDxfId="25"/>
-    <tableColumn id="2" name="this_cutoff" dataDxfId="24"/>
-    <tableColumn id="14" name="that_speed" dataDxfId="23"/>
-    <tableColumn id="12" name="bg_clr" dataDxfId="22"/>
-    <tableColumn id="13" name="bg_bri" dataDxfId="21"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="20"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="19"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
-  <autoFilter ref="C3:J6"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="twinkle_speed"/>
-    <tableColumn id="3" name="twinkle_density"/>
-    <tableColumn id="4" name="twinkle_bg"/>
-    <tableColumn id="5" name="auto_select_background_color"/>
-    <tableColumn id="7" name="cool_like_incandescent"/>
-    <tableColumn id="8" name="this_delay"/>
-    <tableColumn id="9" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="target_palette"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:G15" totalsRowShown="0">
-  <autoFilter ref="B3:G15"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="3" name="vImpact0"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="6" name="Column1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{CC23980A-92AA-440A-AE80-1B05E2DB0F49}" name="Table22" displayName="Table22" ref="L4:M56" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="L4:M56" xr:uid="{16D4D34D-1B5E-496D-8FAE-720F4E8BF271}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{581B5909-31C2-458C-B035-966BD2754E42}" name="led_mode"/>
+    <tableColumn id="2" xr3:uid="{89167E64-7136-494C-BFA5-0CC1C617EFA7}" name="mode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:H15" totalsRowShown="0">
-  <autoFilter ref="C5:H15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
+  <autoFilter ref="C5:P44" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="mode"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="spiral_width" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="spiral_inc" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="this_hue" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="this_inc" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="this_speed" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1100-00000A000000}" name="this_rot" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1100-00000B000000}" name="all_freq" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="this_cutoff" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1100-00000E000000}" name="that_speed" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1100-00000C000000}" name="bg_clr" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1100-00000D000000}" name="bg_bri" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="this_delay" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="target_palette" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
+  <autoFilter ref="C3:J6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="twinkle_speed"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="twinkle_density"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="twinkle_bg"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="auto_select_background_color"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="cool_like_incandescent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="this_delay"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="target_palette"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table15" displayName="Table15" ref="C5:H15" totalsRowShown="0">
+  <autoFilter ref="C5:H15" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="mul1" dataDxfId="18"/>
-    <tableColumn id="3" name="mul2" dataDxfId="17"/>
-    <tableColumn id="4" name="mul3" dataDxfId="16"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="15"/>
-    <tableColumn id="6" name="target_palette" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="mul1" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="mul2" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="mul3" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="this_delay" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="target_palette" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:N19" totalsRowShown="0">
-  <autoFilter ref="C4:N19"/>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table17" displayName="Table17" ref="C4:N19" totalsRowShown="0">
+  <autoFilter ref="C4:N19" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_speed" dataDxfId="13"/>
-    <tableColumn id="3" name="that_speed" dataDxfId="12"/>
-    <tableColumn id="4" name="this_rot" dataDxfId="11"/>
-    <tableColumn id="5" name="that_rot" dataDxfId="10"/>
-    <tableColumn id="6" name="all_freq" dataDxfId="9"/>
-    <tableColumn id="8" name="this_cutoff" dataDxfId="8"/>
-    <tableColumn id="9" name="that_cutoff" dataDxfId="7"/>
-    <tableColumn id="10" name="this_sat" dataDxfId="6"/>
-    <tableColumn id="11" name="this_delay" dataDxfId="5"/>
-    <tableColumn id="12" name="target_palette" dataDxfId="4"/>
-    <tableColumn id="7" name="brightness" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="this_speed" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="that_speed" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="this_rot" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="that_rot" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="all_freq" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="this_cutoff" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" name="that_cutoff" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" name="this_sat" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1400-00000B000000}" name="this_delay" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1400-00000C000000}" name="target_palette" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="brightness" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B3:F15" totalsRowShown="0">
+  <autoFilter ref="B3:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale"/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="4" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="this_fade"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="this_delay"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="scale"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="target_palette"/>
-    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="target_palette"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
-  <autoFilter ref="B4:E8"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
+  <autoFilter ref="B4:E8" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay "/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="4" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_diff"/>
-    <tableColumn id="3" name="this_inc"/>
-    <tableColumn id="7" name="this_fade"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="6" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="this_delay "/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="target_palette"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
-  <autoFilter ref="C4:G12"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_hue"/>
-    <tableColumn id="4" name="this_inc"/>
-    <tableColumn id="3" name="this_delay"/>
-    <tableColumn id="5" name="Column1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="this_diff"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="this_inc"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="this_fade"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="this_delay"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
-  <autoFilter ref="B3:H40"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="cooling"/>
-    <tableColumn id="3" name="sparking"/>
-    <tableColumn id="4" name="this_delay"/>
-    <tableColumn id="5" name="target_palette"/>
-    <tableColumn id="6" name="cooling1-4"/>
-    <tableColumn id="7" name="sparking1-4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
+  <autoFilter ref="C4:G12" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="this_hue"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="this_inc"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="this_delay"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
-  <autoFilter ref="B3:N44"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="juggle_index_reset" dataDxfId="66"/>
-    <tableColumn id="3" name="this_fade" dataDxfId="65"/>
-    <tableColumn id="4" name="numdots_ring" dataDxfId="64"/>
-    <tableColumn id="12" name="numdots" dataDxfId="63"/>
-    <tableColumn id="5" name="this_beat" dataDxfId="62"/>
-    <tableColumn id="13" name="ringBeat" dataDxfId="61"/>
-    <tableColumn id="6" name="this_diff" dataDxfId="60"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="59"/>
-    <tableColumn id="8" name="this_delay" dataDxfId="58"/>
-    <tableColumn id="11" name="cooling1-4" dataDxfId="57"/>
-    <tableColumn id="10" name="sparking1-4" dataDxfId="56"/>
-    <tableColumn id="9" name="jug16_phase" dataDxfId="55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
+  <autoFilter ref="B3:H40" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="cooling"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="sparking"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="this_delay"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="target_palette"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="cooling1-4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="sparking1-4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1769,14 +1822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:J30"/>
+  <dimension ref="B4:M56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,9 +1842,11 @@
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1816,8 +1871,14 @@
       <c r="J4" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>65</v>
       </c>
@@ -1825,7 +1886,7 @@
         <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1842,8 +1903,14 @@
       <c r="J5" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>66</v>
       </c>
@@ -1851,7 +1918,7 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1868,8 +1935,14 @@
       <c r="J6" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>67</v>
       </c>
@@ -1880,7 +1953,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="6">
         <v>99</v>
@@ -1894,8 +1967,14 @@
       <c r="J7" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>68</v>
       </c>
@@ -1903,7 +1982,7 @@
         <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -1920,8 +1999,14 @@
       <c r="J8" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>69</v>
       </c>
@@ -1929,7 +2014,7 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1942,8 +2027,14 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>70</v>
       </c>
@@ -1951,7 +2042,7 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1968,8 +2059,14 @@
       <c r="J10" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>71</v>
       </c>
@@ -1994,8 +2091,14 @@
       <c r="J11" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>72</v>
       </c>
@@ -2020,8 +2123,14 @@
       <c r="J12" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>73</v>
       </c>
@@ -2046,8 +2155,14 @@
       <c r="J13" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>74</v>
       </c>
@@ -2055,7 +2170,7 @@
         <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -2072,8 +2187,14 @@
       <c r="J14" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>75</v>
       </c>
@@ -2081,7 +2202,7 @@
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -2098,8 +2219,14 @@
       <c r="J15" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>76</v>
       </c>
@@ -2107,7 +2234,7 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -2124,8 +2251,14 @@
       <c r="J16" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>77</v>
       </c>
@@ -2147,8 +2280,14 @@
       <c r="J17" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>78</v>
       </c>
@@ -2156,7 +2295,7 @@
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
@@ -2173,8 +2312,14 @@
       <c r="J18" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>79</v>
       </c>
@@ -2182,7 +2327,7 @@
         <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -2199,8 +2344,14 @@
       <c r="J19" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>80</v>
       </c>
@@ -2222,8 +2373,14 @@
       <c r="J20" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>81</v>
       </c>
@@ -2231,10 +2388,10 @@
         <v>95</v>
       </c>
       <c r="D21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" t="s">
         <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>126</v>
       </c>
       <c r="G21" s="6">
         <v>113</v>
@@ -2248,8 +2405,14 @@
       <c r="J21" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>82</v>
       </c>
@@ -2274,8 +2437,14 @@
       <c r="J22" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>17</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>83</v>
       </c>
@@ -2286,7 +2455,7 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="6">
         <v>115</v>
@@ -2300,8 +2469,14 @@
       <c r="J23" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>18</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>84</v>
       </c>
@@ -2309,7 +2484,7 @@
         <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
         <v>54</v>
@@ -2326,8 +2501,14 @@
       <c r="J24" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>85</v>
       </c>
@@ -2341,11 +2522,17 @@
         <v>46</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>86</v>
       </c>
@@ -2364,8 +2551,14 @@
       <c r="J26" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>21</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>87</v>
       </c>
@@ -2382,8 +2575,14 @@
         <v>77</v>
       </c>
       <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>22</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>88</v>
       </c>
@@ -2402,8 +2601,14 @@
       <c r="J28" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>23</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>89</v>
       </c>
@@ -2416,10 +2621,20 @@
       <c r="H29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>90</v>
       </c>
@@ -2432,24 +2647,1236 @@
       <c r="H30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
+      <c r="I30" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>28</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>29</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>31</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>32</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>33</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>34</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>35</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>36</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>37</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>38</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>39</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>40</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>41</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>42</v>
+      </c>
+      <c r="M47" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>43</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>44</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>45</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>46</v>
+      </c>
+      <c r="M51" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>47</v>
+      </c>
+      <c r="M52" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>48</v>
+      </c>
+      <c r="M53" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>49</v>
+      </c>
+      <c r="M54" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>50</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>51</v>
+      </c>
+      <c r="M56" s="20" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A3:N44"/>
+  <sheetViews>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>59</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B4:K18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,10 +3910,10 @@
         <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K4" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -2516,10 +3943,10 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -2536,15 +3963,17 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>32</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2557,7 +3986,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2591,10 +4020,10 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2619,7 +4048,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2632,7 +4061,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2663,11 +4092,8 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>48</v>
-      </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2677,12 +4103,12 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2712,10 +4138,10 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -2732,7 +4158,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2751,8 +4177,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A5:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2786,31 +4212,31 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="I5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="J5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2850,7 +4276,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2866,7 +4292,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2927,12 +4353,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A3:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,7 +4376,7 @@
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -2959,13 +4385,13 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2990,10 +4416,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -3012,8 +4438,11 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -3031,7 +4460,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -3066,11 +4495,11 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>167</v>
+      <c r="A9">
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -3089,8 +4518,11 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>24</v>
+      </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -3107,8 +4539,11 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -3126,7 +4561,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3155,15 +4590,12 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>77</v>
-      </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3175,7 +4607,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3187,7 +4619,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3219,10 +4651,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -3237,14 +4669,17 @@
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>27</v>
+      </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -3259,14 +4694,17 @@
         <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28</v>
+      </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
@@ -3294,12 +4732,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B4:L14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,7 +4818,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -3461,11 +4899,11 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>166</v>
+      <c r="B11">
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3496,8 +4934,11 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>31</v>
+      </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -3529,12 +4970,12 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3545,8 +4986,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,12 +5053,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,8 +5098,8 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>169</v>
+      <c r="B6">
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -3698,8 +5139,8 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>170</v>
+      <c r="B10">
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -3715,6 +5156,9 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>34</v>
+      </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
@@ -3743,10 +5187,10 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -3754,12 +5198,12 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3770,12 +5214,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,7 +5244,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -3822,10 +5266,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3842,22 +5286,22 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3868,12 +5312,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B4:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3914,10 +5358,10 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3931,17 +5375,17 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -3960,10 +5404,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -3977,17 +5421,17 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3998,11 +5442,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B5:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -4028,10 +5472,10 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -4052,7 +5496,7 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M5" t="s">
         <v>87</v>
@@ -4098,7 +5542,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4116,7 +5560,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4134,7 +5578,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4152,7 +5596,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -4195,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -4204,7 +5648,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4222,7 +5666,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4240,7 +5684,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4285,7 +5729,7 @@
         <v>10</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -4293,7 +5737,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4311,7 +5755,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4329,7 +5773,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4347,7 +5791,7 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4392,7 +5836,7 @@
         <v>10</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -4400,7 +5844,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4418,7 +5862,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4436,7 +5880,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4485,7 +5929,7 @@
         <v>10</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -4493,7 +5937,7 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4511,7 +5955,7 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -4529,7 +5973,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -4547,7 +5991,7 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -4598,7 +6042,7 @@
         <v>10</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -4606,7 +6050,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4624,7 +6068,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4642,7 +6086,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4677,7 +6121,7 @@
         <v>10</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -4685,7 +6129,7 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4703,7 +6147,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4721,7 +6165,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4756,7 +6200,7 @@
         <v>10</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -4764,7 +6208,7 @@
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4782,7 +6226,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4800,7 +6244,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4839,7 +6283,7 @@
         <v>10</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -4847,7 +6291,7 @@
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4865,7 +6309,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4883,7 +6327,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4908,8 +6352,190 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4932,19 +6558,19 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -4969,12 +6595,12 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4985,200 +6611,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>57</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B5:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C13" sqref="C13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,13 +6631,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s">
         <v>155</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>156</v>
-      </c>
-      <c r="F5" t="s">
-        <v>157</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -5230,10 +6668,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -5252,8 +6690,11 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>40</v>
+      </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -5271,7 +6712,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5300,11 +6741,11 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>165</v>
+      <c r="B11">
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -5323,8 +6764,11 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>42</v>
+      </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -5343,8 +6787,11 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>43</v>
+      </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -5363,8 +6810,11 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>44</v>
+      </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -5398,12 +6848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B4:N19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5430,13 +6880,13 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -5445,7 +6895,7 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K4" t="s">
         <v>43</v>
@@ -5457,7 +6907,7 @@
         <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -5495,11 +6945,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>164</v>
+      <c r="B6">
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -5534,8 +6984,11 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>46</v>
+      </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -5570,8 +7023,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>47</v>
+      </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -5606,8 +7062,11 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>48</v>
+      </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -5676,11 +7135,11 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>163</v>
+      <c r="B11">
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -5713,8 +7172,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>50</v>
+      </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1">
         <v>6</v>
@@ -5750,7 +7212,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5766,7 +7228,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5818,10 +7280,10 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="1">
         <v>253</v>
@@ -5859,7 +7321,7 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5875,7 +7337,7 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5891,7 +7353,7 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5914,11 +7376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5943,7 +7405,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5962,10 +7424,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -5977,12 +7439,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7">
         <v>500</v>
@@ -5994,22 +7459,22 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6028,10 +7493,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12">
         <v>1000</v>
@@ -6045,22 +7510,22 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6080,10 +7545,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1">
         <v>700</v>
@@ -6098,12 +7563,12 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6122,10 +7587,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C22">
         <v>500</v>
@@ -6139,12 +7604,12 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6156,7 +7621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6234,7 +7699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6252,13 +7717,13 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6272,7 +7737,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6280,17 +7745,17 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6302,11 +7767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6339,7 +7804,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6363,11 +7828,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>168</v>
+      <c r="A5">
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -6386,8 +7851,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6406,8 +7874,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -6427,12 +7898,12 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6444,7 +7915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6473,7 +7944,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -6493,20 +7964,20 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -6521,7 +7992,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -6529,17 +8000,17 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6551,7 +8022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:H40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -6587,10 +8058,10 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
         <v>116</v>
-      </c>
-      <c r="H3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6743,10 +8214,10 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -6754,17 +8225,17 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6778,10 +8249,10 @@
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -6789,17 +8260,17 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6811,10 +8282,10 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6822,17 +8293,17 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -6846,10 +8317,10 @@
         <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -6857,17 +8328,17 @@
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -6879,28 +8350,28 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6912,980 +8383,94 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30608493-7B8A-47A6-AB05-65DE11B69E97}">
+  <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1">
-        <v>10</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>41</v>
-      </c>
-      <c r="K6" s="1">
-        <v>10</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>59</v>
-      </c>
-      <c r="K7" s="1">
-        <v>10</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>32</v>
-      </c>
-      <c r="J8" s="1">
-        <v>57</v>
-      </c>
-      <c r="K8" s="1">
-        <v>10</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <v>61</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B88231B-B675-41E7-A3C3-B924DFCF4AD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32415" yWindow="5070" windowWidth="18375" windowHeight="9675" tabRatio="765" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32415" yWindow="5070" windowWidth="18375" windowHeight="1110" tabRatio="765"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="248">
   <si>
     <t>letter</t>
   </si>
@@ -414,9 +413,6 @@
     <t>fire_mirror_pal_rings</t>
   </si>
   <si>
-    <t>fire_rings_opp</t>
-  </si>
-  <si>
     <t>juggle_pal_individual_ring_all</t>
   </si>
   <si>
@@ -549,27 +545,9 @@
     <t>33,35</t>
   </si>
   <si>
-    <t>twinkle_speed</t>
-  </si>
-  <si>
-    <t>twinkle_density</t>
-  </si>
-  <si>
-    <t>twinkle_bg</t>
-  </si>
-  <si>
-    <t>auto_select_background_color</t>
-  </si>
-  <si>
-    <t>cool_like_incandescent</t>
-  </si>
-  <si>
     <t>twinkle</t>
   </si>
   <si>
-    <t>part of juggle</t>
-  </si>
-  <si>
     <t>circnoise_pal_1_ring</t>
   </si>
   <si>
@@ -685,12 +663,138 @@
   </si>
   <si>
     <t>fireworks()</t>
+  </si>
+  <si>
+    <t>80,55,70,55</t>
+  </si>
+  <si>
+    <t>90,70,70,90</t>
+  </si>
+  <si>
+    <t>80,100,90,73</t>
+  </si>
+  <si>
+    <t>65,60,70,50</t>
+  </si>
+  <si>
+    <t>65,60,30,50</t>
+  </si>
+  <si>
+    <t>80,75,85,65</t>
+  </si>
+  <si>
+    <t>70,75,55,60</t>
+  </si>
+  <si>
+    <t>100,95,105,100</t>
+  </si>
+  <si>
+    <t>90,85,69,100</t>
+  </si>
+  <si>
+    <t>60,85,69,70</t>
+  </si>
+  <si>
+    <t>80,80,90,60</t>
+  </si>
+  <si>
+    <t>80,70,60,50</t>
+  </si>
+  <si>
+    <t>make one with palette 51 too</t>
+  </si>
+  <si>
+    <t>sparking1-5</t>
+  </si>
+  <si>
+    <t>100,110,90,115</t>
+  </si>
+  <si>
+    <t>69,80,90,55</t>
+  </si>
+  <si>
+    <t>R1-4</t>
+  </si>
+  <si>
+    <t>2,3,1,2</t>
+  </si>
+  <si>
+    <t>8,7,2,4</t>
+  </si>
+  <si>
+    <t>2,3,2,1</t>
+  </si>
+  <si>
+    <t>20,5,18,15</t>
+  </si>
+  <si>
+    <t>2,3,2,4</t>
+  </si>
+  <si>
+    <t>12,5,6,3</t>
+  </si>
+  <si>
+    <t>2,3,2,3</t>
+  </si>
+  <si>
+    <t>10,4,6,7</t>
+  </si>
+  <si>
+    <t>2,1,2,1</t>
+  </si>
+  <si>
+    <t>12,5,10,8</t>
+  </si>
+  <si>
+    <t>99,95,85,75</t>
+  </si>
+  <si>
+    <t>40,30,35,45</t>
+  </si>
+  <si>
+    <t>link with juggle_fire_individual</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>10,4,5,7</t>
+  </si>
+  <si>
+    <t>1,2,1,1</t>
+  </si>
+  <si>
+    <t>10,9,6,7</t>
+  </si>
+  <si>
+    <t>copy mode 19</t>
+  </si>
+  <si>
+    <t>copy mod 19</t>
+  </si>
+  <si>
+    <t>any palettes</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>add write to EEPROM as part of reset function</t>
+  </si>
+  <si>
+    <t>create DEMO sequence</t>
+  </si>
+  <si>
+    <t>add the rest of determined modes and variables</t>
+  </si>
+  <si>
+    <t>set up any further button functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,7 +818,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,6 +846,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,58 +1007,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="75">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1151,6 +1223,67 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1165,362 +1298,355 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ascii "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="letter"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="variable"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="range"/>
+    <tableColumn id="1" name="ascii "/>
+    <tableColumn id="2" name="letter"/>
+    <tableColumn id="3" name="variable"/>
+    <tableColumn id="4" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A1AD7105-03D9-4870-AA05-9CBEB1AD9A63}" name="Table23" displayName="Table23" ref="C3:G8" totalsRowShown="0">
-  <autoFilter ref="C3:G8" xr:uid="{9D610FC5-A212-44BC-8C3E-DF904A9D831E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="C3:G8" totalsRowShown="0">
+  <autoFilter ref="C3:G8"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CAC1F056-6E4A-4B20-9174-22DC12C24235}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{FADA7DCA-456A-4B67-9DDF-0888809EB91E}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{9D84BFBD-E4F7-41E2-86CE-DE5A7A0D2989}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{DFACCDAD-8CC3-44D4-ACA7-50CA009068BE}" name="streamer_velocity"/>
-    <tableColumn id="5" xr3:uid="{3864A4D6-85A1-4441-B104-44DA0171B8BB}" name="explosion_velocity"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="4" name="streamer_velocity"/>
+    <tableColumn id="5" name="explosion_velocity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
-  <autoFilter ref="B3:N44" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
+  <autoFilter ref="B3:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="juggle_index_reset" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="this_fade" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numdots_ring" dataDxfId="66"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="numdots" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="this_beat" dataDxfId="64"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="ringBeat" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="this_diff" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="target_palette" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="this_delay" dataDxfId="60"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="cooling1-4" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="sparking1-4" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="jug16_phase" dataDxfId="57"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="juggle_index_reset" dataDxfId="72"/>
+    <tableColumn id="3" name="this_fade" dataDxfId="71"/>
+    <tableColumn id="4" name="numdots_ring" dataDxfId="70"/>
+    <tableColumn id="12" name="numdots" dataDxfId="69"/>
+    <tableColumn id="5" name="this_beat" dataDxfId="68"/>
+    <tableColumn id="13" name="ringBeat" dataDxfId="67"/>
+    <tableColumn id="6" name="this_diff" dataDxfId="66"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="65"/>
+    <tableColumn id="8" name="this_delay" dataDxfId="64"/>
+    <tableColumn id="11" name="cooling1-4" dataDxfId="63"/>
+    <tableColumn id="10" name="sparking1-4" dataDxfId="62"/>
+    <tableColumn id="9" name="jug16_phase" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table16" displayName="Table16" ref="C4:K18" totalsRowShown="0">
-  <autoFilter ref="C4:K18" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:K18" totalsRowShown="0">
+  <autoFilter ref="C4:K18"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="this_rot" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="this_delay" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="target_palette" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="bg_clr" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="bg_bri" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="this_fade" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Column1" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="Column2" dataDxfId="49"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot" dataDxfId="60"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="59"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="58"/>
+    <tableColumn id="5" name="bg_clr" dataDxfId="57"/>
+    <tableColumn id="6" name="bg_bri" dataDxfId="56"/>
+    <tableColumn id="7" name="this_fade" dataDxfId="55"/>
+    <tableColumn id="8" name="Column1" dataDxfId="54"/>
+    <tableColumn id="9" name="Column2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
-  <autoFilter ref="B5:M11" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
+  <autoFilter ref="B5:M11"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="this_fade" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="this_delay" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="blue_angle" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="blue_low" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="blue_high" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="green_angle" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="green_low" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="green_high" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="red_angle" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="red_low" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="red_high" dataDxfId="38"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade" dataDxfId="52"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="51"/>
+    <tableColumn id="4" name="blue_angle" dataDxfId="50"/>
+    <tableColumn id="5" name="blue_low" dataDxfId="49"/>
+    <tableColumn id="6" name="blue_high" dataDxfId="48"/>
+    <tableColumn id="7" name="green_angle" dataDxfId="47"/>
+    <tableColumn id="8" name="green_low" dataDxfId="46"/>
+    <tableColumn id="9" name="green_high" dataDxfId="45"/>
+    <tableColumn id="10" name="red_angle" dataDxfId="44"/>
+    <tableColumn id="11" name="red_low" dataDxfId="43"/>
+    <tableColumn id="12" name="red_high" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table9" displayName="Table9" ref="B3:I20" totalsRowShown="0">
-  <autoFilter ref="B3:I20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:I20" totalsRowShown="0">
+  <autoFilter ref="B3:I20"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="scale" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="scale2" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="this_delay" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="target_palette" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Column1" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="b" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Column2" dataDxfId="31"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale" dataDxfId="41"/>
+    <tableColumn id="5" name="scale2" dataDxfId="40"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="39"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="38"/>
+    <tableColumn id="6" name="Column1" dataDxfId="37"/>
+    <tableColumn id="7" name="b" dataDxfId="36"/>
+    <tableColumn id="8" name="Column2" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="this_speed"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="all_freq"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="this_cutoff"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="bg_clr"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="bg_bri"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="this_rot"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="this_delay"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_inc"/>
+    <tableColumn id="3" name="this_speed"/>
+    <tableColumn id="4" name="all_freq"/>
+    <tableColumn id="5" name="this_cutoff"/>
+    <tableColumn id="6" name="bg_clr"/>
+    <tableColumn id="7" name="bg_bri"/>
+    <tableColumn id="8" name="this_rot"/>
+    <tableColumn id="9" name="this_delay"/>
+    <tableColumn id="10" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="this_rot"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="this_diff"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot"/>
+    <tableColumn id="3" name="this_diff"/>
+    <tableColumn id="4" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="myfade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="myfade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
-  <autoFilter ref="C4:F14" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
+  <autoFilter ref="C4:F14"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="target_palette"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="this_fade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="4" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{CC23980A-92AA-440A-AE80-1B05E2DB0F49}" name="Table22" displayName="Table22" ref="L4:M56" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="L4:M56" xr:uid="{16D4D34D-1B5E-496D-8FAE-720F4E8BF271}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="L4:M56" totalsRowShown="0" headerRowDxfId="74">
+  <autoFilter ref="L4:M56"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{581B5909-31C2-458C-B035-966BD2754E42}" name="led_mode"/>
-    <tableColumn id="2" xr3:uid="{89167E64-7136-494C-BFA5-0CC1C617EFA7}" name="mode" dataDxfId="0"/>
+    <tableColumn id="1" name="led_mode"/>
+    <tableColumn id="2" name="mode" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table14" displayName="Table14" ref="C5:P44" totalsRowShown="0">
-  <autoFilter ref="C5:P44" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="mode"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="spiral_width" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="spiral_inc" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="this_hue" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="this_inc" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="this_speed" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1100-00000A000000}" name="this_rot" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1100-00000B000000}" name="all_freq" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="this_cutoff" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1100-00000E000000}" name="that_speed" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1100-00000C000000}" name="bg_clr" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1100-00000D000000}" name="bg_bri" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="this_delay" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="target_palette" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:M44" totalsRowShown="0">
+  <autoFilter ref="C5:M44"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="8" name="this_inc" dataDxfId="34"/>
+    <tableColumn id="9" name="this_speed" dataDxfId="33"/>
+    <tableColumn id="10" name="this_rot" dataDxfId="32"/>
+    <tableColumn id="11" name="all_freq" dataDxfId="31"/>
+    <tableColumn id="2" name="this_cutoff" dataDxfId="30"/>
+    <tableColumn id="14" name="that_speed" dataDxfId="29"/>
+    <tableColumn id="12" name="bg_clr" dataDxfId="28"/>
+    <tableColumn id="13" name="bg_bri" dataDxfId="27"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="26"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="C3:J6" totalsRowShown="0">
-  <autoFilter ref="C3:J6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="twinkle_speed"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="twinkle_density"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="twinkle_bg"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="auto_select_background_color"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="cool_like_incandescent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="this_delay"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="target_palette"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:E6" totalsRowShown="0">
+  <autoFilter ref="C3:E6"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="8" name="this_delay" dataDxfId="8"/>
+    <tableColumn id="9" name="target_palette" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table15" displayName="Table15" ref="C5:H15" totalsRowShown="0">
-  <autoFilter ref="C5:H15" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:H15" totalsRowShown="0">
+  <autoFilter ref="C5:H15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="mul1" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="mul2" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="mul3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="this_delay" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="target_palette" dataDxfId="13"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="mul1" dataDxfId="24"/>
+    <tableColumn id="3" name="mul2" dataDxfId="23"/>
+    <tableColumn id="4" name="mul3" dataDxfId="22"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="21"/>
+    <tableColumn id="6" name="target_palette" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table17" displayName="Table17" ref="C4:N19" totalsRowShown="0">
-  <autoFilter ref="C4:N19" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:N19" totalsRowShown="0">
+  <autoFilter ref="C4:N19"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="this_speed" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="that_speed" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="this_rot" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="that_rot" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="all_freq" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="this_cutoff" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" name="that_cutoff" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1400-00000A000000}" name="this_sat" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1400-00000B000000}" name="this_delay" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1400-00000C000000}" name="target_palette" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="brightness" dataDxfId="2"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_speed" dataDxfId="19"/>
+    <tableColumn id="3" name="that_speed" dataDxfId="18"/>
+    <tableColumn id="4" name="this_rot" dataDxfId="17"/>
+    <tableColumn id="5" name="that_rot" dataDxfId="16"/>
+    <tableColumn id="6" name="all_freq" dataDxfId="15"/>
+    <tableColumn id="8" name="this_cutoff" dataDxfId="14"/>
+    <tableColumn id="9" name="that_cutoff" dataDxfId="13"/>
+    <tableColumn id="10" name="this_sat" dataDxfId="12"/>
+    <tableColumn id="11" name="this_delay" dataDxfId="11"/>
+    <tableColumn id="12" name="target_palette" dataDxfId="10"/>
+    <tableColumn id="7" name="brightness" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B3:F15" totalsRowShown="0">
-  <autoFilter ref="B3:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F15" totalsRowShown="0">
+  <autoFilter ref="B3:F15"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="this_fade"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="this_delay"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column1"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="6" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="scale"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="4" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="target_palette"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="target_palette"/>
+    <tableColumn id="3" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
-  <autoFilter ref="B4:E8" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
+  <autoFilter ref="B4:E8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="this_delay "/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="target_palette"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column1"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay "/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="4" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="this_diff"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="this_inc"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="this_fade"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="this_delay"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_diff"/>
+    <tableColumn id="3" name="this_inc"/>
+    <tableColumn id="7" name="this_fade"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="6" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
-  <autoFilter ref="C4:G12" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
+  <autoFilter ref="C4:G12"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="this_hue"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="this_delay"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Column1"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_hue"/>
+    <tableColumn id="4" name="this_inc"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="5" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="B3:H40" totalsRowShown="0">
-  <autoFilter ref="B3:H40" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="cooling"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="sparking"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="this_delay"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="target_palette"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="cooling1-4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="sparking1-4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I37" totalsRowShown="0">
+  <autoFilter ref="B3:I37"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="cooling" dataDxfId="6"/>
+    <tableColumn id="3" name="sparking" dataDxfId="5"/>
+    <tableColumn id="4" name="this_delay" dataDxfId="4"/>
+    <tableColumn id="5" name="target_palette" dataDxfId="3"/>
+    <tableColumn id="6" name="cooling1-4" dataDxfId="2"/>
+    <tableColumn id="7" name="sparking1-4" dataDxfId="1"/>
+    <tableColumn id="8" name="sparking1-5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1822,14 +1948,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:M56"/>
+  <dimension ref="B4:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,7 +1972,7 @@
     <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1877,8 +2003,11 @@
       <c r="M4" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>65</v>
       </c>
@@ -1886,7 +2015,7 @@
         <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1909,8 +2038,11 @@
       <c r="M5" s="19" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>66</v>
       </c>
@@ -1918,7 +2050,7 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1941,8 +2073,11 @@
       <c r="M6" s="20" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>67</v>
       </c>
@@ -1953,7 +2088,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="6">
         <v>99</v>
@@ -1973,8 +2108,11 @@
       <c r="M7" s="20" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>68</v>
       </c>
@@ -1982,7 +2120,7 @@
         <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -2005,8 +2143,11 @@
       <c r="M8" s="20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>69</v>
       </c>
@@ -2014,7 +2155,7 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -2034,7 +2175,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>70</v>
       </c>
@@ -2042,7 +2183,7 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -2066,7 +2207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>71</v>
       </c>
@@ -2098,7 +2239,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>72</v>
       </c>
@@ -2130,7 +2271,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>73</v>
       </c>
@@ -2159,10 +2300,10 @@
         <v>8</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>74</v>
       </c>
@@ -2170,7 +2311,7 @@
         <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -2191,10 +2332,10 @@
         <v>9</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>75</v>
       </c>
@@ -2202,7 +2343,7 @@
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -2226,7 +2367,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>76</v>
       </c>
@@ -2234,7 +2375,7 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -2295,7 +2436,7 @@
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
@@ -2327,7 +2468,7 @@
         <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -2388,10 +2529,10 @@
         <v>95</v>
       </c>
       <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
         <v>124</v>
-      </c>
-      <c r="E21" t="s">
-        <v>125</v>
       </c>
       <c r="G21" s="6">
         <v>113</v>
@@ -2441,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -2455,7 +2596,7 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="6">
         <v>115</v>
@@ -2473,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -2484,7 +2625,7 @@
         <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
         <v>54</v>
@@ -2505,7 +2646,7 @@
         <v>19</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -2522,14 +2663,14 @@
         <v>46</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J25" s="8"/>
       <c r="L25">
         <v>20</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -2555,7 +2696,7 @@
         <v>21</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -2579,7 +2720,7 @@
         <v>22</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -2605,7 +2746,7 @@
         <v>23</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -2622,7 +2763,7 @@
         <v>53</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>54</v>
@@ -2631,7 +2772,7 @@
         <v>24</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -2648,7 +2789,7 @@
         <v>55</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>54</v>
@@ -2657,7 +2798,7 @@
         <v>25</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -2665,7 +2806,7 @@
         <v>26</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -2673,7 +2814,7 @@
         <v>27</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="12:13" x14ac:dyDescent="0.25">
@@ -2681,7 +2822,7 @@
         <v>28</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="12:13" x14ac:dyDescent="0.25">
@@ -2697,7 +2838,7 @@
         <v>30</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="12:13" x14ac:dyDescent="0.25">
@@ -2705,7 +2846,7 @@
         <v>31</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="12:13" x14ac:dyDescent="0.25">
@@ -2737,7 +2878,7 @@
         <v>35</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="12:13" x14ac:dyDescent="0.25">
@@ -2745,7 +2886,7 @@
         <v>36</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="12:13" x14ac:dyDescent="0.25">
@@ -2753,7 +2894,7 @@
         <v>37</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="12:13" x14ac:dyDescent="0.25">
@@ -2761,7 +2902,7 @@
         <v>38</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="12:13" x14ac:dyDescent="0.25">
@@ -2769,7 +2910,7 @@
         <v>39</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="12:13" x14ac:dyDescent="0.25">
@@ -2777,7 +2918,7 @@
         <v>40</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="12:13" x14ac:dyDescent="0.25">
@@ -2785,7 +2926,7 @@
         <v>41</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="12:13" x14ac:dyDescent="0.25">
@@ -2793,7 +2934,7 @@
         <v>42</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="12:13" x14ac:dyDescent="0.25">
@@ -2801,7 +2942,7 @@
         <v>43</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.25">
@@ -2809,7 +2950,7 @@
         <v>44</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="12:13" x14ac:dyDescent="0.25">
@@ -2817,7 +2958,7 @@
         <v>45</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="12:13" x14ac:dyDescent="0.25">
@@ -2825,7 +2966,7 @@
         <v>46</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="12:13" x14ac:dyDescent="0.25">
@@ -2833,7 +2974,7 @@
         <v>47</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="12:13" x14ac:dyDescent="0.25">
@@ -2841,7 +2982,7 @@
         <v>48</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="12:13" x14ac:dyDescent="0.25">
@@ -2849,7 +2990,7 @@
         <v>49</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="12:13" x14ac:dyDescent="0.25">
@@ -2857,7 +2998,7 @@
         <v>50</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="12:13" x14ac:dyDescent="0.25">
@@ -2865,7 +3006,7 @@
         <v>51</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2879,11 +3020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N44"/>
   <sheetViews>
     <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +3039,7 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2923,7 +3064,7 @@
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
         <v>41</v>
@@ -2941,7 +3082,7 @@
         <v>116</v>
       </c>
       <c r="N3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3161,20 +3302,34 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>94</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3183,15 +3338,29 @@
       <c r="B12" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1">
+        <v>80</v>
+      </c>
+      <c r="J12" s="1">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3200,15 +3369,29 @@
       <c r="B13" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>63</v>
+      </c>
+      <c r="K13" s="1">
+        <v>13</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3289,15 +3472,29 @@
       <c r="B17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>9</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -3306,15 +3503,29 @@
       <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>82</v>
+      </c>
+      <c r="K18" s="1">
+        <v>12</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3365,11 +3576,11 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>38</v>
@@ -3389,27 +3600,41 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>16</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>96</v>
+      </c>
+      <c r="K22" s="1">
+        <v>15</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3426,7 +3651,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3443,7 +3668,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3470,11 +3695,11 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>38</v>
@@ -3494,62 +3719,103 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="1">
+        <v>45</v>
+      </c>
+      <c r="K27" s="1">
+        <v>16</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I28" s="1">
+        <v>128</v>
+      </c>
+      <c r="J28" s="1">
+        <v>48</v>
+      </c>
+      <c r="K28" s="1">
+        <v>10</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>40</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I29" s="1">
+        <v>80</v>
+      </c>
+      <c r="J29" s="1">
+        <v>97</v>
+      </c>
+      <c r="K29" s="1">
+        <v>18</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>235</v>
+      </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3576,11 +3842,11 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>38</v>
@@ -3604,58 +3870,112 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" s="1">
+        <v>32</v>
+      </c>
+      <c r="J32" s="1">
+        <v>61</v>
+      </c>
+      <c r="K32" s="1">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>99</v>
+      </c>
+      <c r="K33" s="1">
+        <v>12</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>37</v>
+      </c>
+      <c r="K34" s="1">
+        <v>12</v>
+      </c>
+      <c r="L34" s="23">
+        <v>108115103109</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3682,11 +4002,11 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>38</v>
@@ -3710,9 +4030,11 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3726,25 +4048,46 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>240</v>
+      </c>
       <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20</v>
+      </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="1">
+        <v>48</v>
+      </c>
+      <c r="J38" s="1">
+        <v>61</v>
+      </c>
+      <c r="K38" s="1">
+        <v>10</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3761,7 +4104,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3788,7 +4131,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>37</v>
@@ -3814,7 +4157,7 @@
         <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3831,7 +4174,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3848,7 +4191,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3872,7 +4215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -3910,10 +4253,10 @@
         <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -3946,7 +4289,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -3967,13 +4310,13 @@
         <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3986,7 +4329,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4023,7 +4366,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -4048,7 +4391,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4061,7 +4404,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4093,7 +4436,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4103,12 +4446,12 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4141,7 +4484,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -4158,7 +4501,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4178,7 +4521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4212,31 +4555,31 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" t="s">
         <v>189</v>
       </c>
-      <c r="F5" t="s">
+      <c r="M5" t="s">
         <v>190</v>
-      </c>
-      <c r="G5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4276,7 +4619,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4292,7 +4635,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4354,7 +4697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4376,7 +4719,7 @@
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -4385,13 +4728,13 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4419,7 +4762,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -4442,7 +4785,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -4460,7 +4803,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -4499,7 +4842,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -4522,7 +4865,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -4543,7 +4886,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -4561,7 +4904,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4590,12 +4933,12 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4607,7 +4950,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4619,7 +4962,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4654,7 +4997,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -4669,7 +5012,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -4679,7 +5022,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4694,7 +5037,7 @@
         <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -4704,7 +5047,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
@@ -4733,7 +5076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4903,7 +5246,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4938,7 +5281,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -4970,12 +5313,12 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4987,7 +5330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5054,7 +5397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5190,7 +5533,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -5198,12 +5541,12 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5215,7 +5558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5244,7 +5587,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -5269,7 +5612,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -5286,22 +5629,22 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5313,7 +5656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -5361,7 +5704,7 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5375,17 +5718,17 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -5407,7 +5750,7 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -5421,17 +5764,17 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5443,106 +5786,85 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="B5:Q44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>57</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5554,13 +5876,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5572,13 +5891,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5590,13 +5906,10 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5608,47 +5921,35 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" s="17">
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>58</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5660,13 +5961,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5678,13 +5976,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5696,48 +5991,42 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>37</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>144</v>
+      <c r="C16" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5749,13 +6038,10 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>144</v>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5767,13 +6053,10 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>144</v>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5785,13 +6068,10 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>144</v>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5803,48 +6083,42 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="22">
         <v>38</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
-        <v>145</v>
+      <c r="C21" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -5856,13 +6130,10 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>145</v>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -5874,13 +6145,10 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>145</v>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5892,88 +6160,112 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>39</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="M24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>128</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>64</v>
+      </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1">
+        <v>224</v>
+      </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5985,13 +6277,10 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6003,90 +6292,110 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>40</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G29" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1">
+        <v>80</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>10</v>
+      </c>
+      <c r="M30" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1">
+        <v>120</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>10</v>
+      </c>
+      <c r="M31" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6098,11 +6407,8 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>41</v>
       </c>
@@ -6114,22 +6420,19 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6139,15 +6442,16 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6159,13 +6463,10 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -6177,11 +6478,8 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>42</v>
       </c>
@@ -6193,22 +6491,19 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -6218,15 +6513,16 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -6238,13 +6534,10 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -6256,42 +6549,36 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>43</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>63</v>
       </c>
-      <c r="C42" t="s">
-        <v>153</v>
+      <c r="C42" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6303,13 +6590,10 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>153</v>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6321,13 +6605,10 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>153</v>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -6339,9 +6620,6 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6353,7 +6631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6390,7 +6668,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6421,7 +6699,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6438,7 +6716,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6455,7 +6733,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6489,7 +6767,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6535,11 +6813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="B3:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D4" sqref="D4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6553,55 +6831,48 @@
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>47</v>
       </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>172</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6612,7 +6883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6631,13 +6902,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
         <v>154</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" t="s">
-        <v>156</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -6671,7 +6942,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -6694,7 +6965,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -6712,7 +6983,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -6745,7 +7016,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -6768,7 +7039,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -6791,7 +7062,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -6814,7 +7085,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -6849,7 +7120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6880,13 +7151,13 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -6895,7 +7166,7 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" t="s">
         <v>43</v>
@@ -6907,7 +7178,7 @@
         <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -6949,7 +7220,7 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -6988,7 +7259,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -7027,7 +7298,7 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -7066,7 +7337,7 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -7139,7 +7410,7 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -7176,7 +7447,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="1">
         <v>6</v>
@@ -7212,7 +7483,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -7228,7 +7499,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -7283,7 +7554,7 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="1">
         <v>253</v>
@@ -7321,7 +7592,7 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -7337,7 +7608,7 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -7353,7 +7624,7 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7376,7 +7647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -7548,7 +7819,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C18" s="1">
         <v>700</v>
@@ -7563,12 +7834,12 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7590,7 +7861,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C22">
         <v>500</v>
@@ -7604,12 +7875,12 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -7621,11 +7892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7664,21 +7935,42 @@
       <c r="B5" t="s">
         <v>60</v>
       </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>60</v>
       </c>
+      <c r="C6">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>60</v>
       </c>
+      <c r="C7">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>60</v>
       </c>
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -7688,6 +7980,9 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7699,7 +7994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7717,13 +8012,13 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7737,7 +8032,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7745,17 +8040,17 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7767,7 +8062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7915,7 +8210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7944,7 +8239,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -7964,20 +8259,20 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -7992,7 +8287,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -8000,17 +8295,17 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -8022,11 +8317,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A3:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8037,11 +8332,11 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -8063,8 +8358,11 @@
       <c r="H3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>4</v>
       </c>
@@ -8078,31 +8376,68 @@
         <v>10</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1">
+        <v>120</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -8118,26 +8453,66 @@
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>97</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -8151,26 +8526,56 @@
         <v>10</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>7</v>
       </c>
@@ -8186,29 +8591,71 @@
       <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>8</v>
       </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
@@ -8219,29 +8666,59 @@
       <c r="H21" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>9</v>
       </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
@@ -8254,29 +8731,79 @@
       <c r="H25" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <v>97</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>52</v>
+      </c>
+      <c r="G27" s="23">
+        <v>101100115110</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>74</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>10</v>
       </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
@@ -8287,29 +8814,65 @@
       <c r="H29" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="23">
+        <v>120110115130</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>11</v>
       </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
@@ -8322,29 +8885,77 @@
       <c r="H33" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1">
+        <v>68</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1">
+        <v>51</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1">
+        <v>73</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>12</v>
       </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
@@ -8355,24 +8966,7 @@
       <c r="H37" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>122</v>
-      </c>
+      <c r="I37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8383,10 +8977,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30608493-7B8A-47A6-AB05-65DE11B69E97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -8410,10 +9004,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -8438,7 +9032,7 @@
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -8447,7 +9041,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -8456,7 +9050,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -8465,7 +9059,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4FF310-3A00-457C-91BE-F1FA9B98F5A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32415" yWindow="5070" windowWidth="18375" windowHeight="1110" tabRatio="765"/>
+    <workbookView xWindow="-22395" yWindow="3765" windowWidth="21810" windowHeight="12525" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -35,17 +36,23 @@
     <sheet name="three_sin" sheetId="15" r:id="rId21"/>
     <sheet name="two_sin" sheetId="16" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="255">
   <si>
     <t>letter</t>
   </si>
@@ -464,24 +471,12 @@
     <t>spiral_width</t>
   </si>
   <si>
-    <t>spiral</t>
-  </si>
-  <si>
     <t>spiral_inc</t>
   </si>
   <si>
-    <t>spiral_pal</t>
-  </si>
-  <si>
     <t xml:space="preserve">f </t>
   </si>
   <si>
-    <t>spiral_sin</t>
-  </si>
-  <si>
-    <t>spiral_sin_sub</t>
-  </si>
-  <si>
     <t>one_sin_spiral</t>
   </si>
   <si>
@@ -503,9 +498,6 @@
     <t>plasma_spiral2</t>
   </si>
   <si>
-    <t>palette_spiral</t>
-  </si>
-  <si>
     <t>mul1</t>
   </si>
   <si>
@@ -542,9 +534,6 @@
     <t>matrix_saw</t>
   </si>
   <si>
-    <t>33,35</t>
-  </si>
-  <si>
     <t>twinkle</t>
   </si>
   <si>
@@ -569,9 +558,6 @@
     <t>matrix_ray</t>
   </si>
   <si>
-    <t>juggle_pal_individual_ring_onedir_phase</t>
-  </si>
-  <si>
     <t>inoise_mover</t>
   </si>
   <si>
@@ -701,9 +687,6 @@
     <t>80,70,60,50</t>
   </si>
   <si>
-    <t>make one with palette 51 too</t>
-  </si>
-  <si>
     <t>sparking1-5</t>
   </si>
   <si>
@@ -752,9 +735,6 @@
     <t>40,30,35,45</t>
   </si>
   <si>
-    <t>link with juggle_fire_individual</t>
-  </si>
-  <si>
     <t>1,1,1,1</t>
   </si>
   <si>
@@ -767,12 +747,6 @@
     <t>10,9,6,7</t>
   </si>
   <si>
-    <t>copy mode 19</t>
-  </si>
-  <si>
-    <t>copy mod 19</t>
-  </si>
-  <si>
     <t>any palettes</t>
   </si>
   <si>
@@ -785,17 +759,71 @@
     <t>create DEMO sequence</t>
   </si>
   <si>
-    <t>add the rest of determined modes and variables</t>
-  </si>
-  <si>
     <t>set up any further button functions</t>
+  </si>
+  <si>
+    <t>find more fire palette colors</t>
+  </si>
+  <si>
+    <t>69,69,69,69</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>numdots_ring_arr[]</t>
+  </si>
+  <si>
+    <t>110,99,104,111</t>
+  </si>
+  <si>
+    <t>68,74,64,90</t>
+  </si>
+  <si>
+    <t>100,90,85,103</t>
+  </si>
+  <si>
+    <t>55,63,64,57</t>
+  </si>
+  <si>
+    <t>Rotary Function</t>
+  </si>
+  <si>
+    <t>SwitchB On</t>
+  </si>
+  <si>
+    <t>Rotate</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Brightness</t>
+  </si>
+  <si>
+    <t>mode++</t>
+  </si>
+  <si>
+    <t>rand(mode) / rand(palette)</t>
+  </si>
+  <si>
+    <t>mode++ / rand(palette)</t>
+  </si>
+  <si>
+    <t>rand(palette)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,8 +845,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,18 +875,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -979,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1000,25 +1022,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1238,52 +1318,6 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1298,355 +1332,370 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ascii "/>
-    <tableColumn id="2" name="letter"/>
-    <tableColumn id="3" name="variable"/>
-    <tableColumn id="4" name="range"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ascii "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="letter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="variable"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="C3:G8" totalsRowShown="0">
-  <autoFilter ref="C3:G8"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="3" name="this_delay"/>
-    <tableColumn id="4" name="streamer_velocity"/>
-    <tableColumn id="5" name="explosion_velocity"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table8" displayName="Table8" ref="B3:I38" totalsRowShown="0">
+  <autoFilter ref="B3:I38" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="cooling" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="sparking" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="this_delay" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="target_palette" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="cooling1-4" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="sparking1-4" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="sparking1-5" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N44" totalsRowShown="0">
-  <autoFilter ref="B3:N44"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="juggle_index_reset" dataDxfId="72"/>
-    <tableColumn id="3" name="this_fade" dataDxfId="71"/>
-    <tableColumn id="4" name="numdots_ring" dataDxfId="70"/>
-    <tableColumn id="12" name="numdots" dataDxfId="69"/>
-    <tableColumn id="5" name="this_beat" dataDxfId="68"/>
-    <tableColumn id="13" name="ringBeat" dataDxfId="67"/>
-    <tableColumn id="6" name="this_diff" dataDxfId="66"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="65"/>
-    <tableColumn id="8" name="this_delay" dataDxfId="64"/>
-    <tableColumn id="11" name="cooling1-4" dataDxfId="63"/>
-    <tableColumn id="10" name="sparking1-4" dataDxfId="62"/>
-    <tableColumn id="9" name="jug16_phase" dataDxfId="61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table23" displayName="Table23" ref="C3:H8" totalsRowShown="0">
+  <autoFilter ref="C3:H8" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="streamer_velocity"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="explosion_velocity"/>
+    <tableColumn id="6" xr3:uid="{33A2169D-5FC7-454A-BBF4-A3D0C439B678}" name="Column1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:K18" totalsRowShown="0">
-  <autoFilter ref="C4:K18"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot" dataDxfId="60"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="59"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="58"/>
-    <tableColumn id="5" name="bg_clr" dataDxfId="57"/>
-    <tableColumn id="6" name="bg_bri" dataDxfId="56"/>
-    <tableColumn id="7" name="this_fade" dataDxfId="55"/>
-    <tableColumn id="8" name="Column1" dataDxfId="54"/>
-    <tableColumn id="9" name="Column2" dataDxfId="53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table7" displayName="Table7" ref="B3:N41" totalsRowShown="0">
+  <autoFilter ref="B3:N41" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="mode"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="this_delay" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="target_palette" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="juggle_index_reset" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="this_fade" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="numdots_ring" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="numdots_ring_arr[]" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="this_beat" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="ringBeat" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="this_diff" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="cooling1-4" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="sparking1-4" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="jug16_phase" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
-  <autoFilter ref="B5:M11"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade" dataDxfId="52"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="51"/>
-    <tableColumn id="4" name="blue_angle" dataDxfId="50"/>
-    <tableColumn id="5" name="blue_low" dataDxfId="49"/>
-    <tableColumn id="6" name="blue_high" dataDxfId="48"/>
-    <tableColumn id="7" name="green_angle" dataDxfId="47"/>
-    <tableColumn id="8" name="green_low" dataDxfId="46"/>
-    <tableColumn id="9" name="green_high" dataDxfId="45"/>
-    <tableColumn id="10" name="red_angle" dataDxfId="44"/>
-    <tableColumn id="11" name="red_low" dataDxfId="43"/>
-    <tableColumn id="12" name="red_high" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="C4:K18" totalsRowShown="0">
+  <autoFilter ref="C4:K18" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="this_rot" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="this_delay" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="target_palette" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="bg_clr" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="bg_bri" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="this_fade" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Column1" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="Column2" dataDxfId="52"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:I20" totalsRowShown="0">
-  <autoFilter ref="B3:I20"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale" dataDxfId="41"/>
-    <tableColumn id="5" name="scale2" dataDxfId="40"/>
-    <tableColumn id="3" name="this_delay" dataDxfId="39"/>
-    <tableColumn id="4" name="target_palette" dataDxfId="38"/>
-    <tableColumn id="6" name="Column1" dataDxfId="37"/>
-    <tableColumn id="7" name="b" dataDxfId="36"/>
-    <tableColumn id="8" name="Column2" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
+  <autoFilter ref="B5:M11" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="this_fade" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="this_delay" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="blue_angle" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="blue_low" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="blue_high" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="green_angle" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="green_low" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="green_high" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="red_angle" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" name="red_low" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="red_high" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_inc"/>
-    <tableColumn id="3" name="this_speed"/>
-    <tableColumn id="4" name="all_freq"/>
-    <tableColumn id="5" name="this_cutoff"/>
-    <tableColumn id="6" name="bg_clr"/>
-    <tableColumn id="7" name="bg_bri"/>
-    <tableColumn id="8" name="this_rot"/>
-    <tableColumn id="9" name="this_delay"/>
-    <tableColumn id="10" name="target_palette"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table9" displayName="Table9" ref="B3:I20" totalsRowShown="0">
+  <autoFilter ref="B3:I20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="scale" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="scale2" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="this_delay" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="target_palette" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Column1" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="b" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" name="Column2" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="this_inc"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="this_speed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="all_freq"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="this_cutoff"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="bg_clr"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="bg_bri"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="this_rot"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0E00-000009000000}" name="this_delay"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0E00-00000A000000}" name="target_palette"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay"/>
-    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16"/>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_rot"/>
-    <tableColumn id="3" name="this_diff"/>
-    <tableColumn id="4" name="this_delay"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="3" name="this_delay"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="myfade"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="this_rot"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="this_diff"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
-  <autoFilter ref="C4:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="this_fade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="myfade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2CB0AF64-2043-4AFC-9DD2-7851A54AF5A8}" name="Table24" displayName="Table24" ref="O12:Q16" totalsRowShown="0">
+  <autoFilter ref="O12:Q16" xr:uid="{FBE668EB-B6DB-4D5A-832E-ECE4A1789878}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{105CB44F-EEA5-4D26-B564-88DF596DC969}" name="Rotary Function"/>
+    <tableColumn id="4" xr3:uid="{0335C800-CF48-4B73-8912-9D69E644716D}" name="Rotate"/>
+    <tableColumn id="2" xr3:uid="{5152827C-77A3-45CE-B6C2-349AD70B9611}" name="SwitchB On"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
+  <autoFilter ref="C4:F14" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay"/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="4" name="this_fade"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="this_delay"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="target_palette"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="L4:M56" totalsRowShown="0" headerRowDxfId="74">
-  <autoFilter ref="L4:M56"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="led_mode"/>
-    <tableColumn id="2" name="mode" dataDxfId="73"/>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table14" displayName="Table14" ref="C5:O22" totalsRowShown="0">
+  <autoFilter ref="C5:O22" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="mode"/>
+    <tableColumn id="3" xr3:uid="{6905E999-B173-4864-BB8A-BC6D37BB6ABC}" name="d" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A76E4A82-7488-48AF-B7BE-76BD0688E035}" name="f " dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="this_inc" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="this_speed" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="this_rot" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="all_freq" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="this_cutoff" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1300-00000E000000}" name="that_speed" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="bg_clr" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1300-00000D000000}" name="bg_bri" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="this_delay" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="target_palette" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table19" displayName="Table19" ref="C3:E6" totalsRowShown="0">
+  <autoFilter ref="C3:E6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="mode"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="this_delay" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" name="target_palette" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table15" displayName="Table15" ref="C5:H15" totalsRowShown="0">
+  <autoFilter ref="C5:H15" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="mul1" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="mul2" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="mul3" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="this_delay" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="target_palette" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:M44" totalsRowShown="0">
-  <autoFilter ref="C5:M44"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="8" name="this_inc" dataDxfId="34"/>
-    <tableColumn id="9" name="this_speed" dataDxfId="33"/>
-    <tableColumn id="10" name="this_rot" dataDxfId="32"/>
-    <tableColumn id="11" name="all_freq" dataDxfId="31"/>
-    <tableColumn id="2" name="this_cutoff" dataDxfId="30"/>
-    <tableColumn id="14" name="that_speed" dataDxfId="29"/>
-    <tableColumn id="12" name="bg_clr" dataDxfId="28"/>
-    <tableColumn id="13" name="bg_bri" dataDxfId="27"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="26"/>
-    <tableColumn id="7" name="target_palette" dataDxfId="25"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:E6" totalsRowShown="0">
-  <autoFilter ref="C3:E6"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="8" name="this_delay" dataDxfId="8"/>
-    <tableColumn id="9" name="target_palette" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:H15" totalsRowShown="0">
-  <autoFilter ref="C5:H15"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="mul1" dataDxfId="24"/>
-    <tableColumn id="3" name="mul2" dataDxfId="23"/>
-    <tableColumn id="4" name="mul3" dataDxfId="22"/>
-    <tableColumn id="5" name="this_delay" dataDxfId="21"/>
-    <tableColumn id="6" name="target_palette" dataDxfId="20"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:N19" totalsRowShown="0">
-  <autoFilter ref="C4:N19"/>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table17" displayName="Table17" ref="C4:N19" totalsRowShown="0">
+  <autoFilter ref="C4:N19" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_speed" dataDxfId="19"/>
-    <tableColumn id="3" name="that_speed" dataDxfId="18"/>
-    <tableColumn id="4" name="this_rot" dataDxfId="17"/>
-    <tableColumn id="5" name="that_rot" dataDxfId="16"/>
-    <tableColumn id="6" name="all_freq" dataDxfId="15"/>
-    <tableColumn id="8" name="this_cutoff" dataDxfId="14"/>
-    <tableColumn id="9" name="that_cutoff" dataDxfId="13"/>
-    <tableColumn id="10" name="this_sat" dataDxfId="12"/>
-    <tableColumn id="11" name="this_delay" dataDxfId="11"/>
-    <tableColumn id="12" name="target_palette" dataDxfId="10"/>
-    <tableColumn id="7" name="brightness" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="this_speed" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="that_speed" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="this_rot" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="that_rot" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="all_freq" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1600-000008000000}" name="this_cutoff" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1600-000009000000}" name="that_cutoff" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1600-00000A000000}" name="this_sat" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1600-00000B000000}" name="this_delay" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1600-00000C000000}" name="target_palette" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="brightness" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F15" totalsRowShown="0">
-  <autoFilter ref="B3:F15"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_fade"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="6" name="Column1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="L4:M97" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="L4:M97" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="led_mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="mode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B3:F15" totalsRowShown="0">
+  <autoFilter ref="B3:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="scale"/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="4" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="this_fade"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="this_delay"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="scale"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="this_delay"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="target_palette"/>
-    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="target_palette"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
-  <autoFilter ref="B4:E8"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
+  <autoFilter ref="B4:E8" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_delay "/>
-    <tableColumn id="3" name="target_palette"/>
-    <tableColumn id="4" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_diff"/>
-    <tableColumn id="3" name="this_inc"/>
-    <tableColumn id="7" name="this_fade"/>
-    <tableColumn id="4" name="target_palette"/>
-    <tableColumn id="5" name="this_delay"/>
-    <tableColumn id="6" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="this_delay "/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="target_palette"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
-  <autoFilter ref="C4:G12"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="this_hue"/>
-    <tableColumn id="4" name="this_inc"/>
-    <tableColumn id="3" name="this_delay"/>
-    <tableColumn id="5" name="Column1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="this_diff"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="this_inc"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="this_fade"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="target_palette"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="this_delay"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I37" totalsRowShown="0">
-  <autoFilter ref="B3:I37"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="mode"/>
-    <tableColumn id="2" name="cooling" dataDxfId="6"/>
-    <tableColumn id="3" name="sparking" dataDxfId="5"/>
-    <tableColumn id="4" name="this_delay" dataDxfId="4"/>
-    <tableColumn id="5" name="target_palette" dataDxfId="3"/>
-    <tableColumn id="6" name="cooling1-4" dataDxfId="2"/>
-    <tableColumn id="7" name="sparking1-4" dataDxfId="1"/>
-    <tableColumn id="8" name="sparking1-5" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
+  <autoFilter ref="C4:G12" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="mode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="this_hue"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="this_inc"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="this_delay"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1948,14 +1997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:O56"/>
+  <dimension ref="B4:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,10 +2018,14 @@
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1997,17 +2050,17 @@
       <c r="J4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="16" t="s">
         <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>65</v>
       </c>
@@ -2035,14 +2088,14 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="17" t="s">
         <v>103</v>
       </c>
       <c r="O5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>66</v>
       </c>
@@ -2050,7 +2103,7 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -2068,16 +2121,17 @@
         <v>7</v>
       </c>
       <c r="L6">
+        <f>L5+1</f>
         <v>1</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="18" t="s">
         <v>103</v>
       </c>
       <c r="O6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>67</v>
       </c>
@@ -2103,16 +2157,17 @@
         <v>71</v>
       </c>
       <c r="L7">
+        <f t="shared" ref="L7:L70" si="0">L6+1</f>
         <v>2</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="18" t="s">
         <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>68</v>
       </c>
@@ -2120,7 +2175,7 @@
         <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -2138,16 +2193,17 @@
         <v>7</v>
       </c>
       <c r="L8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="18" t="s">
         <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>69</v>
       </c>
@@ -2155,7 +2211,7 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -2169,13 +2225,14 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="L9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>70</v>
       </c>
@@ -2183,7 +2240,7 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -2201,13 +2258,14 @@
         <v>16</v>
       </c>
       <c r="L10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>71</v>
       </c>
@@ -2233,13 +2291,14 @@
         <v>19</v>
       </c>
       <c r="L11">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>72</v>
       </c>
@@ -2265,13 +2324,23 @@
         <v>7</v>
       </c>
       <c r="L12">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>244</v>
+      </c>
+      <c r="P12" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>73</v>
       </c>
@@ -2297,13 +2366,23 @@
         <v>7</v>
       </c>
       <c r="L13">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>74</v>
       </c>
@@ -2311,7 +2390,7 @@
         <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -2329,13 +2408,23 @@
         <v>7</v>
       </c>
       <c r="L14">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>75</v>
       </c>
@@ -2343,7 +2432,7 @@
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -2361,13 +2450,23 @@
         <v>7</v>
       </c>
       <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15" s="20" t="s">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M15" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>76</v>
       </c>
@@ -2375,7 +2474,7 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -2393,10 +2492,20 @@
         <v>7</v>
       </c>
       <c r="L16">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="18" t="s">
         <v>111</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -2422,9 +2531,10 @@
         <v>25</v>
       </c>
       <c r="L17">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2454,9 +2564,10 @@
         <v>7</v>
       </c>
       <c r="L18">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2486,9 +2597,10 @@
         <v>7</v>
       </c>
       <c r="L19">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2515,9 +2627,10 @@
         <v>7</v>
       </c>
       <c r="L20">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2547,9 +2660,10 @@
         <v>7</v>
       </c>
       <c r="L21">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2579,10 +2693,11 @@
         <v>7</v>
       </c>
       <c r="L22">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M22" s="20" t="s">
-        <v>162</v>
+      <c r="M22" s="18" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -2611,10 +2726,11 @@
         <v>7</v>
       </c>
       <c r="L23">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>163</v>
+      <c r="M23" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -2625,7 +2741,7 @@
         <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
         <v>54</v>
@@ -2643,10 +2759,11 @@
         <v>4</v>
       </c>
       <c r="L24">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>173</v>
+      <c r="M24" s="18" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -2663,13 +2780,14 @@
         <v>46</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J25" s="8"/>
       <c r="L25">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="18" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2693,9 +2811,10 @@
         <v>7</v>
       </c>
       <c r="L26">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="18" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2717,9 +2836,10 @@
       </c>
       <c r="J27" s="8"/>
       <c r="L27">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="18" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2743,9 +2863,10 @@
         <v>7</v>
       </c>
       <c r="L28">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2763,15 +2884,16 @@
         <v>53</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>54</v>
       </c>
       <c r="L29">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2789,259 +2911,659 @@
         <v>55</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>54</v>
       </c>
       <c r="L30">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L31">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M31" s="20" t="s">
-        <v>176</v>
+      <c r="M31" s="18" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L32">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M32" s="20" t="s">
-        <v>176</v>
+      <c r="M32" s="18" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L33">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="M33" s="20" t="s">
-        <v>176</v>
+      <c r="M33" s="18" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L34">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L35">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L36">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L37">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L38">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="M38" s="20" t="s">
+      <c r="M38" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L39">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L40">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="M40" s="20" t="s">
-        <v>161</v>
+      <c r="M40" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L41">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="18" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="42" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L42">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="M42" s="20" t="s">
+      <c r="M42" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L43">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="M43" s="20" t="s">
+      <c r="M43" s="18" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L44">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="M44" s="20" t="s">
-        <v>156</v>
+      <c r="M44" s="18" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L45">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="M45" s="20" t="s">
-        <v>156</v>
+      <c r="M45" s="18" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L46">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="M46" s="20" t="s">
-        <v>157</v>
+      <c r="M46" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L47">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="M47" s="20" t="s">
-        <v>157</v>
+      <c r="M47" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L48">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="M48" s="20" t="s">
-        <v>157</v>
+      <c r="M48" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L49">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="M49" s="20" t="s">
-        <v>157</v>
+      <c r="M49" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L50">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="M50" s="20" t="s">
-        <v>158</v>
+      <c r="M50" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L51">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="M51" s="20" t="s">
-        <v>158</v>
+      <c r="M51" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L52">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="M52" s="20" t="s">
-        <v>158</v>
+      <c r="M52" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L53">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="M53" s="20" t="s">
-        <v>158</v>
+      <c r="M53" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L54">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="M54" s="20" t="s">
-        <v>159</v>
+      <c r="M54" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L55">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M55" s="20" t="s">
-        <v>159</v>
+      <c r="M55" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L56">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="M56" s="20" t="s">
-        <v>160</v>
+      <c r="M56" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="M58" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M59" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="M60" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="M62" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="M63" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="M64" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="M65" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="M66" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="M67" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="M68" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="M69" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="M70" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <f t="shared" ref="L71:L97" si="1">L70+1</f>
+        <v>66</v>
+      </c>
+      <c r="M71" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="M72" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="M73" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="M74" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="M75" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="M76" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="M77" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="M78" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="M79" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="M80" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="M81" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="M82" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="M83" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="M84" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="M85" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="M86" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="M87" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="M88" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="M89" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="M90" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="M91" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="M92" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="M93" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="M94" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="M95" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="M96" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="M97" s="18" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A3:N41"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A9" zoomScale="77" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="1" max="1" width="23.5703125" style="15" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3049,31 +3571,31 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>123</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
       </c>
       <c r="L3" t="s">
         <v>115</v>
@@ -3082,7 +3604,7 @@
         <v>116</v>
       </c>
       <c r="N3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3090,27 +3612,27 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3124,27 +3646,27 @@
         <v>112</v>
       </c>
       <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>2</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>8</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
         <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1">
-        <v>10</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -3158,27 +3680,27 @@
         <v>112</v>
       </c>
       <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>3</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>2</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
         <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>41</v>
-      </c>
-      <c r="K6" s="1">
-        <v>10</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3192,27 +3714,27 @@
         <v>112</v>
       </c>
       <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>6</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
         <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>59</v>
-      </c>
-      <c r="K7" s="1">
-        <v>10</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3226,27 +3748,27 @@
         <v>112</v>
       </c>
       <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>64</v>
       </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>6</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
         <v>32</v>
-      </c>
-      <c r="J8" s="1">
-        <v>57</v>
-      </c>
-      <c r="K8" s="1">
-        <v>10</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3274,123 +3796,129 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>165</v>
+      <c r="A11" s="15">
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>4</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>5</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
         <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>94</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>72</v>
+      </c>
       <c r="B12" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
         <v>40</v>
       </c>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
         <v>80</v>
-      </c>
-      <c r="J12" s="1">
-        <v>60</v>
-      </c>
-      <c r="K12" s="1">
-        <v>10</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>73</v>
+      </c>
       <c r="B13" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="1">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
         <v>32</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>2</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>8</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
         <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>63</v>
-      </c>
-      <c r="K13" s="1">
-        <v>13</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -3435,27 +3963,27 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>117</v>
@@ -3467,67 +3995,78 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
         <v>3</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
-        <v>10</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1">
-        <v>9</v>
-      </c>
-      <c r="K17" s="1">
-        <v>7</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>64</v>
+      </c>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>75</v>
+      </c>
       <c r="B18" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="F18" s="1">
         <v>32</v>
       </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1">
-        <v>82</v>
-      </c>
-      <c r="K18" s="1">
-        <v>12</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="1">
+        <v>95</v>
+      </c>
+      <c r="M18" s="1">
+        <v>87</v>
+      </c>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3569,27 +4108,27 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -3597,42 +4136,39 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="1">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <v>96</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="F22" s="1">
         <v>16</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I22" s="1">
+        <v>215</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" s="1">
         <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>96</v>
-      </c>
-      <c r="K22" s="1">
-        <v>15</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="B23" t="s">
         <v>122</v>
       </c>
@@ -3688,27 +4224,27 @@
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -3716,104 +4252,107 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
         <v>126</v>
       </c>
       <c r="C27" s="1">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
+      <c r="F27" s="1">
         <v>32</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I27" s="1">
+        <v>217</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" s="1">
         <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>45</v>
-      </c>
-      <c r="K27" s="1">
-        <v>16</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>79</v>
+      </c>
       <c r="B28" t="s">
         <v>126</v>
       </c>
       <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="D28" s="1">
+      <c r="F28" s="1">
         <v>8</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I28" s="1">
+        <v>219</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" s="1">
         <v>128</v>
-      </c>
-      <c r="J28" s="1">
-        <v>48</v>
-      </c>
-      <c r="K28" s="1">
-        <v>10</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>81</v>
+      </c>
       <c r="B29" t="s">
         <v>126</v>
       </c>
       <c r="C29" s="1">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1">
+        <v>97</v>
+      </c>
+      <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="D29" s="1">
+      <c r="F29" s="1">
         <v>40</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I29" s="1">
+        <v>221</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="1">
         <v>80</v>
-      </c>
-      <c r="J29" s="1">
-        <v>97</v>
-      </c>
-      <c r="K29" s="1">
-        <v>18</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>235</v>
-      </c>
       <c r="B30" t="s">
         <v>126</v>
       </c>
@@ -3835,27 +4374,27 @@
         <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>117</v>
@@ -3867,239 +4406,303 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>231</v>
+        <v>45</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>32</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I32" s="1">
-        <v>32</v>
-      </c>
-      <c r="J32" s="1">
-        <v>61</v>
+        <v>217</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="K32" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>83</v>
+      </c>
       <c r="B33" t="s">
         <v>127</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
+        <v>61</v>
+      </c>
+      <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>236</v>
+      <c r="F33" s="1">
+        <v>8</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>99</v>
+        <v>223</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="K33" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>80</v>
+      </c>
       <c r="B34" t="s">
         <v>127</v>
       </c>
       <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>238</v>
+      <c r="F34" s="1">
+        <v>8</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>37</v>
+        <v>219</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="K34" s="1">
-        <v>12</v>
-      </c>
-      <c r="L34" s="23">
-        <v>108115103109</v>
+        <v>128</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>82</v>
+      </c>
       <c r="B35" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1">
+        <v>97</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>40</v>
+      </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" s="1">
+        <v>80</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>222</v>
+      <c r="A36" s="15">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="1">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1">
+        <v>37</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="19">
+        <v>108115103109</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>20</v>
-      </c>
-      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" s="1">
-        <v>48</v>
-      </c>
-      <c r="J38" s="1">
-        <v>61</v>
-      </c>
-      <c r="K38" s="1">
-        <v>10</v>
+        <v>214</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>86</v>
+      </c>
       <c r="B39" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>61</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>20</v>
+      </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="1">
+        <v>48</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4120,91 +4723,21 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <v>61</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="N41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4215,7 +4748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B4:K18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -4253,10 +4786,10 @@
         <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -4289,7 +4822,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -4310,13 +4843,13 @@
         <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4329,7 +4862,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4366,7 +4899,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -4391,7 +4924,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4404,7 +4937,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4436,7 +4969,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4446,12 +4979,12 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4484,7 +5017,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -4501,7 +5034,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4521,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A5:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4555,31 +5088,31 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" t="s">
         <v>182</v>
       </c>
-      <c r="F5" t="s">
+      <c r="M5" t="s">
         <v>183</v>
-      </c>
-      <c r="G5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4619,7 +5152,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4635,7 +5168,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4697,7 +5230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A3:I20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4728,13 +5261,13 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4933,12 +5466,12 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4950,7 +5483,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4962,7 +5495,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4997,7 +5530,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -5012,7 +5545,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -5022,7 +5555,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -5037,7 +5570,7 @@
         <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -5047,7 +5580,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
@@ -5076,7 +5609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B4:L14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5330,7 +5863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5397,7 +5930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5533,7 +6066,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -5541,12 +6074,12 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5558,7 +6091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5656,7 +6189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B4:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -5786,11 +6319,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:N44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="B5:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5807,94 +6340,161 @@
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>89</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>57</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>94</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>128</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>64</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1">
+        <v>224</v>
+      </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="16" t="s">
-        <v>139</v>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>141</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5906,10 +6506,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="16" t="s">
-        <v>139</v>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>141</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5921,65 +6523,121 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="17">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>58</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1">
+        <v>80</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1">
+        <v>120</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="16" t="s">
-        <v>141</v>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>142</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5991,45 +6649,43 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>36</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>99</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6038,10 +6694,12 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="21" t="s">
-        <v>143</v>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>146</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6053,10 +6711,12 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="21" t="s">
-        <v>143</v>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>146</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6068,13 +6728,19 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -6083,42 +6749,36 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="22">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>59</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>144</v>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>147</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6130,10 +6790,12 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="21" t="s">
-        <v>144</v>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>147</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6145,481 +6807,8 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
-        <v>39</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>128</v>
-      </c>
-      <c r="F25" s="1">
-        <v>7</v>
-      </c>
-      <c r="G25" s="1">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1">
-        <v>64</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>24</v>
-      </c>
-      <c r="H26" s="1">
-        <v>224</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>4</v>
-      </c>
-      <c r="M26" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>40</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>20</v>
-      </c>
-      <c r="G30" s="1">
-        <v>80</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1">
-        <v>10</v>
-      </c>
-      <c r="M30" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>20</v>
-      </c>
-      <c r="G31" s="1">
-        <v>120</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1">
-        <v>10</v>
-      </c>
-      <c r="M31" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <v>41</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
-        <v>42</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>62</v>
-      </c>
-      <c r="C38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1">
-        <v>1</v>
-      </c>
-      <c r="M38" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="1">
-        <v>43</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>63</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6631,7 +6820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6668,7 +6857,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6699,7 +6888,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6716,7 +6905,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6733,7 +6922,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6767,7 +6956,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6813,11 +7002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B3:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6858,7 +7047,7 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -6869,7 +7058,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -6883,7 +7072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B5:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6902,13 +7091,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -6942,7 +7131,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -6965,7 +7154,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -6983,7 +7172,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -7016,7 +7205,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -7039,7 +7228,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -7062,7 +7251,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -7085,7 +7274,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -7120,7 +7309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B4:N19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7151,13 +7340,13 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -7166,7 +7355,7 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
         <v>43</v>
@@ -7178,7 +7367,7 @@
         <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -7220,7 +7409,7 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -7259,7 +7448,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -7298,7 +7487,7 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -7337,7 +7526,7 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -7410,7 +7599,7 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -7447,7 +7636,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1">
         <v>6</v>
@@ -7483,7 +7672,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -7499,7 +7688,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -7554,7 +7743,7 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1">
         <v>253</v>
@@ -7592,7 +7781,7 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -7608,7 +7797,7 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -7624,7 +7813,7 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7647,7 +7836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -7819,7 +8008,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C18" s="1">
         <v>700</v>
@@ -7834,12 +8023,12 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7861,7 +8050,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C22">
         <v>500</v>
@@ -7875,12 +8064,12 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -7892,11 +8081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7930,7 +8119,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -7943,6 +8132,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>53</v>
+      </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
@@ -7954,6 +8146,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>54</v>
+      </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
@@ -7969,7 +8164,7 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7980,9 +8175,6 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7994,7 +8186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8012,13 +8204,13 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8032,7 +8224,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8040,17 +8232,17 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -8062,7 +8254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8210,11 +8402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="C4:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B4" sqref="B4:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8225,7 +8417,7 @@
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -8239,10 +8431,10 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>58</v>
       </c>
@@ -8254,28 +8446,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>73</v>
-      </c>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>59</v>
       </c>
@@ -8287,25 +8476,22 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>74</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -8317,11 +8503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A3:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8334,6 +8520,7 @@
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8359,7 +8546,7 @@
         <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8382,7 +8569,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -8459,7 +8646,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -8481,6 +8668,9 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>57</v>
+      </c>
       <c r="B11" t="s">
         <v>64</v>
       </c>
@@ -8532,7 +8722,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -8597,7 +8787,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>66</v>
@@ -8619,6 +8809,9 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60</v>
+      </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
@@ -8670,7 +8863,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>114</v>
@@ -8682,10 +8875,10 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -8735,7 +8928,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>119</v>
@@ -8749,14 +8942,17 @@
         <v>97</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>63</v>
+      </c>
       <c r="B27" t="s">
         <v>119</v>
       </c>
@@ -8768,15 +8964,18 @@
       <c r="F27" s="1">
         <v>52</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="19">
         <v>101100115110</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>64</v>
+      </c>
       <c r="B28" t="s">
         <v>119</v>
       </c>
@@ -8789,148 +8988,155 @@
         <v>74</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>10</v>
+      <c r="A29">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>51</v>
+      </c>
       <c r="G29" s="1" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>120</v>
+      <c r="B30">
+        <v>10</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1">
+      <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>66</v>
+      </c>
       <c r="B31" t="s">
         <v>120</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="23">
-        <v>120110115130</v>
+      <c r="G31" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>67</v>
+      </c>
       <c r="B32" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>13</v>
+      </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="19">
+        <v>120110115130</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>11</v>
+      <c r="B33" t="s">
+        <v>120</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>121</v>
+      <c r="B34">
+        <v>11</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1">
-        <v>13</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>68</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>121</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F35" s="1">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>69</v>
+      </c>
       <c r="B36" t="s">
         <v>121</v>
       </c>
@@ -8940,33 +9146,56 @@
         <v>15</v>
       </c>
       <c r="F36" s="1">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>12</v>
+      <c r="A37">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1">
+        <v>73</v>
+      </c>
       <c r="G37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="1"/>
+      <c r="I38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8977,11 +9206,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8993,7 +9222,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>57</v>
       </c>
@@ -9004,13 +9233,16 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>65</v>
       </c>
@@ -9027,39 +9259,42 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>

--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4FF310-3A00-457C-91BE-F1FA9B98F5A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22395" yWindow="3765" windowWidth="21810" windowHeight="12525" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22395" yWindow="3765" windowWidth="21810" windowHeight="12525" tabRatio="765"/>
   </bookViews>
   <sheets>
     <sheet name="keyboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
     <sheet name="three_sin" sheetId="15" r:id="rId21"/>
     <sheet name="two_sin" sheetId="16" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="254">
   <si>
     <t>letter</t>
   </si>
@@ -567,9 +566,6 @@
     <t>jug16_phase</t>
   </si>
   <si>
-    <t>d10</t>
-  </si>
-  <si>
     <t>omg</t>
   </si>
   <si>
@@ -606,12 +602,6 @@
     <t>red_high</t>
   </si>
   <si>
-    <t>d5</t>
-  </si>
-  <si>
-    <t>d1</t>
-  </si>
-  <si>
     <t>change to this_inc</t>
   </si>
   <si>
@@ -817,12 +807,18 @@
   </si>
   <si>
     <t>rand(palette)</t>
+  </si>
+  <si>
+    <t>make mode 61 and 62 happen at the same time</t>
+  </si>
+  <si>
+    <t>slowly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1038,50 +1034,88 @@
   </cellStyles>
   <dxfs count="77">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1235,88 +1269,50 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1332,370 +1328,371 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
-  <autoFilter ref="B4:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E30" totalsRowShown="0">
+  <autoFilter ref="B4:E30"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ascii "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="letter"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="variable"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="range"/>
+    <tableColumn id="1" name="ascii "/>
+    <tableColumn id="2" name="letter"/>
+    <tableColumn id="3" name="variable"/>
+    <tableColumn id="4" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table8" displayName="Table8" ref="B3:I38" totalsRowShown="0">
-  <autoFilter ref="B3:I38" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I38" totalsRowShown="0">
+  <autoFilter ref="B3:I38"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="cooling" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="sparking" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="this_delay" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="target_palette" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="cooling1-4" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="sparking1-4" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="sparking1-5" dataDxfId="70"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="cooling" dataDxfId="74"/>
+    <tableColumn id="3" name="sparking" dataDxfId="73"/>
+    <tableColumn id="4" name="this_delay" dataDxfId="72"/>
+    <tableColumn id="5" name="target_palette" dataDxfId="71"/>
+    <tableColumn id="6" name="cooling1-4" dataDxfId="70"/>
+    <tableColumn id="7" name="sparking1-4" dataDxfId="69"/>
+    <tableColumn id="8" name="sparking1-5" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table23" displayName="Table23" ref="C3:H8" totalsRowShown="0">
-  <autoFilter ref="C3:H8" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="C3:H8" totalsRowShown="0">
+  <autoFilter ref="C3:H8"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="streamer_velocity"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="explosion_velocity"/>
-    <tableColumn id="6" xr3:uid="{33A2169D-5FC7-454A-BBF4-A3D0C439B678}" name="Column1"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="4" name="streamer_velocity"/>
+    <tableColumn id="5" name="explosion_velocity"/>
+    <tableColumn id="6" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table7" displayName="Table7" ref="B3:N41" totalsRowShown="0">
-  <autoFilter ref="B3:N41" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:N41" totalsRowShown="0">
+  <autoFilter ref="B3:N41"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="mode"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="this_delay" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="target_palette" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="juggle_index_reset" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="this_fade" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="numdots_ring" dataDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="numdots_ring_arr[]" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="this_beat" dataDxfId="65"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="ringBeat" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="this_diff" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="cooling1-4" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="sparking1-4" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="jug16_phase" dataDxfId="60"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="8" name="this_delay" dataDxfId="67"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="66"/>
+    <tableColumn id="2" name="juggle_index_reset" dataDxfId="65"/>
+    <tableColumn id="3" name="this_fade" dataDxfId="64"/>
+    <tableColumn id="4" name="numdots_ring" dataDxfId="63"/>
+    <tableColumn id="12" name="numdots_ring_arr[]" dataDxfId="62"/>
+    <tableColumn id="5" name="this_beat" dataDxfId="61"/>
+    <tableColumn id="13" name="ringBeat" dataDxfId="60"/>
+    <tableColumn id="6" name="this_diff" dataDxfId="59"/>
+    <tableColumn id="11" name="cooling1-4" dataDxfId="58"/>
+    <tableColumn id="10" name="sparking1-4" dataDxfId="57"/>
+    <tableColumn id="9" name="jug16_phase" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table16" displayName="Table16" ref="C4:K18" totalsRowShown="0">
-  <autoFilter ref="C4:K18" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="C4:K18" totalsRowShown="0">
+  <autoFilter ref="C4:K18"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="this_rot" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="this_delay" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="target_palette" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="bg_clr" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="bg_bri" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="this_fade" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Column1" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="Column2" dataDxfId="52"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot" dataDxfId="55"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="54"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="53"/>
+    <tableColumn id="5" name="bg_clr" dataDxfId="52"/>
+    <tableColumn id="6" name="bg_bri" dataDxfId="51"/>
+    <tableColumn id="7" name="this_fade" dataDxfId="50"/>
+    <tableColumn id="8" name="Column1" dataDxfId="49"/>
+    <tableColumn id="9" name="Column2" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
-  <autoFilter ref="B5:M11" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="B5:M11" totalsRowShown="0">
+  <autoFilter ref="B5:M11"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="this_fade" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="this_delay" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="blue_angle" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="blue_low" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="blue_high" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="green_angle" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="green_low" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="green_high" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="red_angle" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" name="red_low" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="red_high" dataDxfId="41"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade" dataDxfId="47"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="46"/>
+    <tableColumn id="4" name="blue_angle" dataDxfId="45"/>
+    <tableColumn id="5" name="blue_low" dataDxfId="44"/>
+    <tableColumn id="6" name="blue_high" dataDxfId="43"/>
+    <tableColumn id="7" name="green_angle" dataDxfId="42"/>
+    <tableColumn id="8" name="green_low" dataDxfId="41"/>
+    <tableColumn id="9" name="green_high" dataDxfId="40"/>
+    <tableColumn id="10" name="red_angle" dataDxfId="39"/>
+    <tableColumn id="11" name="red_low" dataDxfId="38"/>
+    <tableColumn id="12" name="red_high" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table9" displayName="Table9" ref="B3:I20" totalsRowShown="0">
-  <autoFilter ref="B3:I20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B3:I20" totalsRowShown="0">
+  <autoFilter ref="B3:I20"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="scale" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="scale2" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="this_delay" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="target_palette" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Column1" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="b" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" name="Column2" dataDxfId="34"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale" dataDxfId="36"/>
+    <tableColumn id="5" name="scale2" dataDxfId="35"/>
+    <tableColumn id="3" name="this_delay" dataDxfId="34"/>
+    <tableColumn id="4" name="target_palette" dataDxfId="33"/>
+    <tableColumn id="6" name="Column1" dataDxfId="32"/>
+    <tableColumn id="7" name="b" dataDxfId="31"/>
+    <tableColumn id="8" name="Column2" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
-  <autoFilter ref="C4:L14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C4:L14" totalsRowShown="0">
+  <autoFilter ref="C4:L14"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="this_speed"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="all_freq"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="this_cutoff"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="bg_clr"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="bg_bri"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="this_rot"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0E00-000009000000}" name="this_delay"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0E00-00000A000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_inc"/>
+    <tableColumn id="3" name="this_speed"/>
+    <tableColumn id="4" name="all_freq"/>
+    <tableColumn id="5" name="this_cutoff"/>
+    <tableColumn id="6" name="bg_clr"/>
+    <tableColumn id="7" name="bg_bri"/>
+    <tableColumn id="8" name="this_rot"/>
+    <tableColumn id="9" name="this_delay"/>
+    <tableColumn id="10" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
-  <autoFilter ref="C4:E9" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="C4:E9" totalsRowShown="0">
+  <autoFilter ref="C4:E9"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="target_palette"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
-  <autoFilter ref="C4:F16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="C4:F16" totalsRowShown="0">
+  <autoFilter ref="C4:F16"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="this_rot"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="this_diff"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_rot"/>
+    <tableColumn id="3" name="this_diff"/>
+    <tableColumn id="4" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
-  <autoFilter ref="C4:G10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C4:G10" totalsRowShown="0">
+  <autoFilter ref="C4:G10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="this_fade"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="myfade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="myfade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2CB0AF64-2043-4AFC-9DD2-7851A54AF5A8}" name="Table24" displayName="Table24" ref="O12:Q16" totalsRowShown="0">
-  <autoFilter ref="O12:Q16" xr:uid="{FBE668EB-B6DB-4D5A-832E-ECE4A1789878}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{105CB44F-EEA5-4D26-B564-88DF596DC969}" name="Rotary Function"/>
-    <tableColumn id="4" xr3:uid="{0335C800-CF48-4B73-8912-9D69E644716D}" name="Rotate"/>
-    <tableColumn id="2" xr3:uid="{5152827C-77A3-45CE-B6C2-349AD70B9611}" name="SwitchB On"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="O12:R18" totalsRowShown="0">
+  <autoFilter ref="O12:R18"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Rotary Function"/>
+    <tableColumn id="4" name="Rotate"/>
+    <tableColumn id="2" name="SwitchB On"/>
+    <tableColumn id="3" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
-  <autoFilter ref="C4:F14" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="C4:F14" totalsRowShown="0">
+  <autoFilter ref="C4:F14"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="this_delay"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="target_palette"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="this_fade"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="4" name="this_fade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table14" displayName="Table14" ref="C5:O22" totalsRowShown="0">
-  <autoFilter ref="C5:O22" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C5:O22" totalsRowShown="0">
+  <autoFilter ref="C5:O22"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="mode"/>
-    <tableColumn id="3" xr3:uid="{6905E999-B173-4864-BB8A-BC6D37BB6ABC}" name="d" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A76E4A82-7488-48AF-B7BE-76BD0688E035}" name="f " dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="this_inc" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="this_speed" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1300-00000A000000}" name="this_rot" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1300-00000B000000}" name="all_freq" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="this_cutoff" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1300-00000E000000}" name="that_speed" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1300-00000C000000}" name="bg_clr" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1300-00000D000000}" name="bg_bri" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="this_delay" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="target_palette" dataDxfId="24"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="3" name="d" dataDxfId="29"/>
+    <tableColumn id="4" name="f " dataDxfId="28"/>
+    <tableColumn id="8" name="this_inc" dataDxfId="27"/>
+    <tableColumn id="9" name="this_speed" dataDxfId="26"/>
+    <tableColumn id="10" name="this_rot" dataDxfId="25"/>
+    <tableColumn id="11" name="all_freq" dataDxfId="24"/>
+    <tableColumn id="2" name="this_cutoff" dataDxfId="23"/>
+    <tableColumn id="14" name="that_speed" dataDxfId="22"/>
+    <tableColumn id="12" name="bg_clr" dataDxfId="21"/>
+    <tableColumn id="13" name="bg_bri" dataDxfId="20"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="19"/>
+    <tableColumn id="7" name="target_palette" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table19" displayName="Table19" ref="C3:E6" totalsRowShown="0">
-  <autoFilter ref="C3:E6" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="C3:E6" totalsRowShown="0">
+  <autoFilter ref="C3:E6"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="mode"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="this_delay" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1400-000009000000}" name="target_palette" dataDxfId="22"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="8" name="this_delay" dataDxfId="17"/>
+    <tableColumn id="9" name="target_palette" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table15" displayName="Table15" ref="C5:H15" totalsRowShown="0">
-  <autoFilter ref="C5:H15" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C5:H15" totalsRowShown="0">
+  <autoFilter ref="C5:H15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="mul1" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="mul2" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="mul3" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="this_delay" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="target_palette" dataDxfId="17"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="mul1" dataDxfId="15"/>
+    <tableColumn id="3" name="mul2" dataDxfId="14"/>
+    <tableColumn id="4" name="mul3" dataDxfId="13"/>
+    <tableColumn id="5" name="this_delay" dataDxfId="12"/>
+    <tableColumn id="6" name="target_palette" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table17" displayName="Table17" ref="C4:N19" totalsRowShown="0">
-  <autoFilter ref="C4:N19" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C4:N19" totalsRowShown="0">
+  <autoFilter ref="C4:N19"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="this_speed" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="that_speed" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="this_rot" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="that_rot" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="all_freq" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1600-000008000000}" name="this_cutoff" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1600-000009000000}" name="that_cutoff" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1600-00000A000000}" name="this_sat" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1600-00000B000000}" name="this_delay" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1600-00000C000000}" name="target_palette" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="brightness" dataDxfId="6"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_speed" dataDxfId="10"/>
+    <tableColumn id="3" name="that_speed" dataDxfId="9"/>
+    <tableColumn id="4" name="this_rot" dataDxfId="8"/>
+    <tableColumn id="5" name="that_rot" dataDxfId="7"/>
+    <tableColumn id="6" name="all_freq" dataDxfId="6"/>
+    <tableColumn id="8" name="this_cutoff" dataDxfId="5"/>
+    <tableColumn id="9" name="that_cutoff" dataDxfId="4"/>
+    <tableColumn id="10" name="this_sat" dataDxfId="3"/>
+    <tableColumn id="11" name="this_delay" dataDxfId="2"/>
+    <tableColumn id="12" name="target_palette" dataDxfId="1"/>
+    <tableColumn id="7" name="brightness" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="L4:M97" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="L4:M97" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="L4:M97" totalsRowShown="0" headerRowDxfId="76">
+  <autoFilter ref="L4:M97"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="led_mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="mode" dataDxfId="0"/>
+    <tableColumn id="1" name="led_mode"/>
+    <tableColumn id="2" name="mode" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B3:F15" totalsRowShown="0">
-  <autoFilter ref="B3:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F15" totalsRowShown="0">
+  <autoFilter ref="B3:F15"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="this_fade"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="this_delay"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column1"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_fade"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="6" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
-  <autoFilter ref="B4:F24" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:F24" totalsRowShown="0">
+  <autoFilter ref="B4:F24"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="scale"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="this_delay"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="scale"/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="4" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="target_palette"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="this_delay"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="target_palette"/>
+    <tableColumn id="3" name="this_delay"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
-  <autoFilter ref="B4:E8" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="B4:E8" totalsRowShown="0">
+  <autoFilter ref="B4:E8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="this_delay "/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="target_palette"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Column1"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_delay "/>
+    <tableColumn id="3" name="target_palette"/>
+    <tableColumn id="4" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
-  <autoFilter ref="B3:H9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:H9" totalsRowShown="0">
+  <autoFilter ref="B3:H9"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="this_diff"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="this_inc"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="this_fade"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="target_palette"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="this_delay"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Notes"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_diff"/>
+    <tableColumn id="3" name="this_inc"/>
+    <tableColumn id="7" name="this_fade"/>
+    <tableColumn id="4" name="target_palette"/>
+    <tableColumn id="5" name="this_delay"/>
+    <tableColumn id="6" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
-  <autoFilter ref="C4:G12" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="C4:G12" totalsRowShown="0">
+  <autoFilter ref="C4:G12"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="mode"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="this_hue"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="this_inc"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="this_delay"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Column1"/>
+    <tableColumn id="1" name="mode"/>
+    <tableColumn id="2" name="this_hue"/>
+    <tableColumn id="4" name="this_inc"/>
+    <tableColumn id="3" name="this_delay"/>
+    <tableColumn id="5" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1997,14 +1994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:Q97"/>
+  <dimension ref="B4:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P81" sqref="P81"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2025,7 +2022,7 @@
     <col min="18" max="18" width="13.